--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1070.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1070.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0006639161355600005</v>
+        <v>0.0007416084492957451</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0007338020445663162</v>
+        <v>0.0006902098438990104</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,37 +7591,37 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03304491056592701</v>
+        <v>0.03290189061524618</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001627013043807127</v>
+        <v>0.001578844231699759</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.06414340424029694</v>
+        <v>0.0640766719825903</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001617236593981527</v>
+        <v>0.001611480572408948</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2070355630385371</v>
+        <v>0.1742833228100785</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001990078380555379</v>
+        <v>0.001597976473826478</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.2879093347373809</v>
+        <v>0.3266415628705606</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001593531891353235</v>
+        <v>0.001958465161848927</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03480698292740565</v>
+        <v>0.03459716564376089</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002440519565710691</v>
+        <v>0.002368266347549638</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.001468827597192997</v>
+        <v>-0.003573875797010106</v>
       </c>
       <c r="J88" t="n">
         <v>0.08742956320651361</v>
@@ -7658,25 +7658,25 @@
         <v>0.002647244730161812</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.00234301688403865</v>
+        <v>-0.002350604781813488</v>
       </c>
       <c r="M88" t="n">
-        <v>0.2130488743456532</v>
+        <v>0.2070355630385371</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002421173722267107</v>
+        <v>0.002222959893173563</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.003247209233086239</v>
+        <v>-0.002225618354819576</v>
       </c>
       <c r="P88" t="n">
-        <v>0.3266415628705606</v>
+        <v>0.3347245667345865</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002082157698386754</v>
+        <v>0.002350261613942444</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.0008192277607522938</v>
+        <v>-0.002686612484396085</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03640539911502364</v>
+        <v>0.03614051502134639</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003254026087614255</v>
+        <v>0.003157688463399518</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.001468827597192997</v>
+        <v>-0.003573875797010106</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09093810357108002</v>
+        <v>0.09047990314996836</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003234473187963053</v>
+        <v>0.003222961144817896</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.00234301688403865</v>
+        <v>-0.002350604781813488</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2237370143794976</v>
+        <v>0.2192003741593872</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003228231629689476</v>
+        <v>0.003195952947652956</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.003247209233086239</v>
+        <v>-0.002225618354819576</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3500514543076407</v>
+        <v>0.3499453811890971</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.00318706378270647</v>
+        <v>0.003133682151923259</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.0008192277607522938</v>
+        <v>-0.002686612484396085</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.03786557950240229</v>
+        <v>0.03755128221523892</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004067532609517819</v>
+        <v>0.003947110579249397</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.001468827597192997</v>
+        <v>-0.003574590572169508</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09538268642023913</v>
+        <v>0.09452187701223887</v>
       </c>
       <c r="K90" t="n">
-        <v>0.004043091484953817</v>
+        <v>0.00402870143102237</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.00234301688403865</v>
+        <v>-0.002350604781813488</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2334305293794167</v>
+        <v>0.228518585088043</v>
       </c>
       <c r="N90" t="n">
-        <v>0.004035289537111845</v>
+        <v>0.003994941184566195</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.003247209233086239</v>
+        <v>-0.002225618354819576</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3655733194921577</v>
+        <v>0.3641546234613349</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.003983829728383088</v>
+        <v>0.003917102689904074</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.0008192277607522938</v>
+        <v>-0.002686612484396085</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.03921470395639076</v>
+        <v>0.03881912079118401</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004881039131421382</v>
+        <v>0.004736532695099276</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.001468827597192997</v>
+        <v>-0.003574233184589807</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09953137952429721</v>
+        <v>0.09827276055581226</v>
       </c>
       <c r="K91" t="n">
-        <v>0.00485170978194458</v>
+        <v>0.004834441717226844</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.00234301688403865</v>
+        <v>-0.002350604781813488</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2425469284521977</v>
+        <v>0.2370283837693414</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004842347444534214</v>
+        <v>0.004793929421479434</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.003247209233086239</v>
+        <v>-0.002225618354819576</v>
       </c>
       <c r="P91" t="n">
-        <v>0.379736011149997</v>
+        <v>0.3772249170065151</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004780595674059706</v>
+        <v>0.004700523227884888</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.0008192277607522938</v>
+        <v>-0.002686612484396085</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04041813965663213</v>
+        <v>0.03995732234758134</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005694545653324946</v>
+        <v>0.005525954810949156</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.001580437043644079</v>
+        <v>-0.003292111190927253</v>
       </c>
       <c r="J92" t="n">
-        <v>0.103404848599176</v>
+        <v>0.1017158129711826</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005660328078935344</v>
+        <v>0.005640182003431317</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.002533084493574153</v>
+        <v>-0.002332804733956771</v>
       </c>
       <c r="M92" t="n">
-        <v>0.250817706482255</v>
+        <v>0.2448746757549736</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005649405351956583</v>
+        <v>0.005592917658392673</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.003076189924046918</v>
+        <v>-0.002655891537005216</v>
       </c>
       <c r="P92" t="n">
-        <v>0.392778631538517</v>
+        <v>0.3892049605438013</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005577361619736323</v>
+        <v>0.005483943765865703</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.0009064956773039729</v>
+        <v>-0.002648970199101989</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04148290950831286</v>
+        <v>0.04101161758148013</v>
       </c>
       <c r="G93" t="n">
-        <v>0.00650805217522851</v>
+        <v>0.006315376926799035</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.001580437043644079</v>
+        <v>-0.003291452834524708</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1069290526306848</v>
+        <v>0.104924689734328</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006468946375926107</v>
+        <v>0.006445922289635792</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.002533084493574153</v>
+        <v>-0.002332804733956771</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2583971391692085</v>
+        <v>0.251970992049313</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006456463259378951</v>
+        <v>0.006391905895305912</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.003076189924046918</v>
+        <v>-0.002655891537005216</v>
       </c>
       <c r="P93" t="n">
-        <v>0.4048257265578263</v>
+        <v>0.4002741258931759</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006374127565412941</v>
+        <v>0.006267364303846517</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.0009064956773039729</v>
+        <v>-0.002648970199101989</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04246843037373549</v>
+        <v>0.04193945263553511</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007321558697132073</v>
+        <v>0.007104799042648914</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.001580437043644079</v>
+        <v>-0.003292440369128526</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1101337602857221</v>
+        <v>0.1078833498236898</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007277564672916871</v>
+        <v>0.007251662575840265</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.002533084493574153</v>
+        <v>-0.002332804733956771</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2654490681999093</v>
+        <v>0.258672413933458</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007263521166801319</v>
+        <v>0.007190894132219151</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.003076189924046918</v>
+        <v>-0.002655891537005216</v>
       </c>
       <c r="P94" t="n">
-        <v>0.415939650242678</v>
+        <v>0.4106204568779273</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007170893511089558</v>
+        <v>0.007050784841827333</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.0009064956773039729</v>
+        <v>-0.002648970199101989</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04332471799430658</v>
+        <v>0.04275428905635949</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008135065219035637</v>
+        <v>0.007894221158498794</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.001580437043644079</v>
+        <v>-0.002872453811613597</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1131319833391676</v>
+        <v>0.1105732978311104</v>
       </c>
       <c r="K95" t="n">
-        <v>0.008086182969907634</v>
+        <v>0.008057402862044739</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.002533084493574153</v>
+        <v>-0.002332804733956771</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2717653602282176</v>
+        <v>0.2646494478860212</v>
       </c>
       <c r="N95" t="n">
-        <v>0.008070579074223689</v>
+        <v>0.00798988236913239</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.003076189924046918</v>
+        <v>-0.002655891537005216</v>
       </c>
       <c r="P95" t="n">
-        <v>0.4259793747070352</v>
+        <v>0.4198360876041352</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.007967659456766175</v>
+        <v>0.007834205379808147</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.0009064956773039729</v>
+        <v>-0.002648970199101989</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04411907824966869</v>
+        <v>0.04350318676728251</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008948571740939201</v>
+        <v>0.008683643274348674</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.001646459141824078</v>
+        <v>-0.002871879435726451</v>
       </c>
       <c r="J96" t="n">
-        <v>0.115827991912481</v>
+        <v>0.113055577834816</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008894801266898397</v>
+        <v>0.008863143148249214</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.002673984332583512</v>
+        <v>-0.00229532227794776</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2776360117179724</v>
+        <v>0.2702234193034634</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008877636981646059</v>
+        <v>0.008788870606045629</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.002771356714355892</v>
+        <v>-0.002994727321666262</v>
       </c>
       <c r="P96" t="n">
-        <v>0.4353404365818035</v>
+        <v>0.4283018627437644</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008764425402442794</v>
+        <v>0.008617625917788961</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.001069433574755532</v>
+        <v>-0.002582834730686046</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.04480665290954047</v>
+        <v>0.04413450611328062</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009762078262842764</v>
+        <v>0.009473065390198552</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.001646459141824078</v>
+        <v>-0.002871879435726451</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1182700016505594</v>
+        <v>0.11534462435745</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009703419563889161</v>
+        <v>0.009668883434453688</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.002673984332583512</v>
+        <v>-0.00229532227794776</v>
       </c>
       <c r="M97" t="n">
-        <v>0.282801971922443</v>
+        <v>0.2752206589739009</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009684694889068427</v>
+        <v>0.009587858842958869</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.002771356714355892</v>
+        <v>-0.002994727321666262</v>
       </c>
       <c r="P97" t="n">
-        <v>0.4436038605559917</v>
+        <v>0.4360729573701564</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009561191348119412</v>
+        <v>0.009401046455769776</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.001069433574755532</v>
+        <v>-0.002582834730686046</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04540174604063732</v>
+        <v>0.0447090712431555</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01057558478474633</v>
+        <v>0.01026248750604843</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.001646459141824078</v>
+        <v>-0.002872166623670024</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1205425502861224</v>
+        <v>0.117421271254154</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01051203786087992</v>
+        <v>0.01047462372065816</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.002673984332583512</v>
+        <v>-0.00229532227794776</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2876025473287295</v>
+        <v>0.279801358047188</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0104917527964908</v>
+        <v>0.01038684707987211</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.002771356714355892</v>
+        <v>-0.002994727321666262</v>
       </c>
       <c r="P98" t="n">
-        <v>0.4513096266502552</v>
+        <v>0.442857635698809</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01035795729379603</v>
+        <v>0.01018446699375059</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.001069433574755532</v>
+        <v>-0.002582834730686046</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04593275542991812</v>
+        <v>0.04522154791895229</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01138909130664989</v>
+        <v>0.01105190962189831</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.001646459141824078</v>
+        <v>-0.002871879435726451</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1225782392121985</v>
+        <v>0.1193155123654222</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01132065615787069</v>
+        <v>0.01128036400686263</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.002772611138656724</v>
+        <v>-0.00229532227794776</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2919041665041087</v>
+        <v>0.2840010184072982</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01129881070391317</v>
+        <v>0.01118583531678535</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.002771356714355892</v>
+        <v>-0.002994727321666262</v>
       </c>
       <c r="P99" t="n">
-        <v>0.4580982394618112</v>
+        <v>0.4493300649500627</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01115472323947265</v>
+        <v>0.01096788753173141</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.001069433574755532</v>
+        <v>-0.002500717164470905</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04641488773333337</v>
+        <v>0.04565928345927489</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01220259782855346</v>
+        <v>0.01184133173774819</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.001682914542534763</v>
+        <v>-0.002407306226503261</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1244626038945313</v>
+        <v>0.1209897355534869</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01212927445486145</v>
+        <v>0.01208610429306711</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.002772611138656724</v>
+        <v>-0.002246123229048442</v>
       </c>
       <c r="M100" t="n">
-        <v>0.295833708310728</v>
+        <v>0.2878111173408943</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01210586861133553</v>
+        <v>0.01198482355369858</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.002399495926031903</v>
+        <v>-0.003250110934856752</v>
       </c>
       <c r="P100" t="n">
-        <v>0.4643798104656645</v>
+        <v>0.4550585257221019</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01195148918514926</v>
+        <v>0.01175130806971222</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.00127669583128746</v>
+        <v>-0.002500717164470905</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04682867687140085</v>
+        <v>0.04605730147540056</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01301610435045702</v>
+        <v>0.01263075385359807</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.001682914542534763</v>
+        <v>-0.002407065495880611</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1261431777371922</v>
+        <v>0.1225770214797686</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01293789275185221</v>
+        <v>0.01289184457927158</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.002772611138656724</v>
+        <v>-0.002246123229048442</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2993413987446265</v>
+        <v>0.2911333188731972</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0129129265187579</v>
+        <v>0.01278381179061182</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.002399495926031903</v>
+        <v>-0.003250110934856752</v>
       </c>
       <c r="P101" t="n">
-        <v>0.470072819920716</v>
+        <v>0.4603052500545867</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01274825513082588</v>
+        <v>0.01253472860769303</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.00127669583128746</v>
+        <v>-0.002500717164470905</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04722397691452426</v>
+        <v>0.046402816686743</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01382961087236058</v>
+        <v>0.01342017596944795</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.001682914542534763</v>
+        <v>-0.002407065495880611</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1277425380606165</v>
+        <v>0.1239884983479637</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01374651104884298</v>
+        <v>0.01369758486547606</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.002772611138656724</v>
+        <v>-0.002246123229048442</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3024199679213166</v>
+        <v>0.2943098605175883</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01371998442618027</v>
+        <v>0.01358280002752506</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.002399495926031903</v>
+        <v>-0.003250110934856752</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4753810576917744</v>
+        <v>0.4649813031480829</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.0135450210765025</v>
+        <v>0.01331814914567385</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.00127669583128746</v>
+        <v>-0.002500717164470905</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04753899512324483</v>
+        <v>0.04672431317591277</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01464311739426415</v>
+        <v>0.01420959808529783</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.001682914542534763</v>
+        <v>-0.002407065495880611</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1291181405617441</v>
+        <v>0.1253071557870457</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01455512934583374</v>
+        <v>0.01450332515168053</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.002772611138656724</v>
+        <v>-0.002246123229048442</v>
       </c>
       <c r="M103" t="n">
-        <v>0.3052433092811476</v>
+        <v>0.2971548733076902</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01452704233360264</v>
+        <v>0.0143817882644383</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.002399495926031903</v>
+        <v>-0.003250110934856752</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4800010669288699</v>
+        <v>0.4690660061987901</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01434178702217912</v>
+        <v>0.01410156968365467</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.00127669583128746</v>
+        <v>-0.002500717164470905</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04785894149045557</v>
+        <v>0.04698087324571372</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01545662391616771</v>
+        <v>0.01499902020114771</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.001710841672209892</v>
+        <v>-0.001992810097693024</v>
       </c>
       <c r="J104" t="n">
-        <v>0.13039311253567</v>
+        <v>0.1264768297550808</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0153637476428245</v>
+        <v>0.015309065437885</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.002835859649383786</v>
+        <v>-0.002196112338316862</v>
       </c>
       <c r="M104" t="n">
-        <v>0.3078513897549191</v>
+        <v>0.2996116428780437</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01533410024102501</v>
+        <v>0.01518077650135154</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.002027393881093694</v>
+        <v>-0.003431222684959027</v>
       </c>
       <c r="P104" t="n">
-        <v>0.4844280449440799</v>
+        <v>0.4728265647487855</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01513855296785573</v>
+        <v>0.01488499022163548</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.001496936825080248</v>
+        <v>-0.002417967654374784</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04812855643138253</v>
+        <v>0.04723585462626541</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01627013043807127</v>
+        <v>0.01578844231699759</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.001710841672209892</v>
+        <v>-0.001992810097693024</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1316392846550515</v>
+        <v>0.1275637982057559</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01617236593981527</v>
+        <v>0.01611480572408948</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.002835859649383786</v>
+        <v>-0.002196112338316862</v>
       </c>
       <c r="M105" t="n">
-        <v>0.3103300405532235</v>
+        <v>0.3019833033091478</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01614115814844738</v>
+        <v>0.01597976473826478</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.002027393881093694</v>
+        <v>-0.003431222684959027</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4882076262043407</v>
+        <v>0.4763168669065109</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01593531891353235</v>
+        <v>0.01566841075961629</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.001496936825080248</v>
+        <v>-0.002417967654374784</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0484196697283997</v>
+        <v>0.04749020822157206</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01708363695997484</v>
+        <v>0.01657786443284747</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.001710841672209892</v>
+        <v>-0.001992212374208414</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1327104999284376</v>
+        <v>0.1285642162304429</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01698098423680603</v>
+        <v>0.01692054601029395</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.002835859649383786</v>
+        <v>-0.002196112338316862</v>
       </c>
       <c r="M106" t="n">
-        <v>0.3124421076737233</v>
+        <v>0.3041243955116881</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01694821605586974</v>
+        <v>0.01677875297517802</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.002027393881093694</v>
+        <v>-0.003431222684959027</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4917649295443746</v>
+        <v>0.4795905849370673</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01673208485920897</v>
+        <v>0.01645183129759711</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.001496936825080248</v>
+        <v>-0.002417967654374784</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04868363826145565</v>
+        <v>0.04773067287754001</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0178971434818784</v>
+        <v>0.01736728654869735</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.001710841672209892</v>
+        <v>-0.001992212374208414</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1337690644516508</v>
+        <v>0.1295456225522747</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01778960253379679</v>
+        <v>0.01772628629649843</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.002835859649383786</v>
+        <v>-0.002196112338316862</v>
       </c>
       <c r="M107" t="n">
-        <v>0.3145027779286637</v>
+        <v>0.3060684047590471</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01775527396329212</v>
+        <v>0.01757774121209126</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.002027393881093694</v>
+        <v>-0.003431222684959027</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4952343844933212</v>
+        <v>0.4824814614722004</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01752885080488559</v>
+        <v>0.01723525183557792</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.001496936825080248</v>
+        <v>-0.002417967654374784</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04893550064200614</v>
+        <v>0.04794370736865046</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01871065000378196</v>
+        <v>0.01815670866454723</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.001742992689963549</v>
+        <v>-0.001718999796381293</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1347589346042013</v>
+        <v>0.1303601442296547</v>
       </c>
       <c r="K108" t="n">
-        <v>0.01859822083078756</v>
+        <v>0.0185320265827029</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.002870624602354694</v>
+        <v>-0.002152150320940851</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3165056614867168</v>
+        <v>0.3079404884733757</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01856233187071448</v>
+        <v>0.01837672944900449</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.001721836901560009</v>
+        <v>-0.003544980382301755</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4984521733499877</v>
+        <v>0.4854080604000073</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.0183256167505622</v>
+        <v>0.01801867237355874</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.001698810934314383</v>
+        <v>-0.002347673200846227</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04921918920815954</v>
+        <v>0.04820063412511309</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01952415652568553</v>
+        <v>0.0189461307803971</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.001742992689963549</v>
+        <v>-0.001718827930774776</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1356781719136594</v>
+        <v>0.1312373861618606</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01940683912777832</v>
+        <v>0.01933776686890738</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.002870624602354694</v>
+        <v>-0.002152150320940851</v>
       </c>
       <c r="M109" t="n">
-        <v>0.3183966627206625</v>
+        <v>0.3097293662927296</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01936938977813685</v>
+        <v>0.01917571768591774</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.001721836901560009</v>
+        <v>-0.003544980382301755</v>
       </c>
       <c r="P109" t="n">
-        <v>0.5016263691799698</v>
+        <v>0.4879088417530534</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01912238269623882</v>
+        <v>0.01880209291153955</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.001698810934314383</v>
+        <v>-0.002347673200846227</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04951415655740526</v>
+        <v>0.04845971913445607</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02033766304758909</v>
+        <v>0.01973555289624698</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.001742992689963549</v>
+        <v>-0.001718656065168259</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1366737878969334</v>
+        <v>0.1320286978981525</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02021545742476908</v>
+        <v>0.02014350715511185</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.002870624602354694</v>
+        <v>-0.002152150320940851</v>
       </c>
       <c r="M110" t="n">
-        <v>0.3202612568607708</v>
+        <v>0.311515312670501</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02017644768555922</v>
+        <v>0.01997470592283097</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.001721836901560009</v>
+        <v>-0.003544980382301755</v>
       </c>
       <c r="P110" t="n">
-        <v>0.5045902406518938</v>
+        <v>0.4904776260547333</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.01991914864191544</v>
+        <v>0.01958551344952037</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.001698810934314383</v>
+        <v>-0.002347673200846227</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04984294009359713</v>
+        <v>0.04873570153364994</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02115116956949266</v>
+        <v>0.02052497501209686</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.001806550269387109</v>
+        <v>-0.001718656065168259</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1375765457422098</v>
+        <v>0.1328018828062483</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02102407572175985</v>
+        <v>0.02094924744131632</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.002870624602354694</v>
+        <v>-0.002152150320940851</v>
       </c>
       <c r="M111" t="n">
-        <v>0.3222328919068687</v>
+        <v>0.3131940143937806</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02098350559298159</v>
+        <v>0.02077369415974421</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.001721836901560009</v>
+        <v>-0.003544980382301755</v>
       </c>
       <c r="P111" t="n">
-        <v>0.5076279871628213</v>
+        <v>0.4930199662068848</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02071591458759206</v>
+        <v>0.02036893398750118</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.001850972537170357</v>
+        <v>-0.002347673200846227</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05019186827808031</v>
+        <v>0.04906146133681004</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02196467609139622</v>
+        <v>0.02131439712794674</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.001806550269387109</v>
+        <v>-0.001669402716378688</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1385339251330921</v>
+        <v>0.1335706307992511</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02183269401875061</v>
+        <v>0.0217549877275208</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.002883800735159447</v>
+        <v>-0.002124633885787252</v>
       </c>
       <c r="M112" t="n">
-        <v>0.3241147118179216</v>
+        <v>0.3148915459451368</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02179056350040396</v>
+        <v>0.02157268239665745</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.001549611309449587</v>
+        <v>-0.003598483604024993</v>
       </c>
       <c r="P112" t="n">
-        <v>0.5107992599429533</v>
+        <v>0.495663048321567</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02151268053326868</v>
+        <v>0.021152354525482</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.001850972537170357</v>
+        <v>-0.002303494063759254</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05058461057962077</v>
+        <v>0.04935984387361739</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02277818261329978</v>
+        <v>0.02210381924379662</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.001806550269387109</v>
+        <v>-0.001669068902598168</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1395065743578501</v>
+        <v>0.1343486317902644</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02264131231574137</v>
+        <v>0.02256072801372527</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.002883800735159447</v>
+        <v>-0.002124633885787252</v>
       </c>
       <c r="M113" t="n">
-        <v>0.3261344084678947</v>
+        <v>0.3166886958198</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02259762140782633</v>
+        <v>0.02237167063357069</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.001549611309449587</v>
+        <v>-0.003598483604024993</v>
       </c>
       <c r="P113" t="n">
-        <v>0.5138581826112393</v>
+        <v>0.4984602864788162</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02230944647894529</v>
+        <v>0.02193577506346281</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.001850972537170357</v>
+        <v>-0.002303494063759254</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0509762226103091</v>
+        <v>0.04967389817792683</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02359168913520335</v>
+        <v>0.0228932413596465</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.001806550269387109</v>
+        <v>-0.001669068902598168</v>
       </c>
       <c r="J114" t="n">
-        <v>0.14060639286348</v>
+        <v>0.135131064437073</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02344993061273214</v>
+        <v>0.02336646829992975</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002883800735159447</v>
+        <v>-0.002124633885787252</v>
       </c>
       <c r="M114" t="n">
-        <v>0.328283792219382</v>
+        <v>0.3187138547796201</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0234046793152487</v>
+        <v>0.02317065887048393</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.001549611309449587</v>
+        <v>-0.003598483604024993</v>
       </c>
       <c r="P114" t="n">
-        <v>0.5173208865296313</v>
+        <v>0.5011647377641977</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02310621242462191</v>
+        <v>0.02271919560144363</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.001850972537170357</v>
+        <v>-0.002303494063759254</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05135160129310713</v>
+        <v>0.04996757766206565</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02440519565710691</v>
+        <v>0.02368266347549638</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.001806550269387109</v>
+        <v>-0.001669235809488428</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1416985190764125</v>
+        <v>0.1359313674300072</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0242585489097229</v>
+        <v>0.02417220858613421</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002883800735159447</v>
+        <v>-0.002124633885787252</v>
       </c>
       <c r="M115" t="n">
-        <v>0.3304833424159273</v>
+        <v>0.3207205767664248</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02421173722267107</v>
+        <v>0.02396964710739717</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.001549611309449587</v>
+        <v>-0.003598483604024993</v>
       </c>
       <c r="P115" t="n">
-        <v>0.5210950412099985</v>
+        <v>0.5041280920020904</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02390297837029853</v>
+        <v>0.02350261613942444</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.001850972537170357</v>
+        <v>-0.002303494063759254</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05174054303249655</v>
+        <v>0.05025535651866266</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02521870217901048</v>
+        <v>0.02447208559134626</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.001891386287880494</v>
+        <v>-0.001780284879032793</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1427172772589679</v>
+        <v>0.1368637386314523</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02506716720671366</v>
+        <v>0.02497794887233869</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002855791198516776</v>
+        <v>-0.002125369623066667</v>
       </c>
       <c r="M116" t="n">
-        <v>0.3328232495922682</v>
+        <v>0.3226553276832868</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02501879513009344</v>
+        <v>0.02476863534431041</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.001533785609981547</v>
+        <v>-0.0036018821257249</v>
       </c>
       <c r="P116" t="n">
-        <v>0.5249491863609651</v>
+        <v>0.5072361675769568</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02469974431597515</v>
+        <v>0.02428603667740526</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.001928590940944135</v>
+        <v>-0.002295984914262861</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05210606087994649</v>
+        <v>0.05054461534274032</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02603220870091404</v>
+        <v>0.02526150770719614</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.001891386287880494</v>
+        <v>-0.001780640971617858</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1437900529868566</v>
+        <v>0.1377099362846048</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02587578550370443</v>
+        <v>0.02578368915854317</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002855791198516776</v>
+        <v>-0.002125369623066667</v>
       </c>
       <c r="M117" t="n">
-        <v>0.3350276013995308</v>
+        <v>0.3247613609816139</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02582585303751581</v>
+        <v>0.02556762358122365</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.001533785609981547</v>
+        <v>-0.0036018821257249</v>
       </c>
       <c r="P117" t="n">
-        <v>0.5286941974039586</v>
+        <v>0.5103439153699569</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02549651026165176</v>
+        <v>0.02506945721538607</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.001928590940944135</v>
+        <v>-0.002295984914262861</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05244804669785358</v>
+        <v>0.05084284812675241</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0268457152228176</v>
+        <v>0.02605092982304602</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.001891386287880494</v>
+        <v>-0.001780462925325326</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1448204754282275</v>
+        <v>0.1385554812682336</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02668440380069519</v>
+        <v>0.02658942944474764</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002855791198516776</v>
+        <v>-0.002125369623066667</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3373384631286989</v>
+        <v>0.3267553543017869</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02663291094493817</v>
+        <v>0.02636661181813689</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.001533785609981547</v>
+        <v>-0.0036018821257249</v>
       </c>
       <c r="P118" t="n">
-        <v>0.532523752114105</v>
+        <v>0.5132125229590822</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02629327620732838</v>
+        <v>0.02585287775336689</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.001928590940944135</v>
+        <v>-0.002295984914262861</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05281174129466365</v>
+        <v>0.05110593959692589</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02765922174472116</v>
+        <v>0.0268403519388959</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.001891386287880494</v>
+        <v>-0.001780819017910391</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1458667659290847</v>
+        <v>0.13938199849521</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02749302209768596</v>
+        <v>0.02739516973095211</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002855791198516776</v>
+        <v>-0.002125369623066667</v>
       </c>
       <c r="M119" t="n">
-        <v>0.3395617781492069</v>
+        <v>0.3286390829085717</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02743996885236054</v>
+        <v>0.02716560005505012</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.001533785609981547</v>
+        <v>-0.0036018821257249</v>
       </c>
       <c r="P119" t="n">
-        <v>0.5361257387257177</v>
+        <v>0.5159193510460172</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.027090042153005</v>
+        <v>0.0266362982913477</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.001928590940944135</v>
+        <v>-0.002295984914262861</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05312935466686139</v>
+        <v>0.05140034479141306</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02847272826662473</v>
+        <v>0.02762977405474578</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.001993768965111463</v>
+        <v>-0.002003164343504402</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1468308912210237</v>
+        <v>0.1401517613600534</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02830164039467672</v>
+        <v>0.02820091001715659</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.002718205342939037</v>
+        <v>-0.002188572293554747</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3415491631739881</v>
+        <v>0.3304143602108298</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02824702675978291</v>
+        <v>0.02796458829196336</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.001538368165842275</v>
+        <v>-0.003565478807311779</v>
       </c>
       <c r="P120" t="n">
-        <v>0.5397349452630562</v>
+        <v>0.5187736029818641</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02788680809868161</v>
+        <v>0.02741971882932852</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.001976186593651359</v>
+        <v>-0.002296275294792897</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05346148453203863</v>
+        <v>0.05164465164475449</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02928623478852829</v>
+        <v>0.02841919617059566</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.001993768965111463</v>
+        <v>-0.002002563514367177</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1477710866720909</v>
+        <v>0.1409791798800336</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02911025869166748</v>
+        <v>0.02900665030336106</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.002718205342939037</v>
+        <v>-0.002188572293554747</v>
       </c>
       <c r="M121" t="n">
-        <v>0.3437421766838022</v>
+        <v>0.3320830353833432</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02905408466720528</v>
+        <v>0.0287635765288766</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.001538368165842275</v>
+        <v>-0.003565478807311779</v>
       </c>
       <c r="P121" t="n">
-        <v>0.5431938934495726</v>
+        <v>0.5216259627726917</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02868357404435823</v>
+        <v>0.02820313936730933</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.001976186593651359</v>
+        <v>-0.002296275294792897</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05378557260535158</v>
+        <v>0.05190564521088598</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03009974131043186</v>
+        <v>0.02920861828644554</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.001993768965111463</v>
+        <v>-0.002002763790746252</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1487467536985245</v>
+        <v>0.1417504591382948</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02991887698865824</v>
+        <v>0.02981239058956554</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002718205342939037</v>
+        <v>-0.002188572293554747</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3457470989077616</v>
+        <v>0.3337921431467963</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02986114257462765</v>
+        <v>0.02956256476578984</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.001538368165842275</v>
+        <v>-0.003565478807311779</v>
       </c>
       <c r="P122" t="n">
-        <v>0.5465812871033243</v>
+        <v>0.5242474676208259</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02948033999003485</v>
+        <v>0.02898655990529015</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.001976186593651359</v>
+        <v>-0.002296275294792897</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05412479324473929</v>
+        <v>0.05216112626894946</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03091324783233542</v>
+        <v>0.02999804040229541</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.002103657314597139</v>
+        <v>-0.002002964067125327</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1496586928965964</v>
+        <v>0.1425231893099688</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03072749528564901</v>
+        <v>0.03061813087577001</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.002718205342939037</v>
+        <v>-0.002188572293554747</v>
       </c>
       <c r="M123" t="n">
-        <v>0.3478605100572705</v>
+        <v>0.335496537829064</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03066820048205002</v>
+        <v>0.03036155300270308</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.00154687676944684</v>
+        <v>-0.003565478807311779</v>
       </c>
       <c r="P123" t="n">
-        <v>0.5499772310215088</v>
+        <v>0.5267943748257858</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.03027710593571147</v>
+        <v>0.02976998044327096</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.001976186593651359</v>
+        <v>-0.002296275294792897</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05441778643240801</v>
+        <v>0.05241114166678537</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03172675435423898</v>
+        <v>0.0307874625181453</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.002103657314597139</v>
+        <v>-0.002311622286832328</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1504860887690912</v>
+        <v>0.1432206104765035</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03153611358263977</v>
+        <v>0.03142387116197448</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.002502528594102238</v>
+        <v>-0.002311923066098122</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3496841712077167</v>
+        <v>0.337052948407605</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03147525838947238</v>
+        <v>0.03116054123961632</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.00154687676944684</v>
+        <v>-0.003499691812765244</v>
       </c>
       <c r="P124" t="n">
-        <v>0.5534631602042612</v>
+        <v>0.5292691869664939</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03107387188138809</v>
+        <v>0.03055340098125178</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.002011988852109863</v>
+        <v>-0.002295942566442989</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05472619455432359</v>
+        <v>0.05267082451816096</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03254026087614255</v>
+        <v>0.03157688463399518</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.002103657314597139</v>
+        <v>-0.002311391147717557</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1513689051876811</v>
+        <v>0.1439587417789602</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03234473187963054</v>
+        <v>0.03222961144817896</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.002502528594102238</v>
+        <v>-0.002311923066098122</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3516162528805635</v>
+        <v>0.3386094017825756</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03228231629689476</v>
+        <v>0.03195952947652956</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.00154687676944684</v>
+        <v>-0.003499691812765244</v>
       </c>
       <c r="P125" t="n">
-        <v>0.5565571227835245</v>
+        <v>0.5315962548115734</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.0318706378270647</v>
+        <v>0.03133682151923259</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.002011988852109863</v>
+        <v>-0.002295942566442989</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05502706320940086</v>
+        <v>0.0529025299309541</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03335376739804611</v>
+        <v>0.03236630674984505</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.002103657314597139</v>
+        <v>-0.0023118534259471</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1522472900972991</v>
+        <v>0.1446801402363653</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0331533501766213</v>
+        <v>0.03303535173438343</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.002502528594102238</v>
+        <v>-0.002311923066098122</v>
       </c>
       <c r="M126" t="n">
-        <v>0.3535071871577266</v>
+        <v>0.3402177599876233</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03308937420431712</v>
+        <v>0.03275851771344279</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.00154687676944684</v>
+        <v>-0.003499691812765244</v>
       </c>
       <c r="P126" t="n">
-        <v>0.5597412262775479</v>
+        <v>0.5340125363708469</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03266740377274132</v>
+        <v>0.0321202420572134</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.002011988852109863</v>
+        <v>-0.002295942566442989</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05530488825480837</v>
+        <v>0.05315163372765473</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03416727391994968</v>
+        <v>0.03315572886569493</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.002103657314597139</v>
+        <v>-0.002311391147717557</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1530197521734779</v>
+        <v>0.1453460430963753</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03396196847361206</v>
+        <v>0.0338410920205879</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.002502528594102238</v>
+        <v>-0.002311923066098122</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3555083565910216</v>
+        <v>0.3417337903546662</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03389643211173949</v>
+        <v>0.03355750595035604</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.00154687676944684</v>
+        <v>-0.003413952641379977</v>
       </c>
       <c r="P127" t="n">
-        <v>0.5629361655635985</v>
+        <v>0.5360502401364304</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03346416971841795</v>
+        <v>0.03290366259519422</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.002039900275544311</v>
+        <v>-0.002295942566442989</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05558311469757503</v>
+        <v>0.05336509692717911</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03498078044185324</v>
+        <v>0.03394515098154481</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.002209856428324609</v>
+        <v>-0.002684326128113942</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1538277784360545</v>
+        <v>0.1459759511626518</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03477058677060283</v>
+        <v>0.03464683230679238</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.002248361956195697</v>
+        <v>-0.002479389548367459</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3573168196150633</v>
+        <v>0.3430115001514441</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03470349001916186</v>
+        <v>0.03435649418726928</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.001559109638069545</v>
+        <v>-0.003413952641379977</v>
       </c>
       <c r="P128" t="n">
-        <v>0.5658981376171034</v>
+        <v>0.5383398684915683</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03426093566409456</v>
+        <v>0.03368708313317503</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.002039900275544311</v>
+        <v>-0.002296824066125913</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05583835287000166</v>
+        <v>0.05358850908269888</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03579428696375681</v>
+        <v>0.03473457309739469</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.002209856428324609</v>
+        <v>-0.002684594560726753</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1545695674668055</v>
+        <v>0.1466486403306</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03557920506759359</v>
+        <v>0.03545257259299685</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.002248361956195697</v>
+        <v>-0.002479389548367459</v>
       </c>
       <c r="M129" t="n">
-        <v>0.3589307093078635</v>
+        <v>0.3443977054850776</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03551054792658424</v>
+        <v>0.03515548242418252</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.001559109638069545</v>
+        <v>-0.003413952641379977</v>
       </c>
       <c r="P129" t="n">
-        <v>0.568952996412469</v>
+        <v>0.5405703628371877</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03505770160977117</v>
+        <v>0.03447050367115585</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.002039900275544311</v>
+        <v>-0.002296824066125913</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05610999466568867</v>
+        <v>0.05380673614652438</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03660779348566037</v>
+        <v>0.03552399521324457</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.002209856428324609</v>
+        <v>-0.002684594560726753</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1553060436558706</v>
+        <v>0.1473255440207758</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03638782336458436</v>
+        <v>0.03625831287920132</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.002248361956195697</v>
+        <v>-0.002479389548367459</v>
       </c>
       <c r="M130" t="n">
-        <v>0.360705728267869</v>
+        <v>0.3458960327173986</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0363176058340066</v>
+        <v>0.03595447066109575</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.001559109638069545</v>
+        <v>-0.003413952641379977</v>
       </c>
       <c r="P130" t="n">
-        <v>0.5720203970670691</v>
+        <v>0.5427442078811351</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03585446755544779</v>
+        <v>0.03525392420913667</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.002039900275544311</v>
+        <v>-0.002296824066125913</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.0563825595584331</v>
+        <v>0.0540351825458254</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03742130000756393</v>
+        <v>0.03631341732909445</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.002209856428324609</v>
+        <v>-0.002684326128113942</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1560166084343113</v>
+        <v>0.1478884068358584</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03719644166157512</v>
+        <v>0.0370640531654058</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.002248361956195697</v>
+        <v>-0.002479389548367459</v>
       </c>
       <c r="M131" t="n">
-        <v>0.362438738032769</v>
+        <v>0.3471123538365899</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03712466374142897</v>
+        <v>0.03675345889800899</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.001559109638069545</v>
+        <v>-0.003413952641379977</v>
       </c>
       <c r="P131" t="n">
-        <v>0.574688901771825</v>
+        <v>0.5447049642317512</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.0366512335011244</v>
+        <v>0.03603734474711748</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.002039900275544311</v>
+        <v>-0.002296824066125913</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0566165392352303</v>
+        <v>0.0542278224091953</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03823480652946749</v>
+        <v>0.03710283944494433</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.002317913740010412</v>
+        <v>-0.003097526881069741</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1567217140773555</v>
+        <v>0.148554983462763</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03800505995856588</v>
+        <v>0.03786979345161028</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.001995306433408733</v>
+        <v>-0.002678138089888986</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3641294861950073</v>
+        <v>0.3483959698583023</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03793172164885134</v>
+        <v>0.03755244713492223</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.001574864988984693</v>
+        <v>-0.003319358437554965</v>
       </c>
       <c r="P132" t="n">
-        <v>0.5775344471453304</v>
+        <v>0.5466929099249743</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03744799944680103</v>
+        <v>0.03682076528509829</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.002063823423179365</v>
+        <v>-0.002297083242117087</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05687545120863152</v>
+        <v>0.05444621507780449</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03904831305137105</v>
+        <v>0.03789226156079421</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.002317913740010412</v>
+        <v>-0.003097217190319784</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1573798683558866</v>
+        <v>0.1490877318117855</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03881367825555664</v>
+        <v>0.03867553373781475</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.001995306433408733</v>
+        <v>-0.002678138089888986</v>
       </c>
       <c r="M133" t="n">
-        <v>0.3657261579478308</v>
+        <v>0.349700064594451</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03873877955627371</v>
+        <v>0.03835143537183548</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.001574864988984693</v>
+        <v>-0.003319358437554965</v>
       </c>
       <c r="P133" t="n">
-        <v>0.5803105332055605</v>
+        <v>0.5487111438638023</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03824476539247765</v>
+        <v>0.0376041858230791</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.002063823423179365</v>
+        <v>-0.002297083242117087</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05710378949248797</v>
+        <v>0.05462873053539716</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03986181957327462</v>
+        <v>0.03868168367664409</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.002317913740010412</v>
+        <v>-0.00309659780881987</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1579906560141947</v>
+        <v>0.1497255288015001</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0396222965525474</v>
+        <v>0.03948127402401922</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.001995306433408733</v>
+        <v>-0.002678138089888986</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3671763170751322</v>
+        <v>0.3508270334796666</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03954583746369607</v>
+        <v>0.03915042360874871</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.001574864988984693</v>
+        <v>-0.003319358437554965</v>
       </c>
       <c r="P134" t="n">
-        <v>0.5828506633320635</v>
+        <v>0.5505226029468772</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03904153133815427</v>
+        <v>0.03838760636105992</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.002063823423179365</v>
+        <v>-0.002297083242117087</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05731747325192486</v>
+        <v>0.05481397595031859</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04067532609517819</v>
+        <v>0.03947110579249397</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.002317913740010412</v>
+        <v>-0.003096907499569827</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1585745373187603</v>
+        <v>0.1502294103039732</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04043091484953817</v>
+        <v>0.0402870143102237</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.001995306433408733</v>
+        <v>-0.002894064568744087</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3686862924060533</v>
+        <v>0.3520292049155217</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04035289537111844</v>
+        <v>0.03994941184566195</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.001574864988984693</v>
+        <v>-0.003319358437554965</v>
       </c>
       <c r="P135" t="n">
-        <v>0.5853204266741253</v>
+        <v>0.5522088971077828</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.03983829728383088</v>
+        <v>0.03917102689904074</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.002063823423179365</v>
+        <v>-0.002297083242117087</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.057540643643712</v>
+        <v>0.05501761313369478</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04148883261708175</v>
+        <v>0.04026052790834385</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.002399828182820547</v>
+        <v>-0.003525084812270826</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1591940544599421</v>
+        <v>0.150839640684659</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04123953314652893</v>
+        <v>0.04109275459642817</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.001782963029930663</v>
+        <v>-0.002894064568744087</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3702567502231719</v>
+        <v>0.3532090268209068</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04115995327854081</v>
+        <v>0.04074840008257519</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.001593941039466587</v>
+        <v>-0.003223265669389666</v>
       </c>
       <c r="P136" t="n">
-        <v>0.5878874827499809</v>
+        <v>0.5541740470074888</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.0406350632295075</v>
+        <v>0.03995444743702155</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.002087660854239686</v>
+        <v>-0.00229672025975688</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05778159907790259</v>
+        <v>0.05519307863801969</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04230233913898531</v>
+        <v>0.04104995002419373</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.002399828182820547</v>
+        <v>-0.003525789829233281</v>
       </c>
       <c r="J137" t="n">
-        <v>0.159702686682465</v>
+        <v>0.1513561694292114</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04204815144351969</v>
+        <v>0.04189849488263264</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.001782963029930663</v>
+        <v>-0.002894064568744087</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3715753592399899</v>
+        <v>0.3545202029303496</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04196701118596318</v>
+        <v>0.04154738831948843</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.001593941039466587</v>
+        <v>-0.003223265669389666</v>
       </c>
       <c r="P137" t="n">
-        <v>0.5903013132722899</v>
+        <v>0.5560197673586615</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04143182917518412</v>
+        <v>0.04073786797500236</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.002087660854239686</v>
+        <v>-0.00229672025975688</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05798411930470725</v>
+        <v>0.05536369770322426</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04311584566088887</v>
+        <v>0.04183937214004361</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.002399828182820547</v>
+        <v>-0.003525084812270826</v>
       </c>
       <c r="J138" t="n">
-        <v>0.160288794084651</v>
+        <v>0.1518795938191234</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04285676974051046</v>
+        <v>0.04270423516883712</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.001782963029930663</v>
+        <v>-0.002894064568744087</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3730062668307678</v>
+        <v>0.3556122461334905</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04277406909338555</v>
+        <v>0.04234637655640167</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.001593941039466587</v>
+        <v>-0.003223265669389666</v>
       </c>
       <c r="P138" t="n">
-        <v>0.5924770158699825</v>
+        <v>0.5575865020863197</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04222859512086073</v>
+        <v>0.04152128851298318</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.002087660854239686</v>
+        <v>-0.00229672025975688</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05818853887138936</v>
+        <v>0.05554518126144729</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04392935218279244</v>
+        <v>0.04262879425589348</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.002399828182820547</v>
+        <v>-0.003945808444579225</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1607421763790607</v>
+        <v>0.1524103784469698</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04366538803750122</v>
+        <v>0.04350997545504159</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.001782963029930663</v>
+        <v>-0.002894064568744087</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3743931742687704</v>
+        <v>0.3566888436266813</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04358112700080792</v>
+        <v>0.0431453647933149</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.00161613600678953</v>
+        <v>-0.003223265669389666</v>
       </c>
       <c r="P139" t="n">
-        <v>0.594751238002605</v>
+        <v>0.5591989310766833</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04302536106653735</v>
+        <v>0.042304709050964</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.002087660854239686</v>
+        <v>-0.002297113569685058</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05838691556425168</v>
+        <v>0.05572983073375118</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04474285870469601</v>
+        <v>0.04341821637174337</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.002460977279891218</v>
+        <v>-0.003946202985969544</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1611886151756562</v>
+        <v>0.1528475463249959</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04447400633449199</v>
+        <v>0.04431571574124606</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.001650932749950806</v>
+        <v>-0.003110901245235035</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3756307129162845</v>
+        <v>0.3577523779138999</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04438818490823029</v>
+        <v>0.04394435303022814</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.00161613600678953</v>
+        <v>-0.003135448695370634</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5970407181087551</v>
+        <v>0.5611033568805794</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04382212701221397</v>
+        <v>0.04308812958894481</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.002115315127949938</v>
+        <v>-0.002297113569685058</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0585793605236589</v>
+        <v>0.05588628226571137</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04555636522659957</v>
+        <v>0.04420763848759324</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.002460977279891218</v>
+        <v>-0.003945808444579225</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1616492062171661</v>
+        <v>0.1533535013244813</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04528262463148275</v>
+        <v>0.04512145602745054</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.001650932749950806</v>
+        <v>-0.003110901245235035</v>
       </c>
       <c r="M141" t="n">
-        <v>0.376823247264909</v>
+        <v>0.3590087933526342</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04519524281565266</v>
+        <v>0.04474334126714138</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.00161613600678953</v>
+        <v>-0.003135448695370634</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5993461746999257</v>
+        <v>0.5624916756243168</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04461889295789059</v>
+        <v>0.04387155012692563</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.002115315127949938</v>
+        <v>-0.002297113569685058</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05875783230192054</v>
+        <v>0.05603019746698805</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04636987174850313</v>
+        <v>0.04499706060344313</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.002460977279891218</v>
+        <v>-0.003945808444579225</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1620815747904519</v>
+        <v>0.1538272166340554</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04609124292847351</v>
+        <v>0.04592719631365502</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.001650932749950806</v>
+        <v>-0.003110901245235035</v>
       </c>
       <c r="M142" t="n">
-        <v>0.378023353443163</v>
+        <v>0.3600027829648705</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04600230072307503</v>
+        <v>0.04554232950405462</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.00161613600678953</v>
+        <v>-0.003135448695370634</v>
       </c>
       <c r="P142" t="n">
-        <v>0.6014129119101697</v>
+        <v>0.5641776539533722</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.0454156589035672</v>
+        <v>0.04465497066490644</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.002115315127949938</v>
+        <v>-0.002297113569685058</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05893055844809154</v>
+        <v>0.05619316253125674</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0471833782704067</v>
+        <v>0.045786482719293</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.002460977279891218</v>
+        <v>-0.003945019361798588</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1624642502299263</v>
+        <v>0.1543301444137951</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04689986122546428</v>
+        <v>0.04673293659985949</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.001650932749950806</v>
+        <v>-0.003110901245235035</v>
       </c>
       <c r="M143" t="n">
-        <v>0.3791782339808458</v>
+        <v>0.361041740165282</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04680935863049739</v>
+        <v>0.04634131774096786</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.00161613600678953</v>
+        <v>-0.003135448695370634</v>
       </c>
       <c r="P143" t="n">
-        <v>0.6034104157315545</v>
+        <v>0.5657578338326478</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04621242484924382</v>
+        <v>0.04543839120288726</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.002115315127949938</v>
+        <v>-0.002297113569685058</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0591140281971517</v>
+        <v>0.05634371782655764</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04799688479231026</v>
+        <v>0.04657590483514288</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.002491738087587325</v>
+        <v>-0.004336802334301221</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1628438360030732</v>
+        <v>0.1547195446093607</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04770847952245504</v>
+        <v>0.04753867688606397</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.001641664417059721</v>
+        <v>-0.003317097047656574</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3802876492232673</v>
+        <v>0.3621283716239807</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04761641653791976</v>
+        <v>0.0471403059778811</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.001641248108227825</v>
+        <v>-0.003066559789308406</v>
       </c>
       <c r="P144" t="n">
-        <v>0.6052532472394789</v>
+        <v>0.5674794378288691</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04700919079492044</v>
+        <v>0.04622181174086807</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.002150688803534781</v>
+        <v>-0.002298034144151279</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05929204583402957</v>
+        <v>0.05649771660195599</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04881039131421382</v>
+        <v>0.04736532695099276</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.002491738087587325</v>
+        <v>-0.004336368740786494</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1631736331789769</v>
+        <v>0.1552002382897562</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0485170978194458</v>
+        <v>0.04834441717226843</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.001641664417059721</v>
+        <v>-0.003317097047656574</v>
       </c>
       <c r="M145" t="n">
-        <v>0.3814044946516887</v>
+        <v>0.3632653815396315</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04842347444534214</v>
+        <v>0.04793929421479434</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.001641248108227825</v>
+        <v>-0.003066559789308406</v>
       </c>
       <c r="P145" t="n">
-        <v>0.6071980346015289</v>
+        <v>0.5687726929779194</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04780595674059705</v>
+        <v>0.04700523227884888</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.002150688803534781</v>
+        <v>-0.002298034144151279</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05946472086421575</v>
+        <v>0.05663936830591808</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04962389783611738</v>
+        <v>0.04815474906684264</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.002491738087587325</v>
+        <v>-0.004336802334301221</v>
       </c>
       <c r="J146" t="n">
-        <v>0.163540561748155</v>
+        <v>0.1555881383255271</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04932571611643657</v>
+        <v>0.04915015745847291</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.001641664417059721</v>
+        <v>-0.003317097047656574</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3824755990286053</v>
+        <v>0.3643011682365803</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04923053235276451</v>
+        <v>0.04873828245170758</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.001641248108227825</v>
+        <v>-0.003066559789308406</v>
       </c>
       <c r="P146" t="n">
-        <v>0.6088165420386025</v>
+        <v>0.5702941097018852</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04860272268627367</v>
+        <v>0.0477886528168297</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.002150688803534781</v>
+        <v>-0.002298034144151279</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05960189589813719</v>
+        <v>0.05676867729970746</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05043740435802095</v>
+        <v>0.04894417118269252</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.002491738087587325</v>
+        <v>-0.004671997858738753</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1638806400037903</v>
+        <v>0.1560272627638436</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05013433441342733</v>
+        <v>0.04995589774467738</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.001641664417059721</v>
+        <v>-0.003317097047656574</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3832873725613964</v>
+        <v>0.3653920892680965</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05003759026018687</v>
+        <v>0.04953727068862081</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.001641248108227825</v>
+        <v>-0.003066559789308406</v>
       </c>
       <c r="P147" t="n">
-        <v>0.610623600342756</v>
+        <v>0.5719653716733466</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.0493994886319503</v>
+        <v>0.04857207335481051</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.002197684440218878</v>
+        <v>-0.002298034144151279</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05978080203646742</v>
+        <v>0.05690158449492533</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05125091087992451</v>
+        <v>0.0497335932985424</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.002478136435696442</v>
+        <v>-0.004671997858738753</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1641937299349741</v>
+        <v>0.1564770056860789</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05094295271041809</v>
+        <v>0.05076163803088186</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.001796733003168565</v>
+        <v>-0.003497618772063945</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3843727173193613</v>
+        <v>0.3664891960348339</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05084464816760924</v>
+        <v>0.05033625892553405</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.001669075561055776</v>
+        <v>-0.003023841193037003</v>
       </c>
       <c r="P148" t="n">
-        <v>0.6123621587011886</v>
+        <v>0.5733781886294524</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.05019625457762691</v>
+        <v>0.04935549389279133</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.002197684440218878</v>
+        <v>-0.002298333532442677</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05993529260607784</v>
+        <v>0.05704615644544576</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05206441740182808</v>
+        <v>0.05052301541439228</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.002478136435696442</v>
+        <v>-0.004671997858738753</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1645225971093852</v>
+        <v>0.1568757409252921</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05175157100740885</v>
+        <v>0.05156737831708633</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.001796733003168565</v>
+        <v>-0.003497618772063945</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3851978725281002</v>
+        <v>0.3675948664755996</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05165170607503161</v>
+        <v>0.05113524716244729</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.001669075561055776</v>
+        <v>-0.003023841193037003</v>
       </c>
       <c r="P149" t="n">
-        <v>0.6136867650640639</v>
+        <v>0.5747811788519263</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05099302052330353</v>
+        <v>0.05013891443077214</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.002197684440218878</v>
+        <v>-0.002298333532442677</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06009813247113505</v>
+        <v>0.05717054557862819</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05287792392373164</v>
+        <v>0.05131243753024216</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.002478136435696442</v>
+        <v>-0.00467059653964495</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1648458217319478</v>
+        <v>0.1572235368076335</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05256018930439962</v>
+        <v>0.0523731186032908</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.001796733003168565</v>
+        <v>-0.003497618772063945</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3860831440044094</v>
+        <v>0.3688671075356611</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05245876398245398</v>
+        <v>0.05193423539936053</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.001669075561055776</v>
+        <v>-0.003023841193037003</v>
       </c>
       <c r="P150" t="n">
-        <v>0.6152878892847697</v>
+        <v>0.5765073836235454</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05178978646898014</v>
+        <v>0.05092233496875296</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.002197684440218878</v>
+        <v>-0.002298333532442677</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06027743821525629</v>
+        <v>0.05726671985120434</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05369143044563521</v>
+        <v>0.05210185964609203</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.002433502463103614</v>
+        <v>-0.00467059653964495</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1651848819801904</v>
+        <v>0.1575827539818466</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05336880760139038</v>
+        <v>0.05317885888949527</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.001796733003168565</v>
+        <v>-0.003497618772063945</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3868140726985739</v>
+        <v>0.3699973781542896</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05326582188987634</v>
+        <v>0.05273322363627377</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.001669075561055776</v>
+        <v>-0.003023841193037003</v>
       </c>
       <c r="P151" t="n">
-        <v>0.6168207127132511</v>
+        <v>0.5778160406541307</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05258655241465676</v>
+        <v>0.05170575550673377</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.002197684440218878</v>
+        <v>-0.002298333532442677</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06042315737713078</v>
+        <v>0.05740676462021027</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05450493696753876</v>
+        <v>0.05289128176194192</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.002433502463103614</v>
+        <v>-0.00492802815634772</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1654751992901975</v>
+        <v>0.1579538166854618</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05417742589838115</v>
+        <v>0.05398459917569975</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.002093110486441495</v>
+        <v>-0.003636822507008857</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3874437122241884</v>
+        <v>0.371091811963047</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05407287979729871</v>
+        <v>0.05353221187318701</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.001699416582547686</v>
+        <v>-0.003024819275119465</v>
       </c>
       <c r="P152" t="n">
-        <v>0.6182869446749971</v>
+        <v>0.5792879436578316</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.05338331836033337</v>
+        <v>0.05248917604471458</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.002267786158872979</v>
+        <v>-0.002298931208790741</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06058487215227371</v>
+        <v>0.05749460704769273</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05531844348944233</v>
+        <v>0.05368070387779179</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.002433502463103614</v>
+        <v>-0.00492802815634772</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1658028561806436</v>
+        <v>0.1583788111966316</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05498604419537192</v>
+        <v>0.05479033946190422</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.002093110486441495</v>
+        <v>-0.003636822507008857</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3881869050943881</v>
+        <v>0.3722591705350513</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05487993770472108</v>
+        <v>0.05433120011010024</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.001699416582547686</v>
+        <v>-0.003024819275119465</v>
       </c>
       <c r="P153" t="n">
-        <v>0.6193829870664681</v>
+        <v>0.5807603262901153</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05418008430601</v>
+        <v>0.0532725965826954</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.002267786158872979</v>
+        <v>-0.002298931208790741</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06074574163164961</v>
+        <v>0.05761851258909122</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0561319500113459</v>
+        <v>0.05447012599364168</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.002433502463103614</v>
+        <v>-0.004928521008448565</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1660599685502078</v>
+        <v>0.1587331489978829</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05579466249236267</v>
+        <v>0.05559607974810871</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.002093110486441495</v>
+        <v>-0.003636822507008857</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3888284863762258</v>
+        <v>0.3733936845605583</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05568699561214345</v>
+        <v>0.05513018834701349</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.001699416582547686</v>
+        <v>-0.003024819275119465</v>
       </c>
       <c r="P154" t="n">
-        <v>0.6208222490582702</v>
+        <v>0.5823993820844837</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05497685025168662</v>
+        <v>0.05405601712067622</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.002267786158872979</v>
+        <v>-0.002298931208790741</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06091389804025388</v>
+        <v>0.05770625334412055</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05694545653324946</v>
+        <v>0.05525954810949155</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.002433502463103614</v>
+        <v>-0.00492901386054941</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1663976817339799</v>
+        <v>0.1590168187376657</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05660328078935344</v>
+        <v>0.05640182003431318</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.002093110486441495</v>
+        <v>-0.003636822507008857</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3895426044322365</v>
+        <v>0.3747023724182033</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05649405351956582</v>
+        <v>0.05592917658392672</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.001699416582547686</v>
+        <v>-0.003024819275119465</v>
       </c>
       <c r="P155" t="n">
-        <v>0.6222557102881824</v>
+        <v>0.5836102309582095</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05577361619736323</v>
+        <v>0.05483943765865704</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.002267786158872979</v>
+        <v>-0.002298931208790741</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06108077058199335</v>
+        <v>0.05783027793733617</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05775896305515302</v>
+        <v>0.05604897022534144</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.002353957928573718</v>
+        <v>-0.005084294469576214</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1666429951403687</v>
+        <v>0.1594182619471978</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0574118990863442</v>
+        <v>0.05720756032051765</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.002497155786310633</v>
+        <v>-0.003721122790033793</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3899669412279202</v>
+        <v>0.3759209588742849</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05730111142698818</v>
+        <v>0.05672816482083996</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.001754225595422741</v>
+        <v>-0.003131312847363127</v>
       </c>
       <c r="P156" t="n">
-        <v>0.6235942443239972</v>
+        <v>0.5853073318647432</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.05657038214303985</v>
+        <v>0.05562285819663785</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.002467433645772701</v>
+        <v>-0.002376556364796466</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06123772476124037</v>
+        <v>0.05791010133816986</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05857246957705659</v>
+        <v>0.05683839234119131</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.002353957928573718</v>
+        <v>-0.005084802949871201</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1669039928431119</v>
+        <v>0.1597496522571794</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05822051738333497</v>
+        <v>0.05801330060672212</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.002497155786310633</v>
+        <v>-0.003721122790033793</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3905878709498757</v>
+        <v>0.3770462536970282</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05810816933441056</v>
+        <v>0.05752715305775321</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.001754225595422741</v>
+        <v>-0.003131312847363127</v>
       </c>
       <c r="P157" t="n">
-        <v>0.6248356760787109</v>
+        <v>0.5866564196029486</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05736714808871646</v>
+        <v>0.05640627873461866</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.002467433645772701</v>
+        <v>-0.002376556364796466</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06139289275596371</v>
+        <v>0.05801024498159783</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05938597609896015</v>
+        <v>0.05762781445704119</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.002353957928573718</v>
+        <v>-0.005085311430166188</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1672241659059966</v>
+        <v>0.1600529969855963</v>
       </c>
       <c r="K158" t="n">
-        <v>0.05902913568032572</v>
+        <v>0.0588190408929266</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.002497155786310633</v>
+        <v>-0.003721122790033793</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3910820699542908</v>
+        <v>0.3782863676471729</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05891522724183294</v>
+        <v>0.05832614129466644</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.001754225595422741</v>
+        <v>-0.003131312847363127</v>
       </c>
       <c r="P158" t="n">
-        <v>0.6261530672041249</v>
+        <v>0.5880744913277769</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05816391403439308</v>
+        <v>0.05718969927259948</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.002467433645772701</v>
+        <v>-0.002376556364796466</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06152075021778201</v>
+        <v>0.05808232236768776</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06019948262086371</v>
+        <v>0.05841723657289108</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.002353957928573718</v>
+        <v>-0.005116655004440752</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1674732398854687</v>
+        <v>0.1603276847114971</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05983775397731649</v>
+        <v>0.05962478117913107</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.002497155786310633</v>
+        <v>-0.003721122790033793</v>
       </c>
       <c r="M159" t="n">
-        <v>0.39161239773517</v>
+        <v>0.3796395850751413</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0597222851492553</v>
+        <v>0.05912512953157969</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.001879322023609842</v>
+        <v>-0.003131312847363127</v>
       </c>
       <c r="P159" t="n">
-        <v>0.6276327849026194</v>
+        <v>0.5893098705905988</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05896067998006971</v>
+        <v>0.05797311981058029</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.002797756251413497</v>
+        <v>-0.002376556364796466</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06168003985452107</v>
+        <v>0.05818296497440138</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06101298914276728</v>
+        <v>0.05920665868874096</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.002256091715976264</v>
+        <v>-0.005116655004440752</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1677380320795357</v>
+        <v>0.1606786488257305</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06064637227430725</v>
+        <v>0.06043052146533554</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.002975227822208098</v>
+        <v>-0.003760362746572982</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3922339145774594</v>
+        <v>0.380838805120481</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06052934305667767</v>
+        <v>0.05992411776849291</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.001879322023609842</v>
+        <v>-0.003335906843940789</v>
       </c>
       <c r="P160" t="n">
-        <v>0.62865870657306</v>
+        <v>0.5907818318379596</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.05975744592574632</v>
+        <v>0.05875654034856111</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.002797756251413497</v>
+        <v>-0.002619108351152554</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06181994889671037</v>
+        <v>0.05827203959510921</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06182649566467085</v>
+        <v>0.05999608080459082</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.002256091715976264</v>
+        <v>-0.005115631775762732</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1680185859180232</v>
+        <v>0.1610009876685981</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06145499057129802</v>
+        <v>0.06123626175154002</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.002975227822208098</v>
+        <v>-0.003760362746572982</v>
       </c>
       <c r="M161" t="n">
-        <v>0.3927847986749405</v>
+        <v>0.382040053046128</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06133640096410004</v>
+        <v>0.06072310600540616</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.001879322023609842</v>
+        <v>-0.003335906843940789</v>
       </c>
       <c r="P161" t="n">
-        <v>0.6299311550832373</v>
+        <v>0.5920702587823276</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.06055421187142294</v>
+        <v>0.05953996088654192</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.002797756251413497</v>
+        <v>-0.002619108351152554</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06197405087130861</v>
+        <v>0.05832547647928146</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0626400021865744</v>
+        <v>0.06078550292044071</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.002256091715976264</v>
+        <v>-0.005116655004440752</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1682712913074632</v>
+        <v>0.1612314445237484</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06226360886828879</v>
+        <v>0.06204200203774449</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.002975227822208098</v>
+        <v>-0.003760362746572982</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3931569480360213</v>
+        <v>0.3834008574479972</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06214345887152241</v>
+        <v>0.06152209424231941</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.001879322023609842</v>
+        <v>-0.003335906843940789</v>
       </c>
       <c r="P162" t="n">
-        <v>0.6312732471802478</v>
+        <v>0.5935958046644293</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06135097781709955</v>
+        <v>0.06032338142452274</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.002797756251413497</v>
+        <v>-0.002619108351152554</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.062133708664372</v>
+        <v>0.05840828125487323</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06345350870847796</v>
+        <v>0.06157492503629059</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.002256091715976264</v>
+        <v>-0.005116655004440752</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1684960364395871</v>
+        <v>0.1615602702642834</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06307222716527953</v>
+        <v>0.06284774232394896</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.002975227822208098</v>
+        <v>-0.003760362746572982</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3937311581368637</v>
+        <v>0.3846526131489676</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06295051677894477</v>
+        <v>0.06232108247923264</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.001879322023609842</v>
+        <v>-0.003335906843940789</v>
       </c>
       <c r="P163" t="n">
-        <v>0.6324188275003492</v>
+        <v>0.5948524860780487</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06214774376277617</v>
+        <v>0.06110680196250355</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.002797756251413497</v>
+        <v>-0.002619108351152554</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06225621592070736</v>
+        <v>0.05847194894214316</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06426701523038153</v>
+        <v>0.06236434715214047</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.002148863729842168</v>
+        <v>-0.005007286506493064</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1687364604714472</v>
+        <v>0.1618398291612043</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06388084546227031</v>
+        <v>0.06365348261015344</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.003493685513566014</v>
+        <v>-0.003794430863343041</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3940189961252861</v>
+        <v>0.3857921100196962</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06375757468636714</v>
+        <v>0.06312007071614588</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.002057473018186041</v>
+        <v>-0.003610621235670885</v>
       </c>
       <c r="P164" t="n">
-        <v>0.6336305046281069</v>
+        <v>0.5963465237364292</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06294450970845279</v>
+        <v>0.06189022250048436</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.003217178304164852</v>
+        <v>-0.002981045910161819</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06240930043871638</v>
+        <v>0.05854098752397263</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0650805217522851</v>
+        <v>0.06315376926799035</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.002148863729842168</v>
+        <v>-0.005007286506493064</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1689707024521752</v>
+        <v>0.1621337925583564</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06468946375926107</v>
+        <v>0.06445922289635792</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.003493685513566014</v>
+        <v>-0.003794430863343041</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3945649917376266</v>
+        <v>0.3870846605125043</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06456463259378951</v>
+        <v>0.06391905895305912</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.002057473018186041</v>
+        <v>-0.003610621235670885</v>
       </c>
       <c r="P165" t="n">
-        <v>0.6349953592229218</v>
+        <v>0.5975703250510095</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.0637412756541294</v>
+        <v>0.06267364303846518</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.003217178304164852</v>
+        <v>-0.002981045910161819</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06253318320975386</v>
+        <v>0.05861557281354766</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06589402827418867</v>
+        <v>0.06394319138384023</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.002148863729842168</v>
+        <v>-0.005008288063950109</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1692206462501765</v>
+        <v>0.1623362732341182</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06549808205625184</v>
+        <v>0.06526496318256239</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.003493685513566014</v>
+        <v>-0.003794430863343041</v>
       </c>
       <c r="M166" t="n">
-        <v>0.39493452850495</v>
+        <v>0.3882059609945648</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06537169050121187</v>
+        <v>0.06471804718997236</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.002057473018186041</v>
+        <v>-0.003610621235670885</v>
       </c>
       <c r="P166" t="n">
-        <v>0.636246494558295</v>
+        <v>0.5989468225073362</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06453804159980603</v>
+        <v>0.063457063576446</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.003217178304164852</v>
+        <v>-0.002981045910161819</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06264459536166715</v>
+        <v>0.05869587909992605</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06670753479609222</v>
+        <v>0.0647326134996901</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.002148863729842168</v>
+        <v>-0.005007286506493064</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1694643803425545</v>
+        <v>0.1626597865249338</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0663067003532426</v>
+        <v>0.06607070346876687</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.003493685513566014</v>
+        <v>-0.003824502602689045</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3953460501308473</v>
+        <v>0.3894761394630918</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06617874840863425</v>
+        <v>0.06551703542688558</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.002057473018186041</v>
+        <v>-0.003610621235670885</v>
       </c>
       <c r="P167" t="n">
-        <v>0.6373817803149612</v>
+        <v>0.6000514764525539</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06533480754548264</v>
+        <v>0.0642404841144268</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.003217178304164852</v>
+        <v>-0.002981045910161819</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06278603841782045</v>
+        <v>0.05875762649127711</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06752104131799579</v>
+        <v>0.06552203561553999</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.002031742913399895</v>
+        <v>-0.004793151271940459</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1696140124476397</v>
+        <v>0.1628708482167012</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06711531865023336</v>
+        <v>0.06687644375497133</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.0040188877798165</v>
+        <v>-0.003824502602689045</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3958003633411662</v>
+        <v>0.3907856911712801</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06698580631605662</v>
+        <v>0.06631602366379884</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.002268472405694149</v>
+        <v>-0.003925776700773405</v>
       </c>
       <c r="P168" t="n">
-        <v>0.638487933258116</v>
+        <v>0.6013936517934724</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06613157349115927</v>
+        <v>0.06502390465240762</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.00368412413239626</v>
+        <v>-0.003418626240813965</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.0629033519072265</v>
+        <v>0.05881724684237345</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06833454783989935</v>
+        <v>0.06631145773138987</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.002031742913399895</v>
+        <v>-0.004793151271940459</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1698451297791219</v>
+        <v>0.1630971642418468</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06792393694722412</v>
+        <v>0.06768218404117581</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.0040188877798165</v>
+        <v>-0.003824502602689045</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3961344276003176</v>
+        <v>0.3919699486535958</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06779286422347898</v>
+        <v>0.06711501190071208</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.002268472405694149</v>
+        <v>-0.003925776700773405</v>
       </c>
       <c r="P169" t="n">
-        <v>0.6394742409358604</v>
+        <v>0.6027184265158856</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06692833943683589</v>
+        <v>0.06580732519038844</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.00368412413239626</v>
+        <v>-0.003418626240813965</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06302140272003544</v>
+        <v>0.05887489528377503</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06914805436180292</v>
+        <v>0.06710087984723975</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.002031742913399895</v>
+        <v>-0.004791713614090446</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1700699262328506</v>
+        <v>0.1633390223260405</v>
       </c>
       <c r="K170" t="n">
-        <v>0.06873255524421489</v>
+        <v>0.06848792432738028</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.0040188877798165</v>
+        <v>-0.003824502602689045</v>
       </c>
       <c r="M170" t="n">
-        <v>0.396621952375939</v>
+        <v>0.3930800448457558</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06859992213090135</v>
+        <v>0.06791400013762532</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.002268472405694149</v>
+        <v>-0.003925776700773405</v>
       </c>
       <c r="P170" t="n">
-        <v>0.6404276594853603</v>
+        <v>0.6037693807980251</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.06772510538251249</v>
+        <v>0.06659074572836925</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.00368412413239626</v>
+        <v>-0.003418626240813965</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06311475961102087</v>
+        <v>0.05890622221442963</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06996156088370649</v>
+        <v>0.06789030196308962</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.001928463746846906</v>
+        <v>-0.004792672052657121</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1702883638887711</v>
+        <v>0.163618066375928</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06954117354120566</v>
+        <v>0.06929366461358476</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.004517193540391677</v>
+        <v>-0.003824502602689045</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3968811387002861</v>
+        <v>0.3941675942336464</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06940698003832373</v>
+        <v>0.06871298837453856</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.002268472405694149</v>
+        <v>-0.003925776700773405</v>
       </c>
       <c r="P171" t="n">
-        <v>0.6414355688761516</v>
+        <v>0.6048871316471741</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06852187132818911</v>
+        <v>0.06737416626635007</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.00368412413239626</v>
+        <v>-0.003418626240813965</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06322879518076713</v>
+        <v>0.05898489695973406</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07077506740561004</v>
+        <v>0.06867972407893951</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.001928463746846906</v>
+        <v>-0.004499655953349635</v>
       </c>
       <c r="J172" t="n">
-        <v>0.170434274530068</v>
+        <v>0.1638063500176127</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07034979183819641</v>
+        <v>0.07009940489978923</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.004517193540391677</v>
+        <v>-0.003850456102238179</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3973500254797789</v>
+        <v>0.3952301445312784</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07021403794574609</v>
+        <v>0.06951197661145178</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.002492114012676976</v>
+        <v>-0.004252603110814161</v>
       </c>
       <c r="P172" t="n">
-        <v>0.642585738462451</v>
+        <v>0.6062429933784916</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.06931863727386572</v>
+        <v>0.06815758680433089</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.004157018064477203</v>
+        <v>-0.003882740122818478</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06333753848769215</v>
+        <v>0.05902120260524064</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07158857392751361</v>
+        <v>0.06946914619478939</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.001928463746846906</v>
+        <v>-0.004499655953349635</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1706618875021705</v>
+        <v>0.164075053654902</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07115841013518717</v>
+        <v>0.07090514518599371</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.004517193540391677</v>
+        <v>-0.003850456102238179</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3975916490390695</v>
+        <v>0.3963745193402208</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07102109585316847</v>
+        <v>0.07031096484836503</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.002492114012676976</v>
+        <v>-0.004252603110814161</v>
       </c>
       <c r="P173" t="n">
-        <v>0.6432516162280745</v>
+        <v>0.6073233433621211</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.07011540321954235</v>
+        <v>0.06894100734231169</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.004157018064477203</v>
+        <v>-0.003882740122818478</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.06342351444548636</v>
+        <v>0.05908068850836412</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07240208044941716</v>
+        <v>0.07025856831063926</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.001928463746846906</v>
+        <v>-0.004500555884540305</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1708389062289274</v>
+        <v>0.1642532374076076</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07196702843217795</v>
+        <v>0.07171088547219819</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.004517193540391677</v>
+        <v>-0.003850456102238179</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3978802434219234</v>
+        <v>0.3974346740324711</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07182815376059083</v>
+        <v>0.07110995308527826</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.002492114012676976</v>
+        <v>-0.004252603110814161</v>
       </c>
       <c r="P174" t="n">
-        <v>0.644145451757856</v>
+        <v>0.6084702424463545</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.07091216916521897</v>
+        <v>0.06972442788029251</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.004157018064477203</v>
+        <v>-0.003882740122818478</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06350368897783737</v>
+        <v>0.05912261028325599</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07321558697132073</v>
+        <v>0.07104799042648914</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.001928463746846906</v>
+        <v>-0.004499655953349635</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1709430919972569</v>
+        <v>0.1645124433136725</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07277564672916871</v>
+        <v>0.07251662575840265</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.004517193540391677</v>
+        <v>-0.003850456102238179</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3982165970825624</v>
+        <v>0.3984626778492257</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07263521166801321</v>
+        <v>0.0719089413221915</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.002492114012676976</v>
+        <v>-0.004252603110814161</v>
       </c>
       <c r="P175" t="n">
-        <v>0.6450872582109247</v>
+        <v>0.6096837510446629</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07170893511089559</v>
+        <v>0.07050784841827333</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.004157018064477203</v>
+        <v>-0.003882740122818478</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06360373767868384</v>
+        <v>0.05917986916761153</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0740290934932243</v>
+        <v>0.07183741254233902</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.001834357175727488</v>
+        <v>-0.004165407163893176</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1711290516550596</v>
+        <v>0.1646813776970368</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07358426502615946</v>
+        <v>0.07332236604460714</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.004954961714723666</v>
+        <v>-0.003871027877709141</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3985466339888023</v>
+        <v>0.3994011259572255</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07344226957543558</v>
+        <v>0.07270792955910475</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.002708191665677329</v>
+        <v>-0.004564154294470105</v>
       </c>
       <c r="P176" t="n">
-        <v>0.6459859152853598</v>
+        <v>0.6108778473330138</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07250570105657221</v>
+        <v>0.07129126895625414</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.004594284428777172</v>
+        <v>-0.004327423249683258</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06366298839260402</v>
+        <v>0.05921985428866726</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07484260001512785</v>
+        <v>0.07262683465818891</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.001834357175727488</v>
+        <v>-0.004164990623176787</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1712641720620232</v>
+        <v>0.1648889468043553</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07439288332315024</v>
+        <v>0.0741281063308116</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.004954961714723666</v>
+        <v>-0.003871027877709141</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3990357150523226</v>
+        <v>0.4005224784310265</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07424932748285794</v>
+        <v>0.07350691779601798</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.002708191665677329</v>
+        <v>-0.004564154294470105</v>
       </c>
       <c r="P177" t="n">
-        <v>0.6468396360648456</v>
+        <v>0.6117937035971802</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07330246700224881</v>
+        <v>0.07207468949423496</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.004594284428777172</v>
+        <v>-0.004327423249683258</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06374167487229333</v>
+        <v>0.05928370973317909</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07565610653703142</v>
+        <v>0.07341625677403878</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.001834357175727488</v>
+        <v>-0.004165823704609566</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1714368996229748</v>
+        <v>0.165156998279557</v>
       </c>
       <c r="K178" t="n">
-        <v>0.075201501620141</v>
+        <v>0.07493384661701608</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.004954961714723666</v>
+        <v>-0.003871027877709141</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3993552636933461</v>
+        <v>0.4014394576238424</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07505638539028031</v>
+        <v>0.07430590603293123</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.002708191665677329</v>
+        <v>-0.004564154294470105</v>
       </c>
       <c r="P178" t="n">
-        <v>0.6472876819557608</v>
+        <v>0.6127752137038741</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07409923294792543</v>
+        <v>0.07285811003221576</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.004594284428777172</v>
+        <v>-0.004327423249683258</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06382230837411268</v>
+        <v>0.05933059186252872</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07646961305893499</v>
+        <v>0.07420567888988866</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.001768609843447043</v>
+        <v>-0.004165823704609566</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1715586543622304</v>
+        <v>0.1652921411948324</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07601011991713176</v>
+        <v>0.07573958690322055</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.00529855122224459</v>
+        <v>-0.003871027877709141</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3995606315714796</v>
+        <v>0.4022039998392263</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07586344329770267</v>
+        <v>0.07510489426984446</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.002708191665677329</v>
+        <v>-0.004564154294470105</v>
       </c>
       <c r="P179" t="n">
-        <v>0.6482255083467401</v>
+        <v>0.6139088113339218</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07489599889360206</v>
+        <v>0.07364153057019658</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.004954347553665655</v>
+        <v>-0.004327423249683258</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06386135390801631</v>
+        <v>0.05936062765260339</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07728311958083856</v>
+        <v>0.07499510100573854</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.001768609843447043</v>
+        <v>-0.003822009496426015</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1717401749496749</v>
+        <v>0.1654881897782439</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07681873821412251</v>
+        <v>0.07654532718942501</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.00529855122224459</v>
+        <v>-0.003885333849966444</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3999822384033461</v>
+        <v>0.4030343608869557</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07667050120512504</v>
+        <v>0.0759038825067577</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.002896499191238022</v>
+        <v>-0.004828623873521696</v>
       </c>
       <c r="P180" t="n">
-        <v>0.6486639688446278</v>
+        <v>0.614848860874035</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07569276483927867</v>
+        <v>0.0744249511081774</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.004954347553665655</v>
+        <v>-0.00470660638664576</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.0639278558799985</v>
+        <v>0.05940681446696097</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07809662610274211</v>
+        <v>0.07578452312158841</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.001768609843447043</v>
+        <v>-0.003822391697375657</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1718484357363983</v>
+        <v>0.1657023917264452</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07762735651111329</v>
+        <v>0.0773510674756295</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.00529855122224459</v>
+        <v>-0.003885333849966444</v>
       </c>
       <c r="M181" t="n">
-        <v>0.4002360130481875</v>
+        <v>0.4039285792657111</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07747755911254742</v>
+        <v>0.07670287074367095</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.002896499191238022</v>
+        <v>-0.004828623873521696</v>
       </c>
       <c r="P181" t="n">
-        <v>0.6493197781494657</v>
+        <v>0.6161140336217211</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.0764895307849553</v>
+        <v>0.07520837164615821</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.004954347553665655</v>
+        <v>-0.00470660638664576</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06396092943827481</v>
+        <v>0.0594693351482501</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07891013262464568</v>
+        <v>0.0765739452374383</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.001768609843447043</v>
+        <v>-0.003821627295476372</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1719498769929376</v>
+        <v>0.1659350155231917</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07843597480810405</v>
+        <v>0.07815680776183397</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.00529855122224459</v>
+        <v>-0.003885333849966444</v>
       </c>
       <c r="M182" t="n">
-        <v>0.4005976052684826</v>
+        <v>0.4046628154409796</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07828461701996978</v>
+        <v>0.07750185898058418</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.002896499191238022</v>
+        <v>-0.004828623873521696</v>
       </c>
       <c r="P182" t="n">
-        <v>0.6499217329148376</v>
+        <v>0.6169250008354942</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07728629673063191</v>
+        <v>0.07599179218413903</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.004954347553665655</v>
+        <v>-0.00470660638664576</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06400368137504943</v>
+        <v>0.05951546564458146</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07972363914654924</v>
+        <v>0.07736336735328818</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.001768609843447043</v>
+        <v>-0.003822009496426015</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1721110914252594</v>
+        <v>0.1660782887115585</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07924459310509481</v>
+        <v>0.07896254804803844</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.00529855122224459</v>
+        <v>-0.003885333849966444</v>
       </c>
       <c r="M183" t="n">
-        <v>0.4007924856063053</v>
+        <v>0.4052341697330436</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07909167492739215</v>
+        <v>0.07830084721749742</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.002896499191238022</v>
+        <v>-0.004828623873521696</v>
       </c>
       <c r="P183" t="n">
-        <v>0.6501079636612664</v>
+        <v>0.6179743256838686</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07808306267630853</v>
+        <v>0.07677521272211985</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.004954347553665655</v>
+        <v>-0.00470660638664576</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06402986041870087</v>
+        <v>0.05956179605905827</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08053714566845281</v>
+        <v>0.07815278946913806</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.001733039964810586</v>
+        <v>-0.003503473509668086</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1721766048596362</v>
+        <v>0.1663052104567458</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08005321140208559</v>
+        <v>0.07976828833424292</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.005514320982386567</v>
+        <v>-0.003892879188868594</v>
       </c>
       <c r="M184" t="n">
-        <v>0.401041502006694</v>
+        <v>0.4059733229257946</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07989873283481452</v>
+        <v>0.07909983545441066</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.003036830415901863</v>
+        <v>-0.005021078600237607</v>
       </c>
       <c r="P184" t="n">
-        <v>0.6505066186342339</v>
+        <v>0.6188281701087832</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07887982862198514</v>
+        <v>0.07755863326010065</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.005195631767512141</v>
+        <v>-0.004974394510820213</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.06403922356067539</v>
+        <v>0.05960024551646456</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08135065219035638</v>
+        <v>0.07894221158498793</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.001733039964810586</v>
+        <v>-0.003504524656835703</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1722796346249583</v>
+        <v>0.1664214125820882</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08086182969907633</v>
+        <v>0.08057402862044739</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.005514320982386567</v>
+        <v>-0.003892879188868594</v>
       </c>
       <c r="M185" t="n">
-        <v>0.40145570920955</v>
+        <v>0.4064333881218197</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08070579074223688</v>
+        <v>0.07989882369132389</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.003036830415901863</v>
+        <v>-0.005021078600237607</v>
       </c>
       <c r="P185" t="n">
-        <v>0.6510261891278873</v>
+        <v>0.6199205660667747</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.07967659456766175</v>
+        <v>0.07834205379808147</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.005195631767512141</v>
+        <v>-0.004974394510820213</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06404021354627472</v>
+        <v>0.05964743644029183</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08216415871225993</v>
+        <v>0.07973163370083781</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.001733039964810586</v>
+        <v>-0.003504524656835703</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1723979667407609</v>
+        <v>0.1666434590304697</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0816704479960671</v>
+        <v>0.08137976890665187</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.005514320982386567</v>
+        <v>-0.003892879188868594</v>
       </c>
       <c r="M186" t="n">
-        <v>0.4018153822699196</v>
+        <v>0.4069454233853136</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08151284864965926</v>
+        <v>0.08069781192823713</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.003036830415901863</v>
+        <v>-0.005021078600237607</v>
       </c>
       <c r="P186" t="n">
-        <v>0.6512144615414818</v>
+        <v>0.6205555289468918</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.08047336051333838</v>
+        <v>0.07912547433606228</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.005195631767512141</v>
+        <v>-0.004974394510820213</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06405048893470483</v>
+        <v>0.05969529260742691</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0829776652341635</v>
+        <v>0.0805210558166877</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.001733039964810586</v>
+        <v>-0.003246348801644117</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1724648458163898</v>
+        <v>0.1668420369160919</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08247906629305786</v>
+        <v>0.08218550919285633</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.005570200228317014</v>
+        <v>-0.003892879188868594</v>
       </c>
       <c r="M187" t="n">
-        <v>0.402121113338237</v>
+        <v>0.4073400574803678</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08231990655708162</v>
+        <v>0.08149680016515037</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.003036830415901863</v>
+        <v>-0.005021078600237607</v>
       </c>
       <c r="P187" t="n">
-        <v>0.6514300028045578</v>
+        <v>0.6215158158692512</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08127012645901499</v>
+        <v>0.0799088948740431</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.005195631767512141</v>
+        <v>-0.004974394510820213</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06405801104880554</v>
+        <v>0.05972746837951881</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08379117175606705</v>
+        <v>0.08131047793253758</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.001731007626262727</v>
+        <v>-0.003246348801644117</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1726137260048843</v>
+        <v>0.1669764643095922</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08328768459004864</v>
+        <v>0.08299124947906082</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.005570200228317014</v>
+        <v>-0.003887951575840243</v>
       </c>
       <c r="M188" t="n">
-        <v>0.4024287258090972</v>
+        <v>0.4077820499199969</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08312696446450399</v>
+        <v>0.08229578840206361</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.003108979166211665</v>
+        <v>-0.005109939693062733</v>
       </c>
       <c r="P188" t="n">
-        <v>0.6516711038351926</v>
+        <v>0.6224532377047615</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08206689240469162</v>
+        <v>0.08069231541202392</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.005276773938939039</v>
+        <v>-0.005083429802027026</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06405555706101311</v>
+        <v>0.05978536579041685</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08460467827797062</v>
+        <v>0.08209990004838745</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.001731007626262727</v>
+        <v>-0.003246348801644117</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1726453324023171</v>
+        <v>0.1671339667999709</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08409630288703938</v>
+        <v>0.08379698976526528</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.005570200228317014</v>
+        <v>-0.003887951575840243</v>
       </c>
       <c r="M189" t="n">
-        <v>0.4025731145069767</v>
+        <v>0.4080459125667061</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08393402237192636</v>
+        <v>0.08309477663897685</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.003108979166211665</v>
+        <v>-0.005109939693062733</v>
       </c>
       <c r="P189" t="n">
-        <v>0.6515775263968425</v>
+        <v>0.6232801845710489</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08286365835036824</v>
+        <v>0.08147573595000472</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.005276773938939039</v>
+        <v>-0.005083429802027026</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.06404315727614299</v>
+        <v>0.05984440371917972</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08541818479987419</v>
+        <v>0.08288932216423733</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.001731007626262727</v>
+        <v>-0.003246024199224194</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1726955225014707</v>
+        <v>0.1673361811612103</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08490492118403015</v>
+        <v>0.08460273005146976</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.005570200228317014</v>
+        <v>-0.003887951575840243</v>
       </c>
       <c r="M190" t="n">
-        <v>0.4029970341351696</v>
+        <v>0.4084090083685173</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08474108027934873</v>
+        <v>0.08389376487589009</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.003108979166211665</v>
+        <v>-0.005109939693062733</v>
       </c>
       <c r="P190" t="n">
-        <v>0.6517331438677784</v>
+        <v>0.6240880722616605</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08366042429604485</v>
+        <v>0.08225915648798554</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.005276773938939039</v>
+        <v>-0.005083429802027026</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06402084275227232</v>
+        <v>0.05987994075911995</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08623169132177774</v>
+        <v>0.08367874428008722</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.001731007626262727</v>
+        <v>-0.003246024199224194</v>
       </c>
       <c r="J191" t="n">
-        <v>0.172831380553637</v>
+        <v>0.1675613140554065</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08571353948102092</v>
+        <v>0.08540847033767424</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.005570200228317014</v>
+        <v>-0.003887951575840243</v>
       </c>
       <c r="M191" t="n">
-        <v>0.4033703209438424</v>
+        <v>0.4085164279467552</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08554813818677111</v>
+        <v>0.08469275311280333</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.003107983473716745</v>
+        <v>-0.005109939693062733</v>
       </c>
       <c r="P191" t="n">
-        <v>0.6517946703377818</v>
+        <v>0.6248894047812189</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08445719024172146</v>
+        <v>0.08304257702596636</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.005276773938939039</v>
+        <v>-0.005083429802027026</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06404072011722489</v>
+        <v>0.05995825209531112</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08704519784368131</v>
+        <v>0.08446816639593709</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.001749046688539062</v>
+        <v>-0.003080677927091981</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1728525671525563</v>
+        <v>0.1677439602532421</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08652215777801169</v>
+        <v>0.08621421062387871</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.005498083497415761</v>
+        <v>-0.003858206597885664</v>
       </c>
       <c r="M192" t="n">
-        <v>0.4035291610008439</v>
+        <v>0.4088914713521196</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08635519609419347</v>
+        <v>0.08549174134971657</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.003107983473716745</v>
+        <v>-0.005078465708949926</v>
       </c>
       <c r="P192" t="n">
-        <v>0.6519426271001191</v>
+        <v>0.6255972166836224</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08525395618739808</v>
+        <v>0.08382599756394718</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.005222700006615002</v>
+        <v>-0.005049505134309415</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06403338138156811</v>
+        <v>0.06000508616250516</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08785870436558488</v>
+        <v>0.08525758851178697</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.001749046688539062</v>
+        <v>-0.003081602222899689</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1728928826800884</v>
+        <v>0.1678838599936194</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08733077607500245</v>
+        <v>0.08701995091008319</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.005498083497415761</v>
+        <v>-0.003858206597885664</v>
       </c>
       <c r="M193" t="n">
-        <v>0.4038604097905403</v>
+        <v>0.409087769254021</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08716225400161584</v>
+        <v>0.0862907295866298</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.003107983473716745</v>
+        <v>-0.005078465708949926</v>
       </c>
       <c r="P193" t="n">
-        <v>0.6518164370392269</v>
+        <v>0.626298748630966</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.0860507221330747</v>
+        <v>0.084609418101928</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.005222700006615002</v>
+        <v>-0.005049505134309415</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.0640075402705485</v>
+        <v>0.06005387286986096</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08867221088748845</v>
+        <v>0.08604701062763685</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.001749046688539062</v>
+        <v>-0.003080677927091981</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1729524948705578</v>
+        <v>0.1681115933672034</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08813939437199321</v>
+        <v>0.08782569119628766</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.005498083497415761</v>
+        <v>-0.003858206597885664</v>
       </c>
       <c r="M194" t="n">
-        <v>0.4042527848134976</v>
+        <v>0.4092734037467757</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08796931190903821</v>
+        <v>0.08708971782354305</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.003107983473716745</v>
+        <v>-0.005078465708949926</v>
       </c>
       <c r="P194" t="n">
-        <v>0.6521377886351671</v>
+        <v>0.6273447089926635</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08684748807875133</v>
+        <v>0.08539283863990881</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.005222700006615002</v>
+        <v>-0.005049505134309415</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06398926191297256</v>
+        <v>0.06011308405749181</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08948571740939201</v>
+        <v>0.08683643274348674</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.001749046688539062</v>
+        <v>-0.003080677927091981</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1730538727923119</v>
+        <v>0.168230804043875</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08894801266898397</v>
+        <v>0.08863143148249213</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.005498083497415761</v>
+        <v>-0.003858206597885664</v>
       </c>
       <c r="M195" t="n">
-        <v>0.4046501993050261</v>
+        <v>0.4092810841337967</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08877636981646057</v>
+        <v>0.08788870606045629</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.003107983473716745</v>
+        <v>-0.005078465708949926</v>
       </c>
       <c r="P195" t="n">
-        <v>0.652095119988864</v>
+        <v>0.628033513650024</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08764425402442794</v>
+        <v>0.08617625917788962</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.005222700006615002</v>
+        <v>-0.005049505134309415</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06399592438582558</v>
+        <v>0.06019090003330101</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09029922393129557</v>
+        <v>0.0876258548593366</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.001777607700617564</v>
+        <v>-0.00298216444458232</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1731302712109289</v>
+        <v>0.168459502170837</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08975663096597473</v>
+        <v>0.0894371717686966</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.005335149349018973</v>
+        <v>-0.003802601125947712</v>
       </c>
       <c r="M196" t="n">
-        <v>0.4049964305667542</v>
+        <v>0.4095587738575422</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08958342772388295</v>
+        <v>0.08868769429736952</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.00307571762574346</v>
+        <v>-0.004951309671928873</v>
       </c>
       <c r="P196" t="n">
-        <v>0.6521395689416964</v>
+        <v>0.6286276863260098</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08844101997010456</v>
+        <v>0.08695967971587044</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.005083398629764977</v>
+        <v>-0.004940152014040985</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06396682651484545</v>
+        <v>0.06025402478354584</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09111273045319913</v>
+        <v>0.08841527697518649</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.001777607700617564</v>
+        <v>-0.002982462661026778</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1731595074293953</v>
+        <v>0.1686447791622169</v>
       </c>
       <c r="K197" t="n">
-        <v>0.0905652492629655</v>
+        <v>0.09024291205490108</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.005335149349018973</v>
+        <v>-0.003802601125947712</v>
       </c>
       <c r="M197" t="n">
-        <v>0.4052906447894816</v>
+        <v>0.4097154649079006</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09039048563130532</v>
+        <v>0.08948668253428277</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.00307571762574346</v>
+        <v>-0.004951309671928873</v>
       </c>
       <c r="P197" t="n">
-        <v>0.6520908999606445</v>
+        <v>0.6296545260654141</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08923778591578117</v>
+        <v>0.08774310025385125</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.005083398629764977</v>
+        <v>-0.004940152014040985</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06396272411838536</v>
+        <v>0.06031059578240555</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0919262369751027</v>
+        <v>0.08920469909103637</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.001777607700617564</v>
+        <v>-0.00298216444458232</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1731863365510208</v>
+        <v>0.1688520161590151</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09137386755995626</v>
+        <v>0.09104865234110555</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.005335149349018973</v>
+        <v>-0.003802601125947712</v>
       </c>
       <c r="M198" t="n">
-        <v>0.4056986991434437</v>
+        <v>0.4099195158016007</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09119754353872768</v>
+        <v>0.09028567077119599</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.00307571762574346</v>
+        <v>-0.004951309671928873</v>
       </c>
       <c r="P198" t="n">
-        <v>0.6523101225820521</v>
+        <v>0.6301467517639011</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.09003455186145778</v>
+        <v>0.08852652079183207</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.005083398629764977</v>
+        <v>-0.004940152014040985</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06394894816780873</v>
+        <v>0.06036877504773767</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09273974349700627</v>
+        <v>0.08999412120688625</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.001823378734896379</v>
+        <v>-0.002981866228137861</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1732109073059776</v>
+        <v>0.1689935211224554</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09218248585694702</v>
+        <v>0.09185439262731003</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.005335149349018973</v>
+        <v>-0.003802601125947712</v>
       </c>
       <c r="M199" t="n">
-        <v>0.4059976766443369</v>
+        <v>0.4100594893800763</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09200460144615005</v>
+        <v>0.09108465900810925</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.00307571762574346</v>
+        <v>-0.004951309671928873</v>
       </c>
       <c r="P199" t="n">
-        <v>0.6521659233312971</v>
+        <v>0.630895732995562</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.09083131780713441</v>
+        <v>0.08930994132981289</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.004873567672082558</v>
+        <v>-0.004940152014040985</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06395154303400384</v>
+        <v>0.06042843041409565</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09355325001890984</v>
+        <v>0.09078354332273612</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.001823378734896379</v>
+        <v>-0.002896685971559376</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1732556961676244</v>
+        <v>0.1691566486616115</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09299110415393778</v>
+        <v>0.09266013291351449</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.005097592771641585</v>
+        <v>-0.003725696305202156</v>
       </c>
       <c r="M200" t="n">
-        <v>0.4064091756364313</v>
+        <v>0.4101358540173839</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09281165935357243</v>
+        <v>0.09188364724502247</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.003019981953895549</v>
+        <v>-0.004743196710447102</v>
       </c>
       <c r="P200" t="n">
-        <v>0.65238018925599</v>
+        <v>0.6319019826693425</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09162808375281102</v>
+        <v>0.09009336186779369</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.004873567672082558</v>
+        <v>-0.004768846852607075</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06390984827576242</v>
+        <v>0.0604977571819942</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09436675654081339</v>
+        <v>0.09157296543858601</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.001823378734896379</v>
+        <v>-0.002897265308753688</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1733431966863614</v>
+        <v>0.1693413041761953</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09379972245092856</v>
+        <v>0.09346587319971898</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.005097592771641585</v>
+        <v>-0.003725696305202156</v>
       </c>
       <c r="M201" t="n">
-        <v>0.4066543247943732</v>
+        <v>0.4102051030554855</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09361871726099479</v>
+        <v>0.09268263548193571</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.003019981953895549</v>
+        <v>-0.004743196710447102</v>
       </c>
       <c r="P201" t="n">
-        <v>0.6522313438469824</v>
+        <v>0.6323717865182412</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09242484969848765</v>
+        <v>0.09087678240577451</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.004873567672082558</v>
+        <v>-0.004768846852607075</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06391925477275412</v>
+        <v>0.06057664445929976</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09518026306271694</v>
+        <v>0.09236238755443589</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.001823378734896379</v>
+        <v>-0.002897265308753688</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1733842367346732</v>
+        <v>0.1695913023516838</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09460834074791931</v>
+        <v>0.09427161348592344</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.005097592771641585</v>
+        <v>-0.003725696305202156</v>
       </c>
       <c r="M202" t="n">
-        <v>0.4070106065974549</v>
+        <v>0.4104358460111682</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09442577516841716</v>
+        <v>0.09348162371884897</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.003019981953895549</v>
+        <v>-0.004743196710447102</v>
       </c>
       <c r="P202" t="n">
-        <v>0.6521706501459984</v>
+        <v>0.6332751737938522</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09322161564416426</v>
+        <v>0.09166020294375532</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.004873567672082558</v>
+        <v>-0.004768846852607075</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06389310893884458</v>
+        <v>0.06064829879382937</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09599376958462051</v>
+        <v>0.09315180967028576</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.001823378734896379</v>
+        <v>-0.002897265308753688</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1733789397021284</v>
+        <v>0.1697089003542189</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09541695904491007</v>
+        <v>0.09507735377212793</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.005097592771641585</v>
+        <v>-0.00362975853576926</v>
       </c>
       <c r="M203" t="n">
-        <v>0.4074775048129361</v>
+        <v>0.410492434576872</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09523283307583952</v>
+        <v>0.09428061195576219</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.003019981953895549</v>
+        <v>-0.004743196710447102</v>
       </c>
       <c r="P203" t="n">
-        <v>0.6522885157458105</v>
+        <v>0.6339059440930433</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09401838158984088</v>
+        <v>0.09244362348173614</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.004873567672082558</v>
+        <v>-0.004768846852607075</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06386611523019688</v>
+        <v>0.06072926480303908</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09680727610652408</v>
+        <v>0.09394123178613564</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.001871566720911463</v>
+        <v>-0.002825111203979117</v>
       </c>
       <c r="J204" t="n">
-        <v>0.173483838312414</v>
+        <v>0.1699135320103146</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09622557734190085</v>
+        <v>0.0958830940583324</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.004801608753798539</v>
+        <v>-0.00362975853576926</v>
       </c>
       <c r="M204" t="n">
-        <v>0.4078313916288355</v>
+        <v>0.4104873880665297</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09603989098326189</v>
+        <v>0.09507960019267543</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.002944965463083241</v>
+        <v>-0.004474764953107923</v>
       </c>
       <c r="P204" t="n">
-        <v>0.6523144316633125</v>
+        <v>0.6347940616939165</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09481514753551749</v>
+        <v>0.09322704401971696</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.004607904997261346</v>
+        <v>-0.004546726861431091</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06386428796903992</v>
+        <v>0.06080272034667365</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09762078262842765</v>
+        <v>0.09473065390198553</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.001871566720911463</v>
+        <v>-0.002824546294720173</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1735203556592805</v>
+        <v>0.1700732088622334</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09703419563889161</v>
+        <v>0.09668883434453686</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.004801608753798539</v>
+        <v>-0.00362975853576926</v>
       </c>
       <c r="M205" t="n">
-        <v>0.4081829502845973</v>
+        <v>0.4107015105251951</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09684694889068428</v>
+        <v>0.09587858842958867</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.002944965463083241</v>
+        <v>-0.004474764953107923</v>
       </c>
       <c r="P205" t="n">
-        <v>0.652429027145218</v>
+        <v>0.6353202764186664</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09561191348119411</v>
+        <v>0.09401046455769776</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.004607904997261346</v>
+        <v>-0.004546726861431091</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06381836295698888</v>
+        <v>0.06086014804203473</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0984342891503312</v>
+        <v>0.0955200760178354</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.001871566720911463</v>
+        <v>-0.002824546294720173</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1735556601822203</v>
+        <v>0.1702978099457794</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09784281393588237</v>
+        <v>0.09749457463074135</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.004801608753798539</v>
+        <v>-0.00362975853576926</v>
       </c>
       <c r="M206" t="n">
-        <v>0.40841975563638</v>
+        <v>0.41085506053635</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09765400679810664</v>
+        <v>0.09667757666650191</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.002944965463083241</v>
+        <v>-0.004474764953107923</v>
       </c>
       <c r="P206" t="n">
-        <v>0.6522715336563277</v>
+        <v>0.6359265958211825</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09640867942687073</v>
+        <v>0.09479388509567858</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.004607904997261346</v>
+        <v>-0.004546726861431091</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06379765985244294</v>
+        <v>0.06095159811967751</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09924779567223477</v>
+        <v>0.09630949813368528</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.001871566720911463</v>
+        <v>-0.002824546294720173</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1735228363795071</v>
+        <v>0.1704550737654349</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09865143223287313</v>
+        <v>0.09830031491694581</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.004801608753798539</v>
+        <v>-0.00362975853576926</v>
       </c>
       <c r="M207" t="n">
-        <v>0.4088202809947997</v>
+        <v>0.4107802670024959</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09846106470552901</v>
+        <v>0.09747656490341516</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.002944965463083241</v>
+        <v>-0.004161417326216404</v>
       </c>
       <c r="P207" t="n">
-        <v>0.6522932922922707</v>
+        <v>0.6368790801716436</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09720544537254734</v>
+        <v>0.0955773056336594</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.004607904997261346</v>
+        <v>-0.004546726861431091</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06378487900701625</v>
+        <v>0.06100999965291148</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1000613021941383</v>
+        <v>0.09709892024953516</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.001931272700567771</v>
+        <v>-0.002760551140314815</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1736232229784926</v>
+        <v>0.1706329423824566</v>
       </c>
       <c r="K208" t="n">
-        <v>0.0994600505298639</v>
+        <v>0.0991060552031503</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.004463392284004771</v>
+        <v>-0.003518540010693608</v>
       </c>
       <c r="M208" t="n">
-        <v>0.4092163570590355</v>
+        <v>0.4108701797108669</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09926812261295137</v>
+        <v>0.09827555314032839</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.002854857158216771</v>
+        <v>-0.004161417326216404</v>
       </c>
       <c r="P208" t="n">
-        <v>0.6523140045572295</v>
+        <v>0.6375572186061492</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09800221131822397</v>
+        <v>0.09636072617164021</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.004301108468994935</v>
+        <v>-0.004285862788728748</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06375408410538504</v>
+        <v>0.06111060629245631</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1008748087160419</v>
+        <v>0.09788834236538504</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.001931272700567771</v>
+        <v>-0.002759999085292255</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1736557773629116</v>
+        <v>0.1708533998709202</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1002686688268547</v>
+        <v>0.09991179548935476</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.004463392284004771</v>
+        <v>-0.003518540010693608</v>
       </c>
       <c r="M209" t="n">
-        <v>0.4096072523775564</v>
+        <v>0.4109570860435484</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1000751805203737</v>
+        <v>0.09907454137724163</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.002854857158216771</v>
+        <v>-0.004161417326216404</v>
       </c>
       <c r="P209" t="n">
-        <v>0.652424082122252</v>
+        <v>0.6382266544423244</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09879897726390059</v>
+        <v>0.09714414670962103</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.004301108468994935</v>
+        <v>-0.004285862788728748</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.0637399213855428</v>
+        <v>0.06117785591232237</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1016883152379455</v>
+        <v>0.09867776448123493</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.001931272700567771</v>
+        <v>-0.002760275112803535</v>
       </c>
       <c r="J210" t="n">
-        <v>0.173642982549067</v>
+        <v>0.171005908873769</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1010772871238454</v>
+        <v>0.1007175357755592</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.004463392284004771</v>
+        <v>-0.003518540010693608</v>
       </c>
       <c r="M210" t="n">
-        <v>0.4098242879204759</v>
+        <v>0.4110414962562121</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1008822384277961</v>
+        <v>0.09987352961415487</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.002854857158216771</v>
+        <v>-0.004161417326216404</v>
       </c>
       <c r="P210" t="n">
-        <v>0.6523529670255375</v>
+        <v>0.6387983554901374</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.0995957432095772</v>
+        <v>0.09792756724760183</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.004301108468994935</v>
+        <v>-0.004285862788728748</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.063725109628612</v>
+        <v>0.06125353265705501</v>
       </c>
       <c r="G211" t="n">
-        <v>0.102501821759849</v>
+        <v>0.0994671865970848</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.001931272700567771</v>
+        <v>-0.002759999085292255</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1736744374945326</v>
+        <v>0.1711343939444176</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1018859054208362</v>
+        <v>0.1015232760617637</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.004463392284004771</v>
+        <v>-0.003518540010693608</v>
       </c>
       <c r="M211" t="n">
-        <v>0.4100905002539791</v>
+        <v>0.4112361566122509</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1016892963352185</v>
+        <v>0.1006725178510681</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.002854857158216771</v>
+        <v>-0.004161417326216404</v>
       </c>
       <c r="P211" t="n">
-        <v>0.652642294295139</v>
+        <v>0.639360901173139</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.1003925091552538</v>
+        <v>0.09871098778558265</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.004301108468994935</v>
+        <v>-0.004285862788728748</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.06369238612611763</v>
+        <v>0.0613123008814232</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1033153282817526</v>
+        <v>0.1002566087129347</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.001986795572993807</v>
+        <v>-0.002705163459423965</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1737279385710175</v>
+        <v>0.1713271851359954</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1026945237178269</v>
+        <v>0.1023290163479682</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.004099138350775222</v>
+        <v>-0.003395022483902603</v>
       </c>
       <c r="M212" t="n">
-        <v>0.4104613043116691</v>
+        <v>0.4113171215432605</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1024963542426408</v>
+        <v>0.1014715060879813</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.002753846044206369</v>
+        <v>-0.003821474122785566</v>
       </c>
       <c r="P212" t="n">
-        <v>0.6525702711685716</v>
+        <v>0.6399141330050979</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.1011892751009304</v>
+        <v>0.09949440832356347</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.003967875950976925</v>
+        <v>-0.003997010738674132</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06367636937410207</v>
+        <v>0.06138764931202313</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1041288348036562</v>
+        <v>0.1010460308287846</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.001986795572993807</v>
+        <v>-0.002705163459423965</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1737812694384823</v>
+        <v>0.1714735373505908</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1035031420148177</v>
+        <v>0.1031347566341727</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.004099138350775222</v>
+        <v>-0.003395022483902603</v>
       </c>
       <c r="M213" t="n">
-        <v>0.4108240029814862</v>
+        <v>0.411340986829494</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1033034121500632</v>
+        <v>0.1022704943248946</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.002753846044206369</v>
+        <v>-0.003821474122785566</v>
       </c>
       <c r="P213" t="n">
-        <v>0.652407794516513</v>
+        <v>0.6405469561662429</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1019860410466071</v>
+        <v>0.1002778288615443</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.003967875950976925</v>
+        <v>-0.003997010738674132</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06364250975521854</v>
+        <v>0.06146264363386238</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1049423413255597</v>
+        <v>0.1018354529446344</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.001986795572993807</v>
+        <v>-0.002705163459423965</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1738122013695649</v>
+        <v>0.1717061971228968</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1043117603118085</v>
+        <v>0.1039404969203771</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.004099138350775222</v>
+        <v>-0.003395022483902603</v>
       </c>
       <c r="M214" t="n">
-        <v>0.4111778637169747</v>
+        <v>0.4115328071770407</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1041104700574856</v>
+        <v>0.1030694825618078</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.002753846044206369</v>
+        <v>-0.003821474122785566</v>
       </c>
       <c r="P214" t="n">
-        <v>0.6525160346785859</v>
+        <v>0.6414376511930364</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1027828069922837</v>
+        <v>0.1010612493995251</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.003967875950976925</v>
+        <v>-0.003997010738674132</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.0636081290859089</v>
+        <v>0.06153715216786623</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1057558478474633</v>
+        <v>0.1026248750604843</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.001986795572993807</v>
+        <v>-0.002654113042670159</v>
       </c>
       <c r="J215" t="n">
-        <v>0.17384325297661</v>
+        <v>0.1718699335463822</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1051203786087992</v>
+        <v>0.1047462372065816</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.003725041942624829</v>
+        <v>-0.003395022483902603</v>
       </c>
       <c r="M215" t="n">
-        <v>0.4113537475554321</v>
+        <v>0.4114439644677669</v>
       </c>
       <c r="N215" t="n">
-        <v>0.104917527964908</v>
+        <v>0.1038684707987211</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.002753846044206369</v>
+        <v>-0.003821474122785566</v>
       </c>
       <c r="P215" t="n">
-        <v>0.6525341635189412</v>
+        <v>0.6419622980550306</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1035795729379603</v>
+        <v>0.1018446699375059</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.003967875950976925</v>
+        <v>-0.003997010738674132</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06358189294161845</v>
+        <v>0.06163635949403108</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1065693543693668</v>
+        <v>0.1034142971763342</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.002047049190620727</v>
+        <v>-0.002653847684437538</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1738521893345254</v>
+        <v>0.1720310451017916</v>
       </c>
       <c r="K216" t="n">
-        <v>0.10592899690579</v>
+        <v>0.1055519774927861</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.003725041942624829</v>
+        <v>-0.003261202368494691</v>
       </c>
       <c r="M216" t="n">
-        <v>0.4116314871443846</v>
+        <v>0.4116925874108334</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1057245858723303</v>
+        <v>0.1046674590356343</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.002646121125962267</v>
+        <v>-0.003473488119211259</v>
       </c>
       <c r="P216" t="n">
-        <v>0.6527331106417994</v>
+        <v>0.6424769928512316</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1043763388836369</v>
+        <v>0.1026280904754867</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.003622905306900911</v>
+        <v>-0.00369263798257024</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06355518982939988</v>
+        <v>0.06169263122401605</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1073828608912704</v>
+        <v>0.1042037192921841</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.002047049190620727</v>
+        <v>-0.002653582326204918</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1738839212872471</v>
+        <v>0.1721671670685366</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1067376152027808</v>
+        <v>0.1063577177789905</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.003725041942624829</v>
+        <v>-0.003261202368494691</v>
       </c>
       <c r="M217" t="n">
-        <v>0.4118419495895671</v>
+        <v>0.4117738363119727</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1065316437797527</v>
+        <v>0.1054664472725475</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.002646121125962267</v>
+        <v>-0.003473488119211259</v>
       </c>
       <c r="P217" t="n">
-        <v>0.6527520280696042</v>
+        <v>0.6431601915141073</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1051731048293135</v>
+        <v>0.1034115110134675</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.003622905306900911</v>
+        <v>-0.00369263798257024</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06355394073051655</v>
+        <v>0.06175644625211793</v>
       </c>
       <c r="G218" t="n">
-        <v>0.108196367413174</v>
+        <v>0.104993141408034</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.002047049190620727</v>
+        <v>-0.002653847684437538</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1738714382606594</v>
+        <v>0.1722781026072658</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1075462334997715</v>
+        <v>0.107163458065195</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.003725041942624829</v>
+        <v>-0.003261202368494691</v>
       </c>
       <c r="M218" t="n">
-        <v>0.412096759085156</v>
+        <v>0.4117443227497422</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1073387016871751</v>
+        <v>0.1062654355094608</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.002646121125962267</v>
+        <v>-0.003473488119211259</v>
       </c>
       <c r="P218" t="n">
-        <v>0.6525910737339325</v>
+        <v>0.6435652587954943</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1059698707749901</v>
+        <v>0.1041949315514484</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.003622905306900911</v>
+        <v>-0.00369263798257024</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06352638410566674</v>
+        <v>0.06185307610508683</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1090098739350775</v>
+        <v>0.1057825635238838</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.002047049190620727</v>
+        <v>-0.002653847684437538</v>
       </c>
       <c r="J219" t="n">
-        <v>0.173926831908898</v>
+        <v>0.1724303925149189</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1083548517967623</v>
+        <v>0.1079691983513995</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.003725041942624829</v>
+        <v>-0.003121737109955152</v>
       </c>
       <c r="M219" t="n">
-        <v>0.4123390226052245</v>
+        <v>0.411941603726555</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1081457595945974</v>
+        <v>0.107064423746374</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.002646121125962267</v>
+        <v>-0.003473488119211259</v>
       </c>
       <c r="P219" t="n">
-        <v>0.6527017104477141</v>
+        <v>0.6442280511386622</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1067666367206667</v>
+        <v>0.1049783520894292</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.003622905306900911</v>
+        <v>-0.00369263798257024</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.0634984490879531</v>
+        <v>0.06192320154721855</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1098233804569811</v>
+        <v>0.1065719856397337</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002104248470919099</v>
+        <v>-0.002604577818123235</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1740054880952858</v>
+        <v>0.1726017177924881</v>
       </c>
       <c r="K220" t="n">
-        <v>0.109163470093753</v>
+        <v>0.108774938637604</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.003357298048068529</v>
+        <v>-0.003121737109955152</v>
       </c>
       <c r="M220" t="n">
-        <v>0.4126805351271005</v>
+        <v>0.4118605680296137</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1089528175020198</v>
+        <v>0.1078634119832873</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.002535871408394697</v>
+        <v>-0.003134795244823572</v>
       </c>
       <c r="P220" t="n">
-        <v>0.6528133363151191</v>
+        <v>0.6447910038585557</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1075634026663434</v>
+        <v>0.10576177262741</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.003280894400460491</v>
+        <v>-0.00338395682209304</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06345292105523757</v>
+        <v>0.06198357642923308</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1106368869788847</v>
+        <v>0.1073614077555836</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002104248470919099</v>
+        <v>-0.002604838301953431</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1740403669245138</v>
+        <v>0.1727474224866115</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1099720883907438</v>
+        <v>0.1095806789238084</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.003357298048068529</v>
+        <v>-0.003121737109955152</v>
       </c>
       <c r="M221" t="n">
-        <v>0.4127829922099524</v>
+        <v>0.4120635992761131</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1097598754094422</v>
+        <v>0.1086624002202005</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.002535871408394697</v>
+        <v>-0.003134795244823572</v>
       </c>
       <c r="P221" t="n">
-        <v>0.6528358554297232</v>
+        <v>0.6455223898725067</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.10836016861202</v>
+        <v>0.1065451931653908</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.003280894400460491</v>
+        <v>-0.00338395682209304</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06343294292363218</v>
+        <v>0.06205101091984601</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1114503935007882</v>
+        <v>0.1081508298714335</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002104248470919099</v>
+        <v>-0.002604838301953431</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1740091923398572</v>
+        <v>0.1728896016657751</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1107807066877346</v>
+        <v>0.1103864192100129</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.003357298048068529</v>
+        <v>-0.003121737109955152</v>
       </c>
       <c r="M222" t="n">
-        <v>0.4130395424944371</v>
+        <v>0.412101664677707</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1105669333168645</v>
+        <v>0.1094613884571137</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.002535871408394697</v>
+        <v>-0.003134795244823572</v>
       </c>
       <c r="P222" t="n">
-        <v>0.6525888945013512</v>
+        <v>0.6459744304626528</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.1091569345576966</v>
+        <v>0.1073286137033716</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.003280894400460491</v>
+        <v>-0.00338395682209304</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.0633954366978684</v>
+        <v>0.06211690588215073</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1122639000226918</v>
+        <v>0.1089402519872834</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002104248470919099</v>
+        <v>-0.002605359269613821</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1740689270473991</v>
+        <v>0.1730504079452</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1115893249847253</v>
+        <v>0.1111921594962174</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.003357298048068529</v>
+        <v>-0.003121737109955152</v>
       </c>
       <c r="M223" t="n">
-        <v>0.4133369866886005</v>
+        <v>0.412256288443473</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1113739912242869</v>
+        <v>0.110260376694027</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002535871408394697</v>
+        <v>-0.002823147487473509</v>
       </c>
       <c r="P223" t="n">
-        <v>0.6527044931911602</v>
+        <v>0.6465946880407817</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1099537005033732</v>
+        <v>0.1081120342413524</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.002956541095349262</v>
+        <v>-0.00338395682209304</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06338351652291759</v>
+        <v>0.06218962367911328</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1130774065445953</v>
+        <v>0.1097296741031332</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002159287172268891</v>
+        <v>-0.002555561107931232</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1740852997098176</v>
+        <v>0.1731404664197843</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1123979432817161</v>
+        <v>0.1119978997824219</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.003012101655621265</v>
+        <v>-0.002978024876131175</v>
       </c>
       <c r="M224" t="n">
-        <v>0.4133929441647576</v>
+        <v>0.4124155807437523</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1121810491317093</v>
+        <v>0.1110593649309402</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.002427285896413891</v>
+        <v>-0.002823147487473509</v>
       </c>
       <c r="P224" t="n">
-        <v>0.6527314859653159</v>
+        <v>0.64684515545804</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1107504664490498</v>
+        <v>0.1088954547793332</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.002956541095349262</v>
+        <v>-0.003081688296039074</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06332830162861573</v>
+        <v>0.06223505009034895</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1138909130664989</v>
+        <v>0.1105190962189831</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002159287172268891</v>
+        <v>-0.002555561107931232</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1741929234445102</v>
+        <v>0.1732711548121693</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1132065615787069</v>
+        <v>0.1128036400686264</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.003012101655621265</v>
+        <v>-0.002978024876131175</v>
       </c>
       <c r="M225" t="n">
-        <v>0.4134882651158354</v>
+        <v>0.41246757116671</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1129881070391316</v>
+        <v>0.1118583531678534</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.002427285896413891</v>
+        <v>-0.002823147487473509</v>
       </c>
       <c r="P225" t="n">
-        <v>0.6526700339888217</v>
+        <v>0.647443012718553</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1115472323947265</v>
+        <v>0.1096788753173141</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.002956541095349262</v>
+        <v>-0.003081688296039074</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.0633073336716275</v>
+        <v>0.0622870238293967</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1147044195884025</v>
+        <v>0.111308518334833</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002159287172268891</v>
+        <v>-0.002555561107931232</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1741678060854641</v>
+        <v>0.1733977173210557</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1140151798756976</v>
+        <v>0.1136093803548308</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.003012101655621265</v>
+        <v>-0.002978024876131175</v>
       </c>
       <c r="M226" t="n">
-        <v>0.4137350059729469</v>
+        <v>0.4126377135269634</v>
       </c>
       <c r="N226" t="n">
-        <v>0.113795164946554</v>
+        <v>0.1126573414047667</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.002427285896413891</v>
+        <v>-0.002823147487473509</v>
       </c>
       <c r="P226" t="n">
-        <v>0.6527008555209842</v>
+        <v>0.6479397350773104</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1123439983404031</v>
+        <v>0.1104622958552949</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.002956541095349262</v>
+        <v>-0.003081688296039074</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06326897929885839</v>
+        <v>0.06235394414078517</v>
       </c>
       <c r="G227" t="n">
-        <v>0.115517926110306</v>
+        <v>0.1120979404506829</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002197966925330799</v>
+        <v>-0.002505717934724585</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1742118289282583</v>
+        <v>0.173520003766171</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1148237981726884</v>
+        <v>0.1144151206410353</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.003012101655621265</v>
+        <v>-0.002832883378454647</v>
       </c>
       <c r="M227" t="n">
-        <v>0.4139070286625409</v>
+        <v>0.412701530307688</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1146022228539764</v>
+        <v>0.1134563296416799</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.002427285896413891</v>
+        <v>-0.002823147487473509</v>
       </c>
       <c r="P227" t="n">
-        <v>0.6527338466760423</v>
+        <v>0.6486045397808331</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1131407642860797</v>
+        <v>0.1112457163932757</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.002956541095349262</v>
+        <v>-0.003081688296039074</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06326489540989111</v>
+        <v>0.06242719590044102</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1163314326322096</v>
+        <v>0.1128873625665327</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002197966925330799</v>
+        <v>-0.002505717934724585</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1743251796529568</v>
+        <v>0.1736378639672424</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1156324164696792</v>
+        <v>0.1152208609272398</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.00270564775379797</v>
+        <v>-0.002832883378454647</v>
       </c>
       <c r="M228" t="n">
-        <v>0.4140035628828612</v>
+        <v>0.412884566630385</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1154092807613987</v>
+        <v>0.1142553178785932</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.002324553594930081</v>
+        <v>-0.002556041230888988</v>
       </c>
       <c r="P228" t="n">
-        <v>0.6529497486093643</v>
+        <v>0.6488083208858291</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1139375302317563</v>
+        <v>0.1120291369312565</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002664543255260823</v>
+        <v>-0.002799136471901874</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.0632090898629268</v>
+        <v>0.06245552363934938</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1171449391541132</v>
+        <v>0.1136767846823826</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002197966925330799</v>
+        <v>-0.002505968506518057</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1743285868381496</v>
+        <v>0.1737959024490168</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1164410347666699</v>
+        <v>0.1160266012134442</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.00270564775379797</v>
+        <v>-0.002832883378454647</v>
       </c>
       <c r="M229" t="n">
-        <v>0.4139674529109391</v>
+        <v>0.4129622487282705</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1162163386688211</v>
+        <v>0.1150543061155064</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.002324553594930081</v>
+        <v>-0.002556041230888988</v>
       </c>
       <c r="P229" t="n">
-        <v>0.6530778840975794</v>
+        <v>0.6492697055949049</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1147342961774329</v>
+        <v>0.1128125574692373</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002664543255260823</v>
+        <v>-0.002799136471901874</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06317900638727851</v>
+        <v>0.06251547221890046</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1179584456760167</v>
+        <v>0.1144662067982325</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002197966925330799</v>
+        <v>-0.002505968506518057</v>
       </c>
       <c r="J230" t="n">
-        <v>0.17435675221015</v>
+        <v>0.1738597049161638</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1172496530636607</v>
+        <v>0.1168323414996487</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.00270564775379797</v>
+        <v>-0.002832883378454647</v>
       </c>
       <c r="M230" t="n">
-        <v>0.4141363491223241</v>
+        <v>0.4130476138013657</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1170233965762435</v>
+        <v>0.1158532943524196</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.002324553594930081</v>
+        <v>-0.002556041230888988</v>
       </c>
       <c r="P230" t="n">
-        <v>0.6531184118542351</v>
+        <v>0.6497190052584033</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1155310621231096</v>
+        <v>0.1135959780072181</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002664543255260823</v>
+        <v>-0.002799136471901874</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06314886982364609</v>
+        <v>0.06256430467661932</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1187719521979203</v>
+        <v>0.1152556289140824</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002197966925330799</v>
+        <v>-0.002505968506518057</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1744771679435146</v>
+        <v>0.1740081824602449</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1180582713606514</v>
+        <v>0.1176380817858532</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.00270564775379797</v>
+        <v>-0.002832883378454647</v>
       </c>
       <c r="M231" t="n">
-        <v>0.4140711260770742</v>
+        <v>0.413253809290321</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1178304544836659</v>
+        <v>0.1166522825893329</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.002231455799698852</v>
+        <v>-0.002556041230888988</v>
       </c>
       <c r="P231" t="n">
-        <v>0.6531617871392174</v>
+        <v>0.6504261325080968</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1163278280687862</v>
+        <v>0.114379398545199</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002664543255260823</v>
+        <v>-0.002799136471901874</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06311870973488269</v>
+        <v>0.06262748822192755</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1195854587198239</v>
+        <v>0.1160450510299323</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002232742699531174</v>
+        <v>-0.002451165637979047</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1745104577391444</v>
+        <v>0.1741292640597903</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1188668896576422</v>
+        <v>0.1184438220720577</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002454131331113587</v>
+        <v>-0.002691877887917906</v>
       </c>
       <c r="M232" t="n">
-        <v>0.4140146704622991</v>
+        <v>0.413412431268729</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1186375123910882</v>
+        <v>0.1174512708262461</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.002231455799698852</v>
+        <v>-0.002352230451300213</v>
       </c>
       <c r="P232" t="n">
-        <v>0.6529372709940203</v>
+        <v>0.6505807046758092</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1171245940144628</v>
+        <v>0.1151628190831798</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002419598743888767</v>
+        <v>-0.002547777473521677</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06310572872193185</v>
+        <v>0.06265366408611389</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1203989652417274</v>
+        <v>0.1168344731457822</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002232742699531174</v>
+        <v>-0.002450675502878471</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1745465205082011</v>
+        <v>0.1741555150024034</v>
       </c>
       <c r="K233" t="n">
-        <v>0.119675507954633</v>
+        <v>0.1192495623582621</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002454131331113587</v>
+        <v>-0.002691877887917906</v>
       </c>
       <c r="M233" t="n">
-        <v>0.4140658341784506</v>
+        <v>0.4135239424614569</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1194445702985106</v>
+        <v>0.1182502590631594</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.002231455799698852</v>
+        <v>-0.002352230451300213</v>
       </c>
       <c r="P233" t="n">
-        <v>0.653167449834428</v>
+        <v>0.6512631069103874</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1179213599601394</v>
+        <v>0.1159462396211606</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002419598743888767</v>
+        <v>-0.002547777473521677</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06307560424717336</v>
+        <v>0.06270247385099192</v>
       </c>
       <c r="G234" t="n">
-        <v>0.121212471763631</v>
+        <v>0.117623895261632</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002232742699531174</v>
+        <v>-0.002450920570428759</v>
       </c>
       <c r="J234" t="n">
-        <v>0.174630425019429</v>
+        <v>0.1742436639534884</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1204841262516237</v>
+        <v>0.1200553026444666</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002454131331113587</v>
+        <v>-0.002691877887917906</v>
       </c>
       <c r="M234" t="n">
-        <v>0.4140484493297764</v>
+        <v>0.4137579104089757</v>
       </c>
       <c r="N234" t="n">
-        <v>0.120251628205933</v>
+        <v>0.1190492473000726</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.002231455799698852</v>
+        <v>-0.002352230451300213</v>
       </c>
       <c r="P234" t="n">
-        <v>0.6530397522807337</v>
+        <v>0.6513921295923308</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.118718125905816</v>
+        <v>0.1167296601591414</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002419598743888767</v>
+        <v>-0.002547777473521677</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.0630283839463379</v>
+        <v>0.0627310715393912</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1220259782855346</v>
+        <v>0.1184133173774819</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002232742699531174</v>
+        <v>-0.002450920570428759</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1747174226062274</v>
+        <v>0.1743487702756493</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1212927445486145</v>
+        <v>0.1208610429306711</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002454131331113587</v>
+        <v>-0.002691877887917906</v>
       </c>
       <c r="M235" t="n">
-        <v>0.4139625339380945</v>
+        <v>0.4138893993463456</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1210586861133553</v>
+        <v>0.1198482355369858</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.002231455799698852</v>
+        <v>-0.002352230451300213</v>
       </c>
       <c r="P235" t="n">
-        <v>0.6530961938810456</v>
+        <v>0.6520491467616257</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1195148918514926</v>
+        <v>0.1175130806971222</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.002419598743888767</v>
+        <v>-0.002547777473521677</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06300700289069594</v>
+        <v>0.06277351735306859</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1228394848074381</v>
+        <v>0.1192027394933318</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002246966302704429</v>
+        <v>-0.002388389811114496</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1747402401909358</v>
+        <v>0.1744482643218787</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1221013628456053</v>
+        <v>0.1216667832168756</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002273747376083052</v>
+        <v>-0.002554707486567207</v>
       </c>
       <c r="M236" t="n">
-        <v>0.4140900792058337</v>
+        <v>0.4140711260770742</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1218657440207777</v>
+        <v>0.1206472237738991</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002140980323499494</v>
+        <v>-0.002224149006859091</v>
       </c>
       <c r="P236" t="n">
-        <v>0.6534273024657158</v>
+        <v>0.6521519904622524</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1203116577971693</v>
+        <v>0.118296501235103</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.002236000081468256</v>
+        <v>-0.002337960038982636</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06298574015673762</v>
+        <v>0.06280402985067433</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1236529913293417</v>
+        <v>0.1199921616091816</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.002246966302704429</v>
+        <v>-0.002387912180915293</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1748338496327849</v>
+        <v>0.1744970947594189</v>
       </c>
       <c r="K237" t="n">
-        <v>0.122909981142596</v>
+        <v>0.12247252350308</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002273747376083052</v>
+        <v>-0.002554707486567207</v>
       </c>
       <c r="M237" t="n">
-        <v>0.4139798754952394</v>
+        <v>0.4143031140025859</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1226728019282001</v>
+        <v>0.1214462120108123</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002140980323499494</v>
+        <v>-0.002224149006859091</v>
       </c>
       <c r="P237" t="n">
-        <v>0.6532831257411211</v>
+        <v>0.6527829621291938</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1211084237428459</v>
+        <v>0.1190799217730838</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.002236000081468256</v>
+        <v>-0.002337960038982636</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06293891069432732</v>
+        <v>0.06283958629041779</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1244664978512453</v>
+        <v>0.1207815837250315</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002246966302704429</v>
+        <v>-0.002388150996014895</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1748591264130272</v>
+        <v>0.1745848953834136</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1237185994395868</v>
+        <v>0.1232782637892845</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002273747376083052</v>
+        <v>-0.002554707486567207</v>
       </c>
       <c r="M238" t="n">
-        <v>0.4138011383377201</v>
+        <v>0.4146510654216325</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1234798598356224</v>
+        <v>0.1222452002477256</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002140980323499494</v>
+        <v>-0.002224149006859091</v>
       </c>
       <c r="P238" t="n">
-        <v>0.6534041719087218</v>
+        <v>0.6531298825276581</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1219051896885225</v>
+        <v>0.1198633423110646</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.002236000081468256</v>
+        <v>-0.002337960038982636</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06290941368953495</v>
+        <v>0.06284581642548731</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1252800043731488</v>
+        <v>0.1215710058408814</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002246966302704429</v>
+        <v>-0.002317497421066762</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1749902410480707</v>
+        <v>0.1746666290255919</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1245272177365776</v>
+        <v>0.124084004075489</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002273747376083052</v>
+        <v>-0.002554707486567207</v>
       </c>
       <c r="M239" t="n">
-        <v>0.413835774583291</v>
+        <v>0.4148493241899198</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1242869177430448</v>
+        <v>0.1230441884846388</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002140980323499494</v>
+        <v>-0.002224149006859091</v>
       </c>
       <c r="P239" t="n">
-        <v>0.6534337181945863</v>
+        <v>0.6532831257411211</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1227019556341991</v>
+        <v>0.1206467628490455</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.002236000081468256</v>
+        <v>-0.002337960038982636</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06290568612999128</v>
+        <v>0.0628739498648031</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1260935108950524</v>
+        <v>0.1223604279567313</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002252043814460614</v>
+        <v>-0.002317265671324655</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1750339880096858</v>
+        <v>0.1747196761478327</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1253358360335683</v>
+        <v>0.1248897443616935</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.00214786814285279</v>
+        <v>-0.002427051601742043</v>
       </c>
       <c r="M240" t="n">
-        <v>0.4137454597814338</v>
+        <v>0.4151798408715813</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1250939756504672</v>
+        <v>0.123843176721552</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002049156232772625</v>
+        <v>-0.002122861831762863</v>
       </c>
       <c r="P240" t="n">
-        <v>0.6538527609989535</v>
+        <v>0.6535181844756653</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1234987215798757</v>
+        <v>0.1214301833870263</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002082508859376938</v>
+        <v>-0.002175158576881194</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.0628498225118999</v>
+        <v>0.06288961169190591</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1269070174169559</v>
+        <v>0.1231498500725812</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002252043814460614</v>
+        <v>-0.002317265671324655</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1751748852956594</v>
+        <v>0.1747663427687188</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1261444543305591</v>
+        <v>0.1256954846478979</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.00214786814285279</v>
+        <v>-0.002427051601742043</v>
       </c>
       <c r="M241" t="n">
-        <v>0.4136993141605867</v>
+        <v>0.4154162937252315</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1259010335578895</v>
+        <v>0.1246421649584653</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002049156232772625</v>
+        <v>-0.002122861831762863</v>
       </c>
       <c r="P241" t="n">
-        <v>0.653937827330392</v>
+        <v>0.6540236585991502</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1242954875255523</v>
+        <v>0.1222136039250071</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002082508859376938</v>
+        <v>-0.002175158576881194</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06283590866585512</v>
+        <v>0.06288409944509686</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1277205239388595</v>
+        <v>0.1239392721884311</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002252043814460614</v>
+        <v>-0.002317729170808868</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1753002863592432</v>
+        <v>0.1747390502050117</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1269530726275498</v>
+        <v>0.1265012249341024</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.00214786814285279</v>
+        <v>-0.002427051601742043</v>
       </c>
       <c r="M242" t="n">
-        <v>0.4134719046151715</v>
+        <v>0.4157278549217676</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1267080914653119</v>
+        <v>0.1254411531953785</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002049156232772625</v>
+        <v>-0.002122861831762863</v>
       </c>
       <c r="P242" t="n">
-        <v>0.6542305312248445</v>
+        <v>0.6544373873444118</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.125092253471229</v>
+        <v>0.1229970244629879</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002082508859376938</v>
+        <v>-0.002175158576881194</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.06278690446710006</v>
+        <v>0.0629033519072265</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1285340304607631</v>
+        <v>0.1247286943042809</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002252043814460614</v>
+        <v>-0.002317960920550975</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1753424147642392</v>
+        <v>0.1748399336051021</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1277616909245406</v>
+        <v>0.1273069652203069</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.00214786814285279</v>
+        <v>-0.002427051601742043</v>
       </c>
       <c r="M243" t="n">
-        <v>0.4132886697587091</v>
+        <v>0.4160576699010841</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1275151493727343</v>
+        <v>0.1262401414322918</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002049156232772625</v>
+        <v>-0.002024277314842467</v>
       </c>
       <c r="P243" t="n">
-        <v>0.6542782653784464</v>
+        <v>0.6546685850713667</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1258890194169056</v>
+        <v>0.1237804450009687</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.001933033127916101</v>
+        <v>-0.002175158576881194</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06277984048341866</v>
+        <v>0.06291181876460934</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1293475369826666</v>
+        <v>0.1255181164201308</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002228588388348603</v>
+        <v>-0.002235914667977571</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1754588316019642</v>
+        <v>0.1747991108920217</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1285703092215314</v>
+        <v>0.1281127055065114</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002025259955970498</v>
+        <v>-0.002310389232597217</v>
       </c>
       <c r="M244" t="n">
-        <v>0.4132058858380384</v>
+        <v>0.4162921210346446</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1283222072801566</v>
+        <v>0.127039129669205</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.001955986944282751</v>
+        <v>-0.002024277314842467</v>
       </c>
       <c r="P244" t="n">
-        <v>0.6547133840766698</v>
+        <v>0.6548978085716307</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1266857853625822</v>
+        <v>0.1245638655389495</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.001933033127916101</v>
+        <v>-0.002023108683398324</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06272918374880304</v>
+        <v>0.06290837581360849</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1301610435045702</v>
+        <v>0.1263075385359807</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002228588388348603</v>
+        <v>-0.002235691121220125</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1756495034701507</v>
+        <v>0.174863715608944</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1293789275185221</v>
+        <v>0.1289184457927158</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002025259955970498</v>
+        <v>-0.002310389232597217</v>
       </c>
       <c r="M245" t="n">
-        <v>0.4130545394168111</v>
+        <v>0.4167706696986406</v>
       </c>
       <c r="N245" t="n">
-        <v>0.129129265187579</v>
+        <v>0.1278381179061182</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.001955986944282751</v>
+        <v>-0.002024277314842467</v>
       </c>
       <c r="P245" t="n">
-        <v>0.6547212794140975</v>
+        <v>0.6551248280759115</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1274825513082588</v>
+        <v>0.1253472860769304</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.001933033127916101</v>
+        <v>-0.002023108683398324</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.06270336946684402</v>
+        <v>0.0628938064186301</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1309745500264738</v>
+        <v>0.1270969606518306</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002228588388348603</v>
+        <v>-0.002235467574462678</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1757789684245101</v>
+        <v>0.1748591264130272</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1301875458155129</v>
+        <v>0.1297241860789203</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002025259955970498</v>
+        <v>-0.002310389232597217</v>
       </c>
       <c r="M246" t="n">
-        <v>0.4130035332513945</v>
+        <v>0.4171531587621712</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1299363230950014</v>
+        <v>0.1286371061430315</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.001955986944282751</v>
+        <v>-0.002024277314842467</v>
       </c>
       <c r="P246" t="n">
-        <v>0.6552965402103228</v>
+        <v>0.6554399669590636</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1282793172539354</v>
+        <v>0.1261307066149112</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.001933033127916101</v>
+        <v>-0.002023108683398324</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06265966671559323</v>
+        <v>0.06285964083287222</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1317880565483773</v>
+        <v>0.1278863827676805</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.0021690209615816</v>
+        <v>-0.002235467574462678</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1758921457351862</v>
+        <v>0.1748364816567752</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1309961641125037</v>
+        <v>0.1305299263651248</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.001906522169650675</v>
+        <v>-0.002310389232597217</v>
       </c>
       <c r="M247" t="n">
-        <v>0.4127713943459652</v>
+        <v>0.4174957605230118</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1307433810024237</v>
+        <v>0.1294360943799447</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.001955986944282751</v>
+        <v>-0.002024277314842467</v>
       </c>
       <c r="P247" t="n">
-        <v>0.6556242384628014</v>
+        <v>0.6557525050979648</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1290760831996121</v>
+        <v>0.126914127152892</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.001933033127916101</v>
+        <v>-0.002023108683398324</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.06261518927480464</v>
+        <v>0.06282325982180421</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1326015630702809</v>
+        <v>0.1286758048835303</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.0021690209615816</v>
+        <v>-0.002143204120698161</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1760340569363335</v>
+        <v>0.1748953411357043</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1318047824094944</v>
+        <v>0.1313356666513293</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.001906522169650675</v>
+        <v>-0.002207143693027619</v>
       </c>
       <c r="M248" t="n">
-        <v>0.4124707800983584</v>
+        <v>0.4178547935150295</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1315504389098461</v>
+        <v>0.130235082616858</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.001861475874794375</v>
+        <v>-0.001929595395569329</v>
       </c>
       <c r="P248" t="n">
-        <v>0.6558846408755498</v>
+        <v>0.65633405799858</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1298728491452887</v>
+        <v>0.1276975476908728</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.001788719504825632</v>
+        <v>-0.001876535016646594</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.0625870224863414</v>
+        <v>0.06279345850046168</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1334150695921844</v>
+        <v>0.1294652269993802</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.0021690209615816</v>
+        <v>-0.002142561288028485</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1761367585967948</v>
+        <v>0.1748147938299761</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1326134007064852</v>
+        <v>0.1321414069375337</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.001906522169650675</v>
+        <v>-0.002207143693027619</v>
       </c>
       <c r="M249" t="n">
-        <v>0.4122704423616791</v>
+        <v>0.4183435737261447</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1323574968172685</v>
+        <v>0.1310340708537712</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.001861475874794375</v>
+        <v>-0.001929595395569329</v>
       </c>
       <c r="P249" t="n">
-        <v>0.65607703795258</v>
+        <v>0.6566407956250717</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1306696150909653</v>
+        <v>0.1284809682288536</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.001788719504825632</v>
+        <v>-0.001876535016646594</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.0625495629131885</v>
+        <v>0.06271916179451795</v>
       </c>
       <c r="G250" t="n">
-        <v>0.134228576114088</v>
+        <v>0.1302546491152301</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.0021690209615816</v>
+        <v>-0.002142561288028485</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1762905455318364</v>
+        <v>0.174752533958879</v>
       </c>
       <c r="K250" t="n">
-        <v>0.133422019003476</v>
+        <v>0.1329471472237382</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.001906522169650675</v>
+        <v>-0.002207143693027619</v>
       </c>
       <c r="M250" t="n">
-        <v>0.4121702509851997</v>
+        <v>0.418734500700401</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1331645547246909</v>
+        <v>0.1318330590906844</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.001861475874794375</v>
+        <v>-0.001929595395569329</v>
       </c>
       <c r="P250" t="n">
-        <v>0.6565633322802285</v>
+        <v>0.6569442404928871</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1314663810366419</v>
+        <v>0.1292643887668344</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.001788719504825632</v>
+        <v>-0.001876535016646594</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06250283588780382</v>
+        <v>0.06266903190632182</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1350420826359916</v>
+        <v>0.13104407123108</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.0021690209615816</v>
+        <v>-0.002040539380421434</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1764727245763058</v>
+        <v>0.1746643288345792</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1342306373004667</v>
+        <v>0.1337528875099427</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.001906522169650675</v>
+        <v>-0.002207143693027619</v>
       </c>
       <c r="M251" t="n">
-        <v>0.4119453054343988</v>
+        <v>0.41919772970213</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1339716126321132</v>
+        <v>0.1326320473275977</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.001861475874794375</v>
+        <v>-0.001929595395569329</v>
       </c>
       <c r="P251" t="n">
-        <v>0.6569804968573788</v>
+        <v>0.6569720433657594</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1322631469823185</v>
+        <v>0.1300478093048152</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.001788719504825632</v>
+        <v>-0.001876535016646594</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06246391528104842</v>
+        <v>0.06256642522222366</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1358555891578951</v>
+        <v>0.1318334933469299</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.002092205608895888</v>
+        <v>-0.002040131313352056</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1766378795543331</v>
+        <v>0.1745284607518712</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1350392555974575</v>
+        <v>0.1345586277961472</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.001793405809137929</v>
+        <v>-0.002107537430510247</v>
       </c>
       <c r="M252" t="n">
-        <v>0.4116518959186262</v>
+        <v>0.41973305187136</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1347786705395356</v>
+        <v>0.1334310355645109</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.001765626441072005</v>
+        <v>-0.00184148031841208</v>
       </c>
       <c r="P252" t="n">
-        <v>0.6573278092958345</v>
+        <v>0.6574495944211373</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1330599129279952</v>
+        <v>0.130831229842796</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.001650714607845415</v>
+        <v>-0.001734978774987102</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06242428342639196</v>
+        <v>0.06247992255699883</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1366690956797987</v>
+        <v>0.1326229154627797</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.002092205608895888</v>
+        <v>-0.002040743413956122</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1767858227729728</v>
+        <v>0.1743905910686493</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1358478738944482</v>
+        <v>0.1353643680823516</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.001793405809137929</v>
+        <v>-0.002107537430510247</v>
       </c>
       <c r="M253" t="n">
-        <v>0.4115146483073768</v>
+        <v>0.4202832447291652</v>
       </c>
       <c r="N253" t="n">
-        <v>0.135585728446958</v>
+        <v>0.1342300238014242</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.001765626441072005</v>
+        <v>-0.00184148031841208</v>
       </c>
       <c r="P253" t="n">
-        <v>0.6579676855521729</v>
+        <v>0.6577417493321063</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1338566788736718</v>
+        <v>0.1316146503807769</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.001650714607845415</v>
+        <v>-0.001734978774987102</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06238395441842039</v>
+        <v>0.06238414945103936</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1374826022017022</v>
+        <v>0.1334123375786296</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.002092205608895888</v>
+        <v>-0.002040743413956122</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1769844586230436</v>
+        <v>0.1742289906646703</v>
       </c>
       <c r="K254" t="n">
-        <v>0.136656492191439</v>
+        <v>0.1361701083685561</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.001793405809137929</v>
+        <v>-0.002107537430510247</v>
       </c>
       <c r="M254" t="n">
-        <v>0.4111405223332276</v>
+        <v>0.4207908914136631</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1363927863543803</v>
+        <v>0.1350290120383374</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.001765626441072005</v>
+        <v>-0.00184148031841208</v>
       </c>
       <c r="P254" t="n">
-        <v>0.6585366106810756</v>
+        <v>0.6580296902602567</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1346534448193484</v>
+        <v>0.1323980709187577</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.001650714607845415</v>
+        <v>-0.001734978774987102</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06235996625222982</v>
+        <v>0.06228786303471269</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1382961087236058</v>
+        <v>0.1342017596944795</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.002092205608895888</v>
+        <v>-0.002040335346886745</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1771428898325511</v>
+        <v>0.174044396852574</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1374651104884298</v>
+        <v>0.1369758486547606</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.001793405809137929</v>
+        <v>-0.002008316041474347</v>
       </c>
       <c r="M255" t="n">
-        <v>0.4109785227517043</v>
+        <v>0.4212554918035055</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1371998442618027</v>
+        <v>0.1358280002752506</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.001765626441072005</v>
+        <v>-0.00184148031841208</v>
       </c>
       <c r="P255" t="n">
-        <v>0.6589429645525812</v>
+        <v>0.6581315423443341</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.135450210765025</v>
+        <v>0.1331814914567385</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.001650714607845415</v>
+        <v>-0.001734978774987102</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06230126132087545</v>
+        <v>0.0621657980738726</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1391096152455094</v>
+        <v>0.1349911818103294</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.0019922004244339</v>
+        <v>-0.001930507550388987</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1773972791352618</v>
+        <v>0.1738599329382943</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1382737287854205</v>
+        <v>0.137781588940965</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.001687661899676868</v>
+        <v>-0.002008316041474347</v>
       </c>
       <c r="M256" t="n">
-        <v>0.4105237813605463</v>
+        <v>0.4217908955793211</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1380069021692251</v>
+        <v>0.1366269885121639</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001668442059880143</v>
+        <v>-0.001759859227240939</v>
       </c>
       <c r="P256" t="n">
-        <v>0.6595495930622656</v>
+        <v>0.6586828587305986</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1362469767107016</v>
+        <v>0.1339649119947193</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.001520165054715335</v>
+        <v>-0.001599756120513068</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06226742896819565</v>
+        <v>0.06204372288114328</v>
       </c>
       <c r="G257" t="n">
-        <v>0.139923121767413</v>
+        <v>0.1357806039261792</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.0019922004244339</v>
+        <v>-0.001930121526083771</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1775656818964859</v>
+        <v>0.1736315414087307</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1390823470824113</v>
+        <v>0.1385873292271695</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.001687661899676868</v>
+        <v>-0.002008316041474347</v>
       </c>
       <c r="M257" t="n">
-        <v>0.410280981986175</v>
+        <v>0.4224541494530399</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1388139600766475</v>
+        <v>0.1374259767490771</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001668442059880143</v>
+        <v>-0.001759859227240939</v>
       </c>
       <c r="P257" t="n">
-        <v>0.6599922530420208</v>
+        <v>0.6588659252644142</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1370437426563782</v>
+        <v>0.1347483325327001</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.001520165054715335</v>
+        <v>-0.001599756120513068</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06223294724434966</v>
+        <v>0.06191338340463534</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1407366282893165</v>
+        <v>0.1365700260420291</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.0019922004244339</v>
+        <v>-0.001930121526083771</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1777160508411053</v>
+        <v>0.1734270428038812</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1398909653794021</v>
+        <v>0.139393069513374</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.001687661899676868</v>
+        <v>-0.002008316041474347</v>
       </c>
       <c r="M258" t="n">
-        <v>0.4100817614253147</v>
+        <v>0.4228442116230039</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1396210179840698</v>
+        <v>0.1382249649859904</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001668442059880143</v>
+        <v>-0.001759859227240939</v>
       </c>
       <c r="P258" t="n">
-        <v>0.6605431574494189</v>
+        <v>0.658952897617509</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1378405086020549</v>
+        <v>0.135531753070681</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.001520165054715335</v>
+        <v>-0.001599756120513068</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06218084027819498</v>
+        <v>0.06177503118358778</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1415501348112201</v>
+        <v>0.137359448157879</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.0019922004244339</v>
+        <v>-0.001930314538236379</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1779393619727949</v>
+        <v>0.173113145090326</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1406995836763928</v>
+        <v>0.1401988097995785</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.001687661899676868</v>
+        <v>-0.002008316041474347</v>
       </c>
       <c r="M259" t="n">
-        <v>0.4097021504849325</v>
+        <v>0.4234186609052341</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1404280758914922</v>
+        <v>0.1390239532229036</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001668442059880143</v>
+        <v>-0.001759859227240939</v>
       </c>
       <c r="P259" t="n">
-        <v>0.660928568220187</v>
+        <v>0.6593981215668934</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1386372745477314</v>
+        <v>0.1363151736086618</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.001520165054715335</v>
+        <v>-0.001599756120513068</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06213661991460033</v>
+        <v>0.06163735829789427</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1423636413331237</v>
+        <v>0.1381488702737289</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001869436972391183</v>
+        <v>-0.001812027534608583</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1781444011911092</v>
+        <v>0.1728023326127349</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1415082019733836</v>
+        <v>0.1410045500857829</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.001591041466512099</v>
+        <v>-0.001910507504147249</v>
       </c>
       <c r="M260" t="n">
-        <v>0.4093102272346814</v>
+        <v>0.4240054475874894</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1412351337989145</v>
+        <v>0.1398229414598168</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.001569926147983296</v>
+        <v>-0.001685870234262136</v>
       </c>
       <c r="P260" t="n">
-        <v>0.6615121791302611</v>
+        <v>0.6597468969414252</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1394340404934081</v>
+        <v>0.1370985941466426</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001398217463175276</v>
+        <v>-0.001471575998349569</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.0620918009999368</v>
+        <v>0.06149214501844787</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1431771478550272</v>
+        <v>0.1389382923895788</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001869436972391183</v>
+        <v>-0.001812208755484131</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1783994749790961</v>
+        <v>0.1725397654201093</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1423168202703743</v>
+        <v>0.1418102903719874</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.001591041466512099</v>
+        <v>-0.001910507504147249</v>
       </c>
       <c r="M261" t="n">
-        <v>0.4089059854535917</v>
+        <v>0.4247766223689931</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1420421917063369</v>
+        <v>0.1406219296967301</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.001569926147983296</v>
+        <v>-0.001685870234262136</v>
       </c>
       <c r="P261" t="n">
-        <v>0.662293743022924</v>
+        <v>0.6598169509228903</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1402308064390847</v>
+        <v>0.1378820146846234</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001398217463175276</v>
+        <v>-0.001471575998349569</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06204639763019991</v>
+        <v>0.06131441344559717</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1439906543769308</v>
+        <v>0.1397277145054286</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001869436972391183</v>
+        <v>-0.001812027534608583</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1786131463805349</v>
+        <v>0.1721925782602052</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1431254385673651</v>
+        <v>0.1426160306581919</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.001591041466512099</v>
+        <v>-0.001910507504147249</v>
       </c>
       <c r="M262" t="n">
-        <v>0.4087128593803292</v>
+        <v>0.4253872235716724</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1428492496137593</v>
+        <v>0.1414209179336433</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.001569926147983296</v>
+        <v>-0.001685870234262136</v>
       </c>
       <c r="P262" t="n">
-        <v>0.6629079044702511</v>
+        <v>0.6600628614172689</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1410275723847613</v>
+        <v>0.1386654352226042</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001398217463175276</v>
+        <v>-0.001471575998349569</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06201737759581528</v>
+        <v>0.06115491793539947</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1448041608988343</v>
+        <v>0.1405171366212785</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001869436972391183</v>
+        <v>-0.001812027534608583</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1787622705430464</v>
+        <v>0.1718505462350092</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1439340568643559</v>
+        <v>0.1434217709443964</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.001591041466512099</v>
+        <v>-0.001814581227056717</v>
       </c>
       <c r="M263" t="n">
-        <v>0.4083396354298059</v>
+        <v>0.4258939433508803</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1436563075211817</v>
+        <v>0.1422199061705565</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.001569926147983296</v>
+        <v>-0.001685870234262136</v>
       </c>
       <c r="P263" t="n">
-        <v>0.6634450422776238</v>
+        <v>0.6603024850624706</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.1418243383304379</v>
+        <v>0.139448855760585</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001286018450965125</v>
+        <v>-0.001471575998349569</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.0619454217152722</v>
+        <v>0.06099700727537921</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1456176674207379</v>
+        <v>0.1413065587371284</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001726301438140729</v>
+        <v>-0.001687483427753119</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1790068145499724</v>
+        <v>0.1714921549795331</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1447426751613466</v>
+        <v>0.1442275112306008</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001505295534888228</v>
+        <v>-0.001814581227056717</v>
       </c>
       <c r="M264" t="n">
-        <v>0.4079539922294563</v>
+        <v>0.4265843174940053</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1444633654286041</v>
+        <v>0.1430188944074698</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001470082122145969</v>
+        <v>-0.001620809033645095</v>
       </c>
       <c r="P264" t="n">
-        <v>0.6642700013178304</v>
+        <v>0.6606266450523428</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1426211042761145</v>
+        <v>0.1402322762985659</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001286018450965125</v>
+        <v>-0.001351417352729101</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06190682175050415</v>
+        <v>0.06081580656176852</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1464311739426415</v>
+        <v>0.1420959808529783</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001726301438140729</v>
+        <v>-0.001687314713153263</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1792781376679904</v>
+        <v>0.1711623655085315</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1455512934583374</v>
+        <v>0.1450332515168053</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001505295534888228</v>
+        <v>-0.001814581227056717</v>
       </c>
       <c r="M265" t="n">
-        <v>0.4075559198422229</v>
+        <v>0.4271122687266292</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1452704233360264</v>
+        <v>0.143817882644383</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001470082122145969</v>
+        <v>-0.001620809033645095</v>
       </c>
       <c r="P265" t="n">
-        <v>0.6648339245647396</v>
+        <v>0.6609441027342051</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1434178702217912</v>
+        <v>0.1410156968365467</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001286018450965125</v>
+        <v>-0.001351417352729101</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06187614697438283</v>
+        <v>0.0606283520025126</v>
       </c>
       <c r="G266" t="n">
-        <v>0.147244680464545</v>
+        <v>0.1428854029688282</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001726301438140729</v>
+        <v>-0.001687314713153263</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1795073331651875</v>
+        <v>0.1707733901721197</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1463599117553282</v>
+        <v>0.1458389918030098</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001505295534888228</v>
+        <v>-0.001814581227056717</v>
       </c>
       <c r="M266" t="n">
-        <v>0.4070897049308951</v>
+        <v>0.4279391229129873</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1460774812434488</v>
+        <v>0.1446168708812963</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001470082122145969</v>
+        <v>-0.001620809033645095</v>
       </c>
       <c r="P266" t="n">
-        <v>0.6653187032706007</v>
+        <v>0.6608902331168723</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1442146361674678</v>
+        <v>0.1417991173745275</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001286018450965125</v>
+        <v>-0.001351417352729101</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.06181110731525785</v>
+        <v>0.0604099393204597</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1480581869864486</v>
+        <v>0.143674825084678</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001568077450699017</v>
+        <v>-0.001687145998553408</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1796711559789561</v>
+        <v>0.17034823231518</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1471685300523189</v>
+        <v>0.1466447320892143</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001505295534888228</v>
+        <v>-0.001814581227056717</v>
       </c>
       <c r="M267" t="n">
-        <v>0.4066111255337677</v>
+        <v>0.4286027318202711</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1468845391508712</v>
+        <v>0.1454158591182095</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001470082122145969</v>
+        <v>-0.001620809033645095</v>
       </c>
       <c r="P267" t="n">
-        <v>0.6660899685084689</v>
+        <v>0.6611023844950906</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1450114021131444</v>
+        <v>0.1425825379125083</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001286018450965125</v>
+        <v>-0.001351417352729101</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06175404017683846</v>
+        <v>0.06023568780589843</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1488716935083522</v>
+        <v>0.1444642472005279</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001568077450699017</v>
+        <v>-0.001555846123101094</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1799531996135887</v>
+        <v>0.169953727331477</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1479771483493097</v>
+        <v>0.1474504723754187</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.001432175130049865</v>
+        <v>-0.001718830248080867</v>
       </c>
       <c r="M268" t="n">
-        <v>0.4061757930300379</v>
+        <v>0.4291021505121034</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1476915970582935</v>
+        <v>0.1462148473551227</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001368913399132668</v>
+        <v>-0.001565787189940363</v>
       </c>
       <c r="P268" t="n">
-        <v>0.6666893475589034</v>
+        <v>0.6614893775890444</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.145808168058821</v>
+        <v>0.1433659584504891</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001184714635824764</v>
+        <v>-0.001239549574511208</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06170494521944904</v>
+        <v>0.06001442490332626</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1496852000302557</v>
+        <v>0.1452536693163778</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001568077450699017</v>
+        <v>-0.001555535016097875</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1801695463210465</v>
+        <v>0.1695025668330807</v>
       </c>
       <c r="K269" t="n">
-        <v>0.1487857666463005</v>
+        <v>0.1482562126616232</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.001432175130049865</v>
+        <v>-0.001718830248080867</v>
       </c>
       <c r="M269" t="n">
-        <v>0.4057835668838906</v>
+        <v>0.4297843224442097</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1484986549657159</v>
+        <v>0.147013835592036</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001368913399132668</v>
+        <v>-0.001565787189940363</v>
       </c>
       <c r="P269" t="n">
-        <v>0.6673910701736333</v>
+        <v>0.6617776217046025</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1466049340044976</v>
+        <v>0.1441493789884699</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001184714635824764</v>
+        <v>-0.001239549574511208</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06166382180912491</v>
+        <v>0.05979625583480111</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1504987065521593</v>
+        <v>0.1460430914322277</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001568077450699017</v>
+        <v>-0.001555690569599485</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1803889652149369</v>
+        <v>0.1690176532922736</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1495943849432912</v>
+        <v>0.1490619529478277</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.001432175130049865</v>
+        <v>-0.001718830248080867</v>
       </c>
       <c r="M270" t="n">
-        <v>0.4053232455339059</v>
+        <v>0.4304753536984801</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1493057128731382</v>
+        <v>0.1478128238289492</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001368913399132668</v>
+        <v>-0.001565787189940363</v>
       </c>
       <c r="P270" t="n">
-        <v>0.6682865690669021</v>
+        <v>0.6618756465634033</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1474016999501742</v>
+        <v>0.1449327995264507</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001184714635824764</v>
+        <v>-0.001239549574511208</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.06160535447943441</v>
+        <v>0.05959784227087046</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1513122130740628</v>
+        <v>0.1468325135480776</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001568077450699017</v>
+        <v>-0.001555379462596265</v>
       </c>
       <c r="J271" t="n">
-        <v>0.180634382971385</v>
+        <v>0.1685654394693439</v>
       </c>
       <c r="K271" t="n">
-        <v>0.150403003240282</v>
+        <v>0.1498676932340322</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.001432175130049865</v>
+        <v>-0.001718830248080867</v>
       </c>
       <c r="M271" t="n">
-        <v>0.4048504366233227</v>
+        <v>0.4312330197691054</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1501127707805606</v>
+        <v>0.1486118120658625</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001368913399132668</v>
+        <v>-0.001521916267698485</v>
       </c>
       <c r="P271" t="n">
-        <v>0.6691000050166627</v>
+        <v>0.6620567003679013</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1481984658958509</v>
+        <v>0.1457162200644315</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001184714635824764</v>
+        <v>-0.001239549574511208</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06155488688598101</v>
+        <v>0.05936995671110126</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1521257195959664</v>
+        <v>0.1476219356639275</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001398425543826743</v>
+        <v>-0.001418887129557861</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1808826444893068</v>
+        <v>0.1681027665531771</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1512116215372727</v>
+        <v>0.1506734335202366</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001373431277241616</v>
+        <v>-0.001624813844376791</v>
       </c>
       <c r="M272" t="n">
-        <v>0.4043096992461523</v>
+        <v>0.4319989911017729</v>
       </c>
       <c r="N272" t="n">
-        <v>0.150919828687983</v>
+        <v>0.1494108003027757</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001266423395707896</v>
+        <v>-0.001521916267698485</v>
       </c>
       <c r="P272" t="n">
-        <v>0.6698305670255611</v>
+        <v>0.6620469655636182</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1489952318415275</v>
+        <v>0.1464996406024124</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001095452635494079</v>
+        <v>-0.001136944426898082</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.06152084602959122</v>
+        <v>0.05913762388609724</v>
       </c>
       <c r="G273" t="n">
-        <v>0.15293922611787</v>
+        <v>0.1484113577797773</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001398425543826743</v>
+        <v>-0.001419029018270817</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1811336116222501</v>
+        <v>0.1676521370701204</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1520202398342635</v>
+        <v>0.1514791738064411</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001373431277241616</v>
+        <v>-0.001624813844376791</v>
       </c>
       <c r="M273" t="n">
-        <v>0.403756553989068</v>
+        <v>0.4326563909555098</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1517268865954053</v>
+        <v>0.1502097885396889</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001266423395707896</v>
+        <v>-0.001521916267698485</v>
       </c>
       <c r="P273" t="n">
-        <v>0.6702933615305215</v>
+        <v>0.6622110342169556</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1497919977872041</v>
+        <v>0.1472830611403932</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001095452635494079</v>
+        <v>-0.001136944426898082</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06146952355488944</v>
+        <v>0.05890926520563454</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1537527326397735</v>
+        <v>0.1492007798956272</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001398425543826743</v>
+        <v>-0.001419170906983773</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1814565693099382</v>
+        <v>0.1671489926916928</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1528288581312543</v>
+        <v>0.1522849140926456</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001373431277241616</v>
+        <v>-0.001624813844376791</v>
       </c>
       <c r="M274" t="n">
-        <v>0.4034123153328412</v>
+        <v>0.4333211157814794</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1525339445028277</v>
+        <v>0.1510087767766022</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001266423395707896</v>
+        <v>-0.001521916267698485</v>
       </c>
       <c r="P274" t="n">
-        <v>0.6711319115912759</v>
+        <v>0.6625487743906129</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1505887637328807</v>
+        <v>0.148066481678374</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001095452635494079</v>
+        <v>-0.001136944426898082</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06140096434686741</v>
+        <v>0.05869320903084989</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1545662391616771</v>
+        <v>0.1499902020114771</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001398425543826743</v>
+        <v>-0.001419170906983773</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1817126100304243</v>
+        <v>0.1667243706819977</v>
       </c>
       <c r="K275" t="n">
-        <v>0.153637476428245</v>
+        <v>0.15309065437885</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001373431277241616</v>
+        <v>-0.001624813844376791</v>
       </c>
       <c r="M275" t="n">
-        <v>0.4028894045385993</v>
+        <v>0.434051226529778</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1533410024102501</v>
+        <v>0.1518077650135154</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001266423395707896</v>
+        <v>-0.001521916267698485</v>
       </c>
       <c r="P275" t="n">
-        <v>0.6719777635192064</v>
+        <v>0.6626950019734618</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1513855296785573</v>
+        <v>0.1488499022163548</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001095452635494079</v>
+        <v>-0.001136944426898082</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06134886389619809</v>
+        <v>0.05845707843479768</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1553797456835807</v>
+        <v>0.150779624127327</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001217451767708464</v>
+        <v>-0.001277286775004746</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1819477501582265</v>
+        <v>0.1662054669786594</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1544460947252358</v>
+        <v>0.1538963946650545</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001330815001708088</v>
+        <v>-0.001531302372305945</v>
       </c>
       <c r="M276" t="n">
-        <v>0.4021882821978751</v>
+        <v>0.4349050790724065</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1541480603176724</v>
+        <v>0.1526067532504286</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.00116261552863616</v>
+        <v>-0.001490009829504106</v>
       </c>
       <c r="P276" t="n">
-        <v>0.6725535283039891</v>
+        <v>0.6628319470300531</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.152182295624234</v>
+        <v>0.1496333227543356</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001019379067712956</v>
+        <v>-0.001044076165654168</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06132161232149005</v>
+        <v>0.05820936436216924</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1561932522054842</v>
+        <v>0.1515690462431768</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001217451767708464</v>
+        <v>-0.001277414516456392</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1822314288727551</v>
+        <v>0.1656798895051398</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1552547130222266</v>
+        <v>0.154702134951259</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001330815001708088</v>
+        <v>-0.001531302372305945</v>
       </c>
       <c r="M277" t="n">
-        <v>0.4017507879676637</v>
+        <v>0.4357070946379239</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1549551182250948</v>
+        <v>0.1534057414873419</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.00116261552863616</v>
+        <v>-0.001490009829504106</v>
       </c>
       <c r="P277" t="n">
-        <v>0.6734119680574243</v>
+        <v>0.6628680923628124</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1529790615699106</v>
+        <v>0.1504167432923164</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001019379067712956</v>
+        <v>-0.001044076165654168</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06126876415844962</v>
+        <v>0.05795846470901649</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1570067587273878</v>
+        <v>0.1523584683590267</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001217451767708464</v>
+        <v>-0.001277542257908038</v>
       </c>
       <c r="J278" t="n">
-        <v>0.182470685874686</v>
+        <v>0.1652129285744197</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1560633313192173</v>
+        <v>0.1555078752374635</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001330815001708088</v>
+        <v>-0.001531302372305945</v>
       </c>
       <c r="M278" t="n">
-        <v>0.401080060888214</v>
+        <v>0.4363980702834812</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1557621761325172</v>
+        <v>0.1542047297242551</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.00116261552863616</v>
+        <v>-0.001490009829504106</v>
       </c>
       <c r="P278" t="n">
-        <v>0.674368339886234</v>
+        <v>0.662985769434167</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1537758275155872</v>
+        <v>0.1512001638302972</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001019379067712956</v>
+        <v>-0.001044076165654168</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.06119877773809737</v>
+        <v>0.05772877859295802</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1578202652492914</v>
+        <v>0.1531478904748766</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001217451767708464</v>
+        <v>-0.001277286775004746</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1826884961340351</v>
+        <v>0.1646975321715112</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1568719496162081</v>
+        <v>0.1563136155236679</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001330815001708088</v>
+        <v>-0.001531302372305945</v>
       </c>
       <c r="M279" t="n">
-        <v>0.400617220829415</v>
+        <v>0.4370359161995843</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1565692340399396</v>
+        <v>0.1550037179611684</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.00116261552863616</v>
+        <v>-0.001490009829504106</v>
       </c>
       <c r="P279" t="n">
-        <v>0.674867304989145</v>
+        <v>0.6630934738115188</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1545725934612638</v>
+        <v>0.1519835843682781</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001019379067712956</v>
+        <v>-0.001044076165654168</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06113687326098799</v>
+        <v>0.05748823861683855</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1586337717711949</v>
+        <v>0.1539373125907265</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.001028228076232543</v>
+        <v>-0.001131383086305569</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1830244278211427</v>
+        <v>0.1641133333841139</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1576805679131988</v>
+        <v>0.1571193558098724</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.00130607732869389</v>
+        <v>-0.001438909835535308</v>
       </c>
       <c r="M280" t="n">
-        <v>0.4000865744084683</v>
+        <v>0.4379139822866117</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1573762919473619</v>
+        <v>0.1558027061980816</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001057493214681965</v>
+        <v>-0.001471631912078479</v>
       </c>
       <c r="P280" t="n">
-        <v>0.6759254121626274</v>
+        <v>0.6630996560320536</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1553693594069404</v>
+        <v>0.1527670049062589</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.0009576405502212789</v>
+        <v>-0.000961587387927185</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06110820671190115</v>
+        <v>0.05722117229379353</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1594472782930985</v>
+        <v>0.1547267347065764</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001028228076232543</v>
+        <v>-0.001131383086305569</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1832921469016418</v>
+        <v>0.1636110688044954</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1584891862101896</v>
+        <v>0.1579250960960769</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.00130607732869389</v>
+        <v>-0.001438909835535308</v>
       </c>
       <c r="M281" t="n">
-        <v>0.3993784079096722</v>
+        <v>0.4387385259719925</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1581833498547843</v>
+        <v>0.1566016944349948</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001057493214681965</v>
+        <v>-0.001471631912078479</v>
       </c>
       <c r="P281" t="n">
-        <v>0.6766169477382646</v>
+        <v>0.6634606986316128</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1561661253526171</v>
+        <v>0.1535504254442397</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.0009576405502212789</v>
+        <v>-0.000961587387927185</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06103730250314117</v>
+        <v>0.05697590005118322</v>
       </c>
       <c r="G282" t="n">
-        <v>0.160260784815002</v>
+        <v>0.1555161568224262</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001028228076232543</v>
+        <v>-0.001131722535176347</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1834912743300876</v>
+        <v>0.1630843044747268</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1592978045071804</v>
+        <v>0.1587308363822814</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.00130607732869389</v>
+        <v>-0.001438909835535308</v>
       </c>
       <c r="M282" t="n">
-        <v>0.3987127643648375</v>
+        <v>0.4395089711722565</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1589904077622067</v>
+        <v>0.1574006826719081</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001057493214681965</v>
+        <v>-0.001471631912078479</v>
       </c>
       <c r="P282" t="n">
-        <v>0.6772185661377471</v>
+        <v>0.6634457825712554</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1569628912982937</v>
+        <v>0.1543338459822205</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.0009576405502212789</v>
+        <v>-0.000961587387927185</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06098288175182645</v>
+        <v>0.05671270461322854</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1610742913369056</v>
+        <v>0.1563055789382761</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.0008793775805847929</v>
+        <v>-0.00102010872271043</v>
       </c>
       <c r="J283" t="n">
-        <v>0.18378507806618</v>
+        <v>0.1625551912558724</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1601064228041712</v>
+        <v>0.1595365766684858</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001300310257960259</v>
+        <v>-0.001370352928761497</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3981442688154135</v>
+        <v>0.4401657223504712</v>
       </c>
       <c r="N283" t="n">
-        <v>0.159797465669629</v>
+        <v>0.1581996709088213</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.0009777909288471015</v>
+        <v>-0.001467549542881028</v>
       </c>
       <c r="P283" t="n">
-        <v>0.6781006726874714</v>
+        <v>0.663419957074868</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1577596572439703</v>
+        <v>0.1551172665202013</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.000921433801089119</v>
+        <v>-0.0009073321159352492</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06093655628083025</v>
+        <v>0.05644783595607719</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1618877978588092</v>
+        <v>0.157095001054126</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.0008793775805847929</v>
+        <v>-0.001020312764859187</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1840333107907062</v>
+        <v>0.162024466534311</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1609150411011619</v>
+        <v>0.1603423169546903</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001300310257960259</v>
+        <v>-0.001370352928761497</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3974535302058879</v>
+        <v>0.4408852477252604</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1606045235770514</v>
+        <v>0.1589986591457345</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.0009777909288471015</v>
+        <v>-0.001467549542881028</v>
       </c>
       <c r="P284" t="n">
-        <v>0.6789847134526</v>
+        <v>0.6634743425026827</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1585564231896469</v>
+        <v>0.1559006870581821</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.000921433801089119</v>
+        <v>-0.0009073321159352492</v>
       </c>
     </row>
   </sheetData>

--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1070.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1070.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0007416084492957451</v>
+        <v>0.0007495827336967747</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0006902098438990104</v>
+        <v>0.0007495827336967747</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,37 +7591,37 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03290189061524618</v>
+        <v>0.03288954709308409</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001578844231699759</v>
+        <v>0.00157520884965392</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0640766719825903</v>
+        <v>0.06387135889972141</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001611480572408948</v>
+        <v>0.00160390685981345</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1742833228100785</v>
+        <v>0.1742262098589117</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001597976473826478</v>
+        <v>0.001616999510154271</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.3266415628705606</v>
+        <v>0.2852871020299403</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001958465161848927</v>
+        <v>0.001607008702996502</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03459716564376089</v>
+        <v>0.03456518731301105</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002368266347549638</v>
+        <v>0.002362813274480879</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.003573875797010106</v>
+        <v>-0.004576428359588253</v>
       </c>
       <c r="J88" t="n">
         <v>0.08742956320651361</v>
@@ -7658,25 +7658,25 @@
         <v>0.002647244730161812</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.002350604781813488</v>
+        <v>-0.004264905241145891</v>
       </c>
       <c r="M88" t="n">
         <v>0.2070355630385371</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002222959893173563</v>
+        <v>0.002246862687723815</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.002225618354819576</v>
+        <v>-0.002017453571928817</v>
       </c>
       <c r="P88" t="n">
-        <v>0.3347245667345865</v>
+        <v>0.3266415628705606</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002350261613942444</v>
+        <v>0.002126935283298297</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.002686612484396085</v>
+        <v>-0.001226729843940711</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03614051502134639</v>
+        <v>0.03611271935640516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003157688463399518</v>
+        <v>0.003150417699307839</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.003573875797010106</v>
+        <v>-0.00457734364526017</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09047990314996836</v>
+        <v>0.09033757264465093</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003222961144817896</v>
+        <v>0.003207813719626899</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.002350604781813488</v>
+        <v>-0.004264905241145891</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2192003741593872</v>
+        <v>0.220302854848821</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003195952947652956</v>
+        <v>0.003233999020308542</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.002225618354819576</v>
+        <v>-0.002017453571928817</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3499453811890971</v>
+        <v>0.3494008550657215</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003133682151923259</v>
+        <v>0.003214017405993005</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.002686612484396085</v>
+        <v>-0.001226729843940711</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.03755128221523892</v>
+        <v>0.03751707699022758</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003947110579249397</v>
+        <v>0.003938022124134799</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.003574590572169508</v>
+        <v>-0.004575970716752294</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09452187701223887</v>
+        <v>0.09420719238681315</v>
       </c>
       <c r="K90" t="n">
-        <v>0.00402870143102237</v>
+        <v>0.004009767149533624</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.002350604781813488</v>
+        <v>-0.004264905241145891</v>
       </c>
       <c r="M90" t="n">
-        <v>0.228518585088043</v>
+        <v>0.2300892765864347</v>
       </c>
       <c r="N90" t="n">
-        <v>0.003994941184566195</v>
+        <v>0.004042498775385677</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.002225618354819576</v>
+        <v>-0.002017453571928817</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3641546234613349</v>
+        <v>0.364835318964488</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.003917102689904074</v>
+        <v>0.004017521757491256</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.002686612484396085</v>
+        <v>-0.001226729843940711</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.03881912079118401</v>
+        <v>0.03876708191236452</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004736532695099276</v>
+        <v>0.004725626548961759</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.003574233184589807</v>
+        <v>-0.00457734364526017</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09827276055581226</v>
+        <v>0.09777224653489415</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004834441717226844</v>
+        <v>0.004811720579440348</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.002350604781813488</v>
+        <v>-0.004264905241145891</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2370283837693414</v>
+        <v>0.2391331359109974</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004793929421479434</v>
+        <v>0.004850998530462812</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.002225618354819576</v>
+        <v>-0.002017453571928817</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3772249170065151</v>
+        <v>0.378735086081331</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004700523227884888</v>
+        <v>0.004821026108989507</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.002686612484396085</v>
+        <v>-0.001226729843940711</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03995732234758134</v>
+        <v>0.03993175362305947</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005525954810949156</v>
+        <v>0.005513230973788719</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.003292111190927253</v>
+        <v>-0.004545242009452892</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1017158129711826</v>
+        <v>0.1010638098581368</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005640182003431317</v>
+        <v>0.005613674009347073</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.002332804733956771</v>
+        <v>-0.004258163942763712</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2448746757549736</v>
+        <v>0.2471749861090576</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005592917658392673</v>
+        <v>0.005659498285539948</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.002655891537005216</v>
+        <v>-0.002289200049873481</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3892049605438013</v>
+        <v>0.3914769698829341</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005483943765865703</v>
+        <v>0.005624530460487759</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.002648970199101989</v>
+        <v>-0.001305865238536178</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04101161758148013</v>
+        <v>0.04095707794738998</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006315376926799035</v>
+        <v>0.006300835398615679</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.003291452834524708</v>
+        <v>-0.004543878709510045</v>
       </c>
       <c r="J93" t="n">
-        <v>0.104924689734328</v>
+        <v>0.104037139970532</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006445922289635792</v>
+        <v>0.006415627439253798</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.002332804733956771</v>
+        <v>-0.004258163942763712</v>
       </c>
       <c r="M93" t="n">
-        <v>0.251970992049313</v>
+        <v>0.2546181593228373</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006391905895305912</v>
+        <v>0.006467998040617083</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.002655891537005216</v>
+        <v>-0.002289200049873481</v>
       </c>
       <c r="P93" t="n">
-        <v>0.4002741258931759</v>
+        <v>0.403137307395761</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006267364303846517</v>
+        <v>0.00642803481198601</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.002648970199101989</v>
+        <v>-0.001305865238536178</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04193945263553511</v>
+        <v>0.04188191340357984</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007104799042648914</v>
+        <v>0.007088439823442639</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.003292440369128526</v>
+        <v>-0.004544333142824327</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1078833498236898</v>
+        <v>0.1067840510988313</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007251662575840265</v>
+        <v>0.007217580869160523</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.002332804733956771</v>
+        <v>-0.004258163942763712</v>
       </c>
       <c r="M94" t="n">
-        <v>0.258672413933458</v>
+        <v>0.2612752829686729</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007190894132219151</v>
+        <v>0.007276497795694219</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.002655891537005216</v>
+        <v>-0.002289200049873481</v>
       </c>
       <c r="P94" t="n">
-        <v>0.4106204568779273</v>
+        <v>0.4134599989311896</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007050784841827333</v>
+        <v>0.007231539163484261</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.002648970199101989</v>
+        <v>-0.001305865238536178</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04275428905635949</v>
+        <v>0.04269464149989248</v>
       </c>
       <c r="G95" t="n">
-        <v>0.007894221158498794</v>
+        <v>0.007876044248269598</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.002872453811613597</v>
+        <v>-0.004543878709510045</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1105732978311104</v>
+        <v>0.1092903063343554</v>
       </c>
       <c r="K95" t="n">
-        <v>0.008057402862044739</v>
+        <v>0.008019534299067248</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.002332804733956771</v>
+        <v>-0.004258163942763712</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2646494478860212</v>
+        <v>0.2674019439975438</v>
       </c>
       <c r="N95" t="n">
-        <v>0.00798988236913239</v>
+        <v>0.008084997550771354</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.002655891537005216</v>
+        <v>-0.002289200049873481</v>
       </c>
       <c r="P95" t="n">
-        <v>0.4198360876041352</v>
+        <v>0.4230442654789349</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.007834205379808147</v>
+        <v>0.008035043514982512</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.002648970199101989</v>
+        <v>-0.001305865238536178</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04350318676728251</v>
+        <v>0.04343566748879771</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008683643274348674</v>
+        <v>0.008663648673096559</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.002871879435726451</v>
+        <v>-0.004489722485109023</v>
       </c>
       <c r="J96" t="n">
-        <v>0.113055577834816</v>
+        <v>0.1115557183015034</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008863143148249214</v>
+        <v>0.008821487728973973</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.00229532227794776</v>
+        <v>-0.004242457178333776</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2702234193034634</v>
+        <v>0.2728002739577146</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008788870606045629</v>
+        <v>0.008893497305848491</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.002994727321666262</v>
+        <v>-0.002463438714920303</v>
       </c>
       <c r="P96" t="n">
-        <v>0.4283018627437644</v>
+        <v>0.4315647848409762</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008617625917788961</v>
+        <v>0.008838547866480764</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.002582834730686046</v>
+        <v>-0.001459201188322337</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.04413450611328062</v>
+        <v>0.04410000049283387</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009473065390198552</v>
+        <v>0.009451253097923518</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.002871879435726451</v>
+        <v>-0.004490620519409475</v>
       </c>
       <c r="J97" t="n">
-        <v>0.11534462435745</v>
+        <v>0.1136447283748698</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009668883434453688</v>
+        <v>0.009623441158880697</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.00229532227794776</v>
+        <v>-0.004242457178333776</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2752206589739009</v>
+        <v>0.2776873470880796</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009587858842958869</v>
+        <v>0.009701997060925624</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.002994727321666262</v>
+        <v>-0.002463438714920303</v>
       </c>
       <c r="P97" t="n">
-        <v>0.4360729573701564</v>
+        <v>0.4395027728603592</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009401046455769776</v>
+        <v>0.009642052217979015</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.002582834730686046</v>
+        <v>-0.001459201188322337</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0447090712431555</v>
+        <v>0.04467530390993067</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01026248750604843</v>
+        <v>0.01023885752275048</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.002872166623670024</v>
+        <v>-0.004489722485109023</v>
       </c>
       <c r="J98" t="n">
-        <v>0.117421271254154</v>
+        <v>0.1155413872872363</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01047462372065816</v>
+        <v>0.01042539458878742</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.00229532227794776</v>
+        <v>-0.004242457178333776</v>
       </c>
       <c r="M98" t="n">
-        <v>0.279801358047188</v>
+        <v>0.2820721619028819</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01038684707987211</v>
+        <v>0.01051049681600276</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.002994727321666262</v>
+        <v>-0.002463438714920303</v>
       </c>
       <c r="P98" t="n">
-        <v>0.442857635698809</v>
+        <v>0.4462429897940831</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01018446699375059</v>
+        <v>0.01044555656947727</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.002582834730686046</v>
+        <v>-0.001459201188322337</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04522154791895229</v>
+        <v>0.04517576963718804</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01105190962189831</v>
+        <v>0.01102646194757744</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.002871879435726451</v>
+        <v>-0.004490620519409475</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1193155123654222</v>
+        <v>0.1172616102205763</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01128036400686263</v>
+        <v>0.01122734801869415</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.00229532227794776</v>
+        <v>-0.004242457178333776</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2840010184072982</v>
+        <v>0.2859618523918686</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01118583531678535</v>
+        <v>0.0113189965710799</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.002994727321666262</v>
+        <v>-0.002463438714920303</v>
       </c>
       <c r="P99" t="n">
-        <v>0.4493300649500627</v>
+        <v>0.45268912172908</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01096788753173141</v>
+        <v>0.01124906092097552</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.002500717164470905</v>
+        <v>-0.001459201188322337</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04565928345927489</v>
+        <v>0.04560900846969934</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01184133173774819</v>
+        <v>0.0118140663724044</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.002407306226503261</v>
+        <v>-0.004421485093385484</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1209897355534869</v>
+        <v>0.1188044416760339</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01208610429306711</v>
+        <v>0.01202930144860087</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.002246123229048442</v>
+        <v>-0.004219106884909735</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2878111173408943</v>
+        <v>0.2896258623169063</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01198482355369858</v>
+        <v>0.01212749632615703</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.003250110934856752</v>
+        <v>-0.002577928212741932</v>
       </c>
       <c r="P100" t="n">
-        <v>0.4550585257221019</v>
+        <v>0.4581453730753265</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01175130806971222</v>
+        <v>0.01205256527247377</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.002500717164470905</v>
+        <v>-0.001665237791641279</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04605730147540056</v>
+        <v>0.04600329619549766</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01263075385359807</v>
+        <v>0.01260167079723136</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.002407065495880611</v>
+        <v>-0.004421485093385484</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1225770214797686</v>
+        <v>0.1201683734683063</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01289184457927158</v>
+        <v>0.0128312548785076</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.002246123229048442</v>
+        <v>-0.004219106884909735</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2911333188731972</v>
+        <v>0.292720401804319</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01278381179061182</v>
+        <v>0.01293599608123417</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.003250110934856752</v>
+        <v>-0.002577928212741932</v>
       </c>
       <c r="P101" t="n">
-        <v>0.4603052500545867</v>
+        <v>0.4632467221460657</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01253472860769303</v>
+        <v>0.01285606962397202</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.002500717164470905</v>
+        <v>-0.001665237791641279</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.046402816686743</v>
+        <v>0.04636661349291797</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01342017596944795</v>
+        <v>0.01338927522205832</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.002407065495880611</v>
+        <v>-0.004421485093385484</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1239884983479637</v>
+        <v>0.121437192188947</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01369758486547606</v>
+        <v>0.01363320830841432</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.002246123229048442</v>
+        <v>-0.004219106884909735</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2943098605175883</v>
+        <v>0.2956035287072764</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01358280002752506</v>
+        <v>0.0137444958363113</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.003250110934856752</v>
+        <v>-0.002577928212741932</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4649813031480829</v>
+        <v>0.4677112069409872</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01331814914567385</v>
+        <v>0.01365957397547027</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.002500717164470905</v>
+        <v>-0.001665237791641279</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04672431317591277</v>
+        <v>0.04667911428966175</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01420959808529783</v>
+        <v>0.01417687964688528</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.002407065495880611</v>
+        <v>-0.004342195826501693</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1253071557870457</v>
+        <v>0.122575854201045</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01450332515168053</v>
+        <v>0.01443516173832105</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.002246123229048442</v>
+        <v>-0.004219106884909735</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2971548733076902</v>
+        <v>0.2982380699698743</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0143817882644383</v>
+        <v>0.01455299559138844</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.003250110934856752</v>
+        <v>-0.002577928212741932</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4690660061987901</v>
+        <v>0.4718974629529884</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01410156968365467</v>
+        <v>0.01446307832696852</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.002500717164470905</v>
+        <v>-0.001665237791641279</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04698087324571372</v>
+        <v>0.04695532597479996</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01499902020114771</v>
+        <v>0.01496448407171224</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.001992810097693024</v>
+        <v>-0.004342630002666726</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1264768297550808</v>
+        <v>0.123634742039877</v>
       </c>
       <c r="K104" t="n">
-        <v>0.015309065437885</v>
+        <v>0.01523711516822777</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.002196112338316862</v>
+        <v>-0.004189016056045288</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2996116428780437</v>
+        <v>0.3007648950791783</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01518077650135154</v>
+        <v>0.01536149534646557</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.003431222684959027</v>
+        <v>-0.002671703211329239</v>
       </c>
       <c r="P104" t="n">
-        <v>0.4728265647487855</v>
+        <v>0.4755175663884141</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01488499022163548</v>
+        <v>0.01526658267846677</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.002417967654374784</v>
+        <v>-0.00190162080660728</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04723585462626541</v>
+        <v>0.04720991265076052</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01578844231699759</v>
+        <v>0.0157520884965392</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.001992810097693024</v>
+        <v>-0.004342630002666726</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1275637982057559</v>
+        <v>0.124647606229834</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01611480572408948</v>
+        <v>0.0160390685981345</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.002196112338316862</v>
+        <v>-0.004189016056045288</v>
       </c>
       <c r="M105" t="n">
-        <v>0.3019833033091478</v>
+        <v>0.3030549265808958</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01597976473826478</v>
+        <v>0.01616999510154271</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.003431222684959027</v>
+        <v>-0.002671703211329239</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4763168669065109</v>
+        <v>0.4790053343882641</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01566841075961629</v>
+        <v>0.01607008702996502</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.002417967654374784</v>
+        <v>-0.00190162080660728</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04749020822157206</v>
+        <v>0.0474646690912197</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01657786443284747</v>
+        <v>0.01653969292136616</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.001992212374208414</v>
+        <v>-0.004342630002666726</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1285642162304429</v>
+        <v>0.1255431912190753</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01692054601029395</v>
+        <v>0.01684102202804122</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.002196112338316862</v>
+        <v>-0.004189016056045288</v>
       </c>
       <c r="M106" t="n">
-        <v>0.3041243955116881</v>
+        <v>0.3051575252659151</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01677875297517802</v>
+        <v>0.01697849485661984</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.003431222684959027</v>
+        <v>-0.002671703211329239</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4795905849370673</v>
+        <v>0.4825086036292521</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01645183129759711</v>
+        <v>0.01687359138146328</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.002417967654374784</v>
+        <v>-0.00190162080660728</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04773067287754001</v>
+        <v>0.04769929567693136</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01736728654869735</v>
+        <v>0.01732729734619312</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.001992212374208414</v>
+        <v>-0.004341327474171625</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1295456225522747</v>
+        <v>0.1264248617953461</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01772628629649843</v>
+        <v>0.01764297545794795</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.002196112338316862</v>
+        <v>-0.004189016056045288</v>
       </c>
       <c r="M107" t="n">
-        <v>0.3060684047590471</v>
+        <v>0.3073050693174798</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01757774121209126</v>
+        <v>0.01778699461169698</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.003431222684959027</v>
+        <v>-0.002782256693233472</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4824814614722004</v>
+        <v>0.4856613955745495</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01723525183557792</v>
+        <v>0.01767709573296153</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.002417967654374784</v>
+        <v>-0.00190162080660728</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04794370736865046</v>
+        <v>0.04794967652895384</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01815670866454723</v>
+        <v>0.01811490177102008</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.001718999796381293</v>
+        <v>-0.004256739233166832</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1303601442296547</v>
+        <v>0.1272736502304687</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0185320265827029</v>
+        <v>0.01844492888785467</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.002152150320940851</v>
+        <v>-0.004154763459293955</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3079404884733757</v>
+        <v>0.3094577004038877</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01837672944900449</v>
+        <v>0.01859549436677411</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.003544980382301755</v>
+        <v>-0.002782256693233472</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4854080604000073</v>
+        <v>0.4886810878176521</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01801867237355874</v>
+        <v>0.01848060008445978</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.002347673200846227</v>
+        <v>-0.002145281990238755</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04820063412511309</v>
+        <v>0.04819531559149803</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0189461307803971</v>
+        <v>0.01890250619584704</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.001718827930774776</v>
+        <v>-0.004255888055555721</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1312373861618606</v>
+        <v>0.1280343003706009</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01933776686890738</v>
+        <v>0.01924688231776139</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.002152150320940851</v>
+        <v>-0.004154763459293955</v>
       </c>
       <c r="M109" t="n">
-        <v>0.3097293662927296</v>
+        <v>0.3117123196754855</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01917571768591774</v>
+        <v>0.01940399412185125</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.003544980382301755</v>
+        <v>-0.002782256693233472</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4879088417530534</v>
+        <v>0.4916392633398249</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01880209291153955</v>
+        <v>0.01928410443595803</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.002347673200846227</v>
+        <v>-0.002145281990238755</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04845971913445607</v>
+        <v>0.04847229474967572</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01973555289624698</v>
+        <v>0.019690110620674</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.001718656065168259</v>
+        <v>-0.004255462466750165</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1320286978981525</v>
+        <v>0.128847013368826</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02014350715511185</v>
+        <v>0.02004883574766812</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.002152150320940851</v>
+        <v>-0.004154763459293955</v>
       </c>
       <c r="M110" t="n">
-        <v>0.311515312670501</v>
+        <v>0.3140739580537598</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01997470592283097</v>
+        <v>0.02021249387692839</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.003544980382301755</v>
+        <v>-0.002782256693233472</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4904776260547333</v>
+        <v>0.4949799063661137</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.01958551344952037</v>
+        <v>0.02008760878745628</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.002347673200846227</v>
+        <v>-0.002145281990238755</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04873570153364994</v>
+        <v>0.04875991266148777</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02052497501209686</v>
+        <v>0.02047771504550095</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.001718656065168259</v>
+        <v>-0.004256739233166832</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1328018828062483</v>
+        <v>0.1297105244903807</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02094924744131632</v>
+        <v>0.02085078917757485</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.002152150320940851</v>
+        <v>-0.004154763459293955</v>
       </c>
       <c r="M111" t="n">
-        <v>0.3131940143937806</v>
+        <v>0.3165467519148212</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02077369415974421</v>
+        <v>0.02102099363200552</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.003544980382301755</v>
+        <v>-0.002782256693233472</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4930199662068848</v>
+        <v>0.4981808452950433</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02036893398750118</v>
+        <v>0.02089111313895453</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.002347673200846227</v>
+        <v>-0.002145281990238755</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04906146133681004</v>
+        <v>0.04910884271875157</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02131439712794674</v>
+        <v>0.02126531947032792</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.001669402716378688</v>
+        <v>-0.004169862530820685</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1335706307992511</v>
+        <v>0.1305329864170909</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0217549877275208</v>
+        <v>0.02165274260748157</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.002124633885787252</v>
+        <v>-0.004117237484049766</v>
       </c>
       <c r="M112" t="n">
-        <v>0.3148915459451368</v>
+        <v>0.3190868724201833</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02157268239665745</v>
+        <v>0.02182949338708266</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.003598483604024993</v>
+        <v>-0.002949277881661778</v>
       </c>
       <c r="P112" t="n">
-        <v>0.495663048321567</v>
+        <v>0.501761516469547</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.021152354525482</v>
+        <v>0.02169461749045278</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.002303494063759254</v>
+        <v>-0.002375799563532115</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04935984387361739</v>
+        <v>0.04944606591594865</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02210381924379662</v>
+        <v>0.02205292389515488</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.001669068902598168</v>
+        <v>-0.004170696586732441</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1343486317902644</v>
+        <v>0.1314744741627701</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02256072801372527</v>
+        <v>0.02245469603738829</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.002124633885787252</v>
+        <v>-0.004117237484049766</v>
       </c>
       <c r="M113" t="n">
-        <v>0.3166886958198</v>
+        <v>0.3220362172939257</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02237167063357069</v>
+        <v>0.02263799314215979</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.003598483604024993</v>
+        <v>-0.002949277881661778</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4984602864788162</v>
+        <v>0.5057459066861368</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02193577506346281</v>
+        <v>0.02249812184195104</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.002303494063759254</v>
+        <v>-0.002375799563532115</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04967389817792683</v>
+        <v>0.04979339406610747</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0228932413596465</v>
+        <v>0.02284052831998183</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.001669068902598168</v>
+        <v>-0.004169862530820685</v>
       </c>
       <c r="J114" t="n">
-        <v>0.135131064437073</v>
+        <v>0.1324243860728277</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02336646829992975</v>
+        <v>0.02325664946729502</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002124633885787252</v>
+        <v>-0.004117237484049766</v>
       </c>
       <c r="M114" t="n">
-        <v>0.3187138547796201</v>
+        <v>0.3248215909154147</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02317065887048393</v>
+        <v>0.02344649289723693</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.003598483604024993</v>
+        <v>-0.002949277881661778</v>
       </c>
       <c r="P114" t="n">
-        <v>0.5011647377641977</v>
+        <v>0.5095501185124524</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02271919560144363</v>
+        <v>0.02330162619344929</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.002303494063759254</v>
+        <v>-0.002375799563532115</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.04996757766206565</v>
+        <v>0.0501144787027592</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02368266347549638</v>
+        <v>0.02362813274480879</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.001669235809488428</v>
+        <v>-0.004169862530820685</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1359313674300072</v>
+        <v>0.1334347006130068</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02417220858613421</v>
+        <v>0.02405860289720175</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002124633885787252</v>
+        <v>-0.004061694867752222</v>
       </c>
       <c r="M115" t="n">
-        <v>0.3207205767664248</v>
+        <v>0.3275710423490496</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02396964710739717</v>
+        <v>0.02425499265231406</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.003598483604024993</v>
+        <v>-0.002949277881661778</v>
       </c>
       <c r="P115" t="n">
-        <v>0.5041280920020904</v>
+        <v>0.513269851139907</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02350261613942444</v>
+        <v>0.02410513054494753</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.002303494063759254</v>
+        <v>-0.002375799563532115</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05025535651866266</v>
+        <v>0.05044551789890515</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02447208559134626</v>
+        <v>0.02441573716963575</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.001780284879032793</v>
+        <v>-0.004046735292463018</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1368637386314523</v>
+        <v>0.1344888269459475</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02497794887233869</v>
+        <v>0.02486055632710847</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002125369623066667</v>
+        <v>-0.004061694867752222</v>
       </c>
       <c r="M116" t="n">
-        <v>0.3226553276832868</v>
+        <v>0.3303312181119235</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02476863534431041</v>
+        <v>0.0250634924073912</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.0036018821257249</v>
+        <v>-0.003184470868049963</v>
       </c>
       <c r="P116" t="n">
-        <v>0.5072361675769568</v>
+        <v>0.5168297549490495</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02428603667740526</v>
+        <v>0.02490863489644579</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.002295984914262861</v>
+        <v>-0.002644888566642291</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05054461534274032</v>
+        <v>0.05077924686466323</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02526150770719614</v>
+        <v>0.02520334159446272</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.001780640971617858</v>
+        <v>-0.004047139965992264</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1377099362846048</v>
+        <v>0.1355044933311341</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02578368915854317</v>
+        <v>0.02566250975701519</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002125369623066667</v>
+        <v>-0.004061694867752222</v>
       </c>
       <c r="M117" t="n">
-        <v>0.3247613609816139</v>
+        <v>0.3331498541972506</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02556762358122365</v>
+        <v>0.02587199216246833</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.0036018821257249</v>
+        <v>-0.003184470868049963</v>
       </c>
       <c r="P117" t="n">
-        <v>0.5103439153699569</v>
+        <v>0.5203071353876468</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02506945721538607</v>
+        <v>0.02571213924794404</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.002295984914262861</v>
+        <v>-0.002644888566642291</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05084284812675241</v>
+        <v>0.05110826652878302</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02605092982304602</v>
+        <v>0.02599094601928967</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.001780462925325326</v>
+        <v>-0.004046735292463018</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1385554812682336</v>
+        <v>0.1364258555466997</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02658942944474764</v>
+        <v>0.02646446318692192</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002125369623066667</v>
+        <v>-0.004061694867752222</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3267553543017869</v>
+        <v>0.3357842659486974</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02636661181813689</v>
+        <v>0.02668049191754547</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.0036018821257249</v>
+        <v>-0.003184470868049963</v>
       </c>
       <c r="P118" t="n">
-        <v>0.5132125229590822</v>
+        <v>0.5240128932016985</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02585287775336689</v>
+        <v>0.02651564359944229</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.002295984914262861</v>
+        <v>-0.002644888566642291</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05110593959692589</v>
+        <v>0.0514250482028704</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0268403519388959</v>
+        <v>0.02677855044411663</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.001780819017910391</v>
+        <v>-0.004047544639521511</v>
       </c>
       <c r="J119" t="n">
-        <v>0.13938199849521</v>
+        <v>0.1374020745940422</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02739516973095211</v>
+        <v>0.02726641661682865</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002125369623066667</v>
+        <v>-0.003950218890269146</v>
       </c>
       <c r="M119" t="n">
-        <v>0.3286390829085717</v>
+        <v>0.3384260194583479</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02716560005505012</v>
+        <v>0.0274889916726226</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.0036018821257249</v>
+        <v>-0.003184470868049963</v>
       </c>
       <c r="P119" t="n">
-        <v>0.5159193510460172</v>
+        <v>0.5274083820751357</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.0266362982913477</v>
+        <v>0.02731914795094054</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.002295984914262861</v>
+        <v>-0.002644888566642291</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05140034479141306</v>
+        <v>0.05171448946573544</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02762977405474578</v>
+        <v>0.0275661548689436</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.002003164343504402</v>
+        <v>-0.003883167708861586</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1401517613600534</v>
+        <v>0.1383593519444608</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02820091001715659</v>
+        <v>0.02806837004673537</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.002188572293554747</v>
+        <v>-0.003950218890269146</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3304143602108298</v>
+        <v>0.3410254022750653</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02796458829196336</v>
+        <v>0.02829749142769974</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.003565478807311779</v>
+        <v>-0.003467078281043582</v>
       </c>
       <c r="P120" t="n">
-        <v>0.5187736029818641</v>
+        <v>0.5304918797684375</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02741971882932852</v>
+        <v>0.02812265230243879</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.002296275294792897</v>
+        <v>-0.002976863676295919</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05164465164475449</v>
+        <v>0.05202108290288862</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02841919617059566</v>
+        <v>0.02835375929377056</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.002002563514367177</v>
+        <v>-0.003882002991492401</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1409791798800336</v>
+        <v>0.1392791501644809</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02900665030336106</v>
+        <v>0.02887032347664209</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.002188572293554747</v>
+        <v>-0.003950218890269146</v>
       </c>
       <c r="M121" t="n">
-        <v>0.3320830353833432</v>
+        <v>0.3436303702033273</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0287635765288766</v>
+        <v>0.02910599118277687</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.003565478807311779</v>
+        <v>-0.003467078281043582</v>
       </c>
       <c r="P121" t="n">
-        <v>0.5216259627726917</v>
+        <v>0.5338104706199307</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02820313936730933</v>
+        <v>0.02892615665393704</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.002296275294792897</v>
+        <v>-0.002976863676295919</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05190564521088598</v>
+        <v>0.05233748525436153</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02920861828644554</v>
+        <v>0.02914136371859752</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.002002763790746252</v>
+        <v>-0.003882002991492401</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1417504591382948</v>
+        <v>0.1401615875917067</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02981239058956554</v>
+        <v>0.02967227690654882</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002188572293554747</v>
+        <v>-0.003950218890269146</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3337921431467963</v>
+        <v>0.3460914466427707</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02956256476578984</v>
+        <v>0.02991449093785401</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.003565478807311779</v>
+        <v>-0.003467078281043582</v>
       </c>
       <c r="P122" t="n">
-        <v>0.5242474676208259</v>
+        <v>0.5370545638716392</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02898655990529015</v>
+        <v>0.02972966100543529</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.002296275294792897</v>
+        <v>-0.002976863676295919</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05216112626894946</v>
+        <v>0.05263360714266101</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02999804040229541</v>
+        <v>0.02992896814342447</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.002002964067125327</v>
+        <v>-0.003882391230615463</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1425231893099688</v>
+        <v>0.1410641069913199</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03061813087577001</v>
+        <v>0.03047423033645554</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.002188572293554747</v>
+        <v>-0.003950218890269146</v>
       </c>
       <c r="M123" t="n">
-        <v>0.335496537829064</v>
+        <v>0.3486051591306538</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03036155300270308</v>
+        <v>0.03072299069293115</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.003565478807311779</v>
+        <v>-0.003467078281043582</v>
       </c>
       <c r="P123" t="n">
-        <v>0.5267943748257858</v>
+        <v>0.5399884502343767</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.02976998044327096</v>
+        <v>0.03053316535693355</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.002296275294792897</v>
+        <v>-0.002976863676295919</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05241114166678537</v>
+        <v>0.05291673000377621</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0307874625181453</v>
+        <v>0.03071657256825143</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.002311622286832328</v>
+        <v>-0.003687653018162937</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1432206104765035</v>
+        <v>0.1419300541759471</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03142387116197448</v>
+        <v>0.03127618376636226</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.002311923066098122</v>
+        <v>-0.00379146735666977</v>
       </c>
       <c r="M124" t="n">
-        <v>0.337052948407605</v>
+        <v>0.3509210835598857</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03116054123961632</v>
+        <v>0.03153149044800828</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.003499691812765244</v>
+        <v>-0.003776422944491609</v>
       </c>
       <c r="P124" t="n">
-        <v>0.5292691869664939</v>
+        <v>0.5431658845854369</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03055340098125178</v>
+        <v>0.0313366697084318</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.002295942566442989</v>
+        <v>-0.003347681659233222</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05267082451816096</v>
+        <v>0.05319425588261058</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03157688463399518</v>
+        <v>0.03150417699307839</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.002311391147717557</v>
+        <v>-0.003687653018162937</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1439587417789602</v>
+        <v>0.142740287680524</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03222961144817896</v>
+        <v>0.03207813719626899</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.002311923066098122</v>
+        <v>-0.00379146735666977</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3386094017825756</v>
+        <v>0.3532873418114598</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03195952947652956</v>
+        <v>0.03233999020308542</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.003499691812765244</v>
+        <v>-0.003776422944491609</v>
       </c>
       <c r="P125" t="n">
-        <v>0.5315962548115734</v>
+        <v>0.545954952895405</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03133682151923259</v>
+        <v>0.03214017405993005</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.002295942566442989</v>
+        <v>-0.003347681659233222</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0529025299309541</v>
+        <v>0.0534965768155323</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03236630674984505</v>
+        <v>0.03229178141790535</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.0023118534259471</v>
+        <v>-0.003688390548766569</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1446801402363653</v>
+        <v>0.1436302166819754</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03303535173438343</v>
+        <v>0.03288009062617572</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.002311923066098122</v>
+        <v>-0.00379146735666977</v>
       </c>
       <c r="M126" t="n">
-        <v>0.3402177599876233</v>
+        <v>0.3556028206681529</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03275851771344279</v>
+        <v>0.03314848995816255</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.003499691812765244</v>
+        <v>-0.003776422944491609</v>
       </c>
       <c r="P126" t="n">
-        <v>0.5340125363708469</v>
+        <v>0.5489926227455307</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.0321202420572134</v>
+        <v>0.0329436784114283</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.002295942566442989</v>
+        <v>-0.003347681659233222</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05315163372765473</v>
+        <v>0.05374739050057667</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03315572886569493</v>
+        <v>0.03307938584273231</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.002311391147717557</v>
+        <v>-0.003688021783464753</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1453460430963753</v>
+        <v>0.1443876208691933</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0338410920205879</v>
+        <v>0.03368204405608244</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.002311923066098122</v>
+        <v>-0.00379146735666977</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3417337903546662</v>
+        <v>0.3579677013553954</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03355750595035604</v>
+        <v>0.03395698971323969</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.003413952641379977</v>
+        <v>-0.003776422944491609</v>
       </c>
       <c r="P127" t="n">
-        <v>0.5360502401364304</v>
+        <v>0.5516422622711445</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03290366259519422</v>
+        <v>0.03374718276292656</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.002295942566442989</v>
+        <v>-0.003347681659233222</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05336509692717911</v>
+        <v>0.05403824927074548</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03394515098154481</v>
+        <v>0.03386699026755927</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.002684326128113942</v>
+        <v>-0.003475235363144186</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1459759511626518</v>
+        <v>0.1452456887950158</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03464683230679238</v>
+        <v>0.03448399748598916</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.002479389548367459</v>
+        <v>-0.003595194811987956</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3430115001514441</v>
+        <v>0.3601268442553109</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03435649418726928</v>
+        <v>0.03476548946831683</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.003413952641379977</v>
+        <v>-0.004087419602472956</v>
       </c>
       <c r="P128" t="n">
-        <v>0.5383398684915683</v>
+        <v>0.5545454452002688</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03368708313317503</v>
+        <v>0.0345506871144248</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.002296824066125913</v>
+        <v>-0.003736934062038803</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05358850908269888</v>
+        <v>0.05429246764373669</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03473457309739469</v>
+        <v>0.03465459469238624</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.002684594560726753</v>
+        <v>-0.003475930479728473</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1466486403306</v>
+        <v>0.1459906503022935</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03545257259299685</v>
+        <v>0.03528595091589589</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.002479389548367459</v>
+        <v>-0.003595194811987956</v>
       </c>
       <c r="M129" t="n">
-        <v>0.3443977054850776</v>
+        <v>0.3623842438401637</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03515548242418252</v>
+        <v>0.03557398922339396</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.003413952641379977</v>
+        <v>-0.004087419602472956</v>
       </c>
       <c r="P129" t="n">
-        <v>0.5405703628371877</v>
+        <v>0.5571417572525127</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03447050367115585</v>
+        <v>0.03535419146592306</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.002296824066125913</v>
+        <v>-0.003736934062038803</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05380673614652438</v>
+        <v>0.05454827811121365</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03552399521324457</v>
+        <v>0.03544219911721319</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.002684594560726753</v>
+        <v>-0.003476278038020617</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1473255440207758</v>
+        <v>0.146779140281576</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03625831287920132</v>
+        <v>0.03608790434580261</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.002479389548367459</v>
+        <v>-0.003595194811987956</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3458960327173986</v>
+        <v>0.3643803370497651</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03595447066109575</v>
+        <v>0.03638248897847109</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.003413952641379977</v>
+        <v>-0.004087419602472956</v>
       </c>
       <c r="P130" t="n">
-        <v>0.5427442078811351</v>
+        <v>0.5596730679893198</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03525392420913667</v>
+        <v>0.03615769581742131</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.002296824066125913</v>
+        <v>-0.003736934062038803</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.0540351825458254</v>
+        <v>0.05479013635243486</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03631341732909445</v>
+        <v>0.03622980354204015</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.002684326128113942</v>
+        <v>-0.003475930479728473</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1478884068358584</v>
+        <v>0.1475332351619302</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0370640531654058</v>
+        <v>0.03688985777570934</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.002479389548367459</v>
+        <v>-0.00337899257291711</v>
       </c>
       <c r="M131" t="n">
-        <v>0.3471123538365899</v>
+        <v>0.3664727327689383</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03675345889800899</v>
+        <v>0.03719098873354822</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.003413952641379977</v>
+        <v>-0.004087419602472956</v>
       </c>
       <c r="P131" t="n">
-        <v>0.5447049642317512</v>
+        <v>0.562465650984629</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03603734474711748</v>
+        <v>0.03696120016891955</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.002296824066125913</v>
+        <v>-0.003736934062038803</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0542278224091953</v>
+        <v>0.05502564012072936</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03710283944494433</v>
+        <v>0.03701740796686712</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.003097526881069741</v>
+        <v>-0.003255314735485218</v>
       </c>
       <c r="J132" t="n">
-        <v>0.148554983462763</v>
+        <v>0.148233277676693</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03786979345161028</v>
+        <v>0.03769181120561606</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.002678138089888986</v>
+        <v>-0.00337899257291711</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3483959698583023</v>
+        <v>0.368454486280858</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03755244713492223</v>
+        <v>0.03799948848862536</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.003319358437554965</v>
+        <v>-0.004381905493773761</v>
       </c>
       <c r="P132" t="n">
-        <v>0.5466929099249743</v>
+        <v>0.5648720103870684</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03682076528509829</v>
+        <v>0.03776470452041781</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.002297083242117087</v>
+        <v>-0.004118435847957675</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05444621507780449</v>
+        <v>0.05527809343347868</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03789226156079421</v>
+        <v>0.03780501239169407</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.003097217190319784</v>
+        <v>-0.003255640266958766</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1490877318117855</v>
+        <v>0.1489787161049502</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03867553373781475</v>
+        <v>0.03849376463552279</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.002678138089888986</v>
+        <v>-0.00337899257291711</v>
       </c>
       <c r="M133" t="n">
-        <v>0.349700064594451</v>
+        <v>0.3704276655423487</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03835143537183548</v>
+        <v>0.0388079882437025</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.003319358437554965</v>
+        <v>-0.004381905493773761</v>
       </c>
       <c r="P133" t="n">
-        <v>0.5487111438638023</v>
+        <v>0.5673808430584223</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.0376041858230791</v>
+        <v>0.03856820887191606</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.002297083242117087</v>
+        <v>-0.004118435847957675</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05462873053539716</v>
+        <v>0.05551628868800486</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03868168367664409</v>
+        <v>0.03859261681652103</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.00309659780881987</v>
+        <v>-0.003255640266958766</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1497255288015001</v>
+        <v>0.1496707483451619</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03948127402401922</v>
+        <v>0.03929571806542951</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.002678138089888986</v>
+        <v>-0.00337899257291711</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3508270334796666</v>
+        <v>0.3721303345256459</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03915042360874871</v>
+        <v>0.03961648799877963</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.003319358437554965</v>
+        <v>-0.004381905493773761</v>
       </c>
       <c r="P134" t="n">
-        <v>0.5505226029468772</v>
+        <v>0.5695031697901652</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03838760636105992</v>
+        <v>0.03937171322341431</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.002297083242117087</v>
+        <v>-0.004118435847957675</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05481397595031859</v>
+        <v>0.05572434692518555</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03947110579249397</v>
+        <v>0.03938022124134799</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.003096907499569827</v>
+        <v>-0.003254989204011669</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1502294103039732</v>
+        <v>0.150389501172331</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0402870143102237</v>
+        <v>0.04009767149533624</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.002894064568744087</v>
+        <v>-0.00337899257291711</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3520292049155217</v>
+        <v>0.3739780995957431</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03994941184566195</v>
+        <v>0.04042498775385677</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.003319358437554965</v>
+        <v>-0.004381905493773761</v>
       </c>
       <c r="P135" t="n">
-        <v>0.5522088971077828</v>
+        <v>0.5718950507301233</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.03917102689904074</v>
+        <v>0.04017521757491256</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.002297083242117087</v>
+        <v>-0.004118435847957675</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05501761313369478</v>
+        <v>0.05595705799662244</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04026052790834385</v>
+        <v>0.04016782566617495</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.003525084812270826</v>
+        <v>-0.003041453060826597</v>
       </c>
       <c r="J136" t="n">
-        <v>0.150839640684659</v>
+        <v>0.1510553540745495</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04109275459642817</v>
+        <v>0.04089962492524296</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.002894064568744087</v>
+        <v>-0.00315247955766965</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3532090268209068</v>
+        <v>0.3757614098538057</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04074840008257519</v>
+        <v>0.04123348750893391</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.003223265669389666</v>
+        <v>-0.004635418937369206</v>
       </c>
       <c r="P136" t="n">
-        <v>0.5541740470074888</v>
+        <v>0.574230914932619</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.03995444743702155</v>
+        <v>0.04097872192641081</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.00229672025975688</v>
+        <v>-0.004471369153004156</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05519307863801969</v>
+        <v>0.05615143314964333</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04104995002419373</v>
+        <v>0.04095543009100191</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.003525789829233281</v>
+        <v>-0.003041453060826597</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1513561694292114</v>
+        <v>0.1517288181122233</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04189849488263264</v>
+        <v>0.04170157835514969</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.002894064568744087</v>
+        <v>-0.00315247955766965</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3545202029303496</v>
+        <v>0.3774788432804098</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04154738831948843</v>
+        <v>0.04204198726401104</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.003223265669389666</v>
+        <v>-0.004635418937369206</v>
       </c>
       <c r="P137" t="n">
-        <v>0.5560197673586615</v>
+        <v>0.5764294442641376</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04073786797500236</v>
+        <v>0.04178222627790906</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.00229672025975688</v>
+        <v>-0.004471369153004156</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05536369770322426</v>
+        <v>0.05634667634177812</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04183937214004361</v>
+        <v>0.04174303451582887</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.003525084812270826</v>
+        <v>-0.00304175717572119</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1518795938191234</v>
+        <v>0.1524104895942488</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04270423516883712</v>
+        <v>0.04250353178505641</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.002894064568744087</v>
+        <v>-0.00315247955766965</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3556122461334905</v>
+        <v>0.3790760802665915</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04234637655640167</v>
+        <v>0.04285048701908818</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.003223265669389666</v>
+        <v>-0.004635418937369206</v>
       </c>
       <c r="P138" t="n">
-        <v>0.5575865020863197</v>
+        <v>0.5786570107170411</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04152128851298318</v>
+        <v>0.04258573062940731</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.00229672025975688</v>
+        <v>-0.004471369153004156</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05554518126144729</v>
+        <v>0.05656653683806893</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04262879425589348</v>
+        <v>0.04253063894065583</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.003945808444579225</v>
+        <v>-0.003041453060826597</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1524103784469698</v>
+        <v>0.1530806516529257</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04350997545504159</v>
+        <v>0.04330548521496314</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.002894064568744087</v>
+        <v>-0.00315247955766965</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3566888436266813</v>
+        <v>0.3805512393001081</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0431453647933149</v>
+        <v>0.04365898677416531</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.003223265669389666</v>
+        <v>-0.004635418937369206</v>
       </c>
       <c r="P139" t="n">
-        <v>0.5591989310766833</v>
+        <v>0.5805002835852527</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.042304709050964</v>
+        <v>0.04338923498090556</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.002297113569685058</v>
+        <v>-0.004471369153004156</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05572983073375118</v>
+        <v>0.05675547874233847</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04341821637174337</v>
+        <v>0.04331824336548279</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.003946202985969544</v>
+        <v>-0.002843025911417594</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1528475463249959</v>
+        <v>0.1536785854378153</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04431571574124606</v>
+        <v>0.04410743864486986</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.003110901245235035</v>
+        <v>-0.002930264162602882</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3577523779138999</v>
+        <v>0.382062067260612</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04394435303022814</v>
+        <v>0.04446748652924245</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.003135448695370634</v>
+        <v>-0.00482480980392784</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5611033568805794</v>
+        <v>0.5825409687774636</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04308812958894481</v>
+        <v>0.04419273933240381</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.002297113569685058</v>
+        <v>-0.004770486796467677</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05588628226571137</v>
+        <v>0.05691322265440701</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04420763848759324</v>
+        <v>0.04410584779030975</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.003945808444579225</v>
+        <v>-0.0028427416656756</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1533535013244813</v>
+        <v>0.1543267129886824</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04512145602745054</v>
+        <v>0.04490939207477659</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.003110901245235035</v>
+        <v>-0.002930264162602882</v>
       </c>
       <c r="M141" t="n">
-        <v>0.3590087933526342</v>
+        <v>0.383448012114067</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04474334126714138</v>
+        <v>0.04527598628431959</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.003135448695370634</v>
+        <v>-0.00482480980392784</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5624916756243168</v>
+        <v>0.5847822365833929</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04387155012692563</v>
+        <v>0.04499624368390207</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.002297113569685058</v>
+        <v>-0.004770486796467677</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05603019746698805</v>
+        <v>0.0570954067798258</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04499706060344313</v>
+        <v>0.04489345221513671</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.003945808444579225</v>
+        <v>-0.002842173174191614</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1538272166340554</v>
+        <v>0.154923518432561</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04592719631365502</v>
+        <v>0.04571134550468331</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.003110901245235035</v>
+        <v>-0.002930264162602882</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3600027829648705</v>
+        <v>0.3847607211022293</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04554232950405462</v>
+        <v>0.04608448603939672</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.003135448695370634</v>
+        <v>-0.00482480980392784</v>
       </c>
       <c r="P142" t="n">
-        <v>0.5641776539533722</v>
+        <v>0.5865579221024809</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04465497066490644</v>
+        <v>0.04579974803540032</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.002297113569685058</v>
+        <v>-0.004770486796467677</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05619316253125674</v>
+        <v>0.05726211342414486</v>
       </c>
       <c r="G143" t="n">
-        <v>0.045786482719293</v>
+        <v>0.04568105663996367</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.003945019361798588</v>
+        <v>-0.002672620728485659</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1543301444137951</v>
+        <v>0.1555923593681373</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04673293659985949</v>
+        <v>0.04651329893459004</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.003110901245235035</v>
+        <v>-0.002930264162602882</v>
       </c>
       <c r="M143" t="n">
-        <v>0.361041740165282</v>
+        <v>0.3859452024865745</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04634131774096786</v>
+        <v>0.04689298579447385</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.003135448695370634</v>
+        <v>-0.00482480980392784</v>
       </c>
       <c r="P143" t="n">
-        <v>0.5657578338326478</v>
+        <v>0.5884533901686815</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04543839120288726</v>
+        <v>0.04660325238689857</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.002297113569685058</v>
+        <v>-0.004770486796467677</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05634371782655764</v>
+        <v>0.05742120211393868</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04657590483514288</v>
+        <v>0.04646866106479063</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.004336802334301221</v>
+        <v>-0.002672887990558508</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1547195446093607</v>
+        <v>0.1561282012099602</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04753867688606397</v>
+        <v>0.04731525236449676</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.003317097047656574</v>
+        <v>-0.00272632903048922</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3621283716239807</v>
+        <v>0.3869997051507609</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0471403059778811</v>
+        <v>0.04770148554955098</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.003066559789308406</v>
+        <v>-0.004930821017586095</v>
       </c>
       <c r="P144" t="n">
-        <v>0.5674794378288691</v>
+        <v>0.5903030509420117</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04622181174086807</v>
+        <v>0.04740675673839682</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.002298034144151279</v>
+        <v>-0.004994506694834432</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05649771660195599</v>
+        <v>0.05757256345179884</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04736532695099276</v>
+        <v>0.04725626548961759</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.004336368740786494</v>
+        <v>-0.00267235346641281</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1552002382897562</v>
+        <v>0.1567164342922904</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04834441717226843</v>
+        <v>0.04811720579440349</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.003317097047656574</v>
+        <v>-0.00272632903048922</v>
       </c>
       <c r="M145" t="n">
-        <v>0.3632653815396315</v>
+        <v>0.3881915933250869</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04793929421479434</v>
+        <v>0.04850998530462812</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.003066559789308406</v>
+        <v>-0.004930821017586095</v>
       </c>
       <c r="P145" t="n">
-        <v>0.5687726929779194</v>
+        <v>0.592192448468957</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04700523227884888</v>
+        <v>0.04821026108989507</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.002298034144151279</v>
+        <v>-0.004994506694834432</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05663936830591808</v>
+        <v>0.05773218486757493</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04815474906684264</v>
+        <v>0.04804386991444455</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.004336802334301221</v>
+        <v>-0.002672887990558508</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1555881383255271</v>
+        <v>0.1573165191023568</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04915015745847291</v>
+        <v>0.04891915922431021</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.003317097047656574</v>
+        <v>-0.00272632903048922</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3643011682365803</v>
+        <v>0.3892511468581147</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04873828245170758</v>
+        <v>0.04931848505970526</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.003066559789308406</v>
+        <v>-0.004930821017586095</v>
       </c>
       <c r="P146" t="n">
-        <v>0.5702941097018852</v>
+        <v>0.5937858964725953</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.0477886528168297</v>
+        <v>0.04901376544139333</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.002298034144151279</v>
+        <v>-0.004994506694834432</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05676867729970746</v>
+        <v>0.05785166648208488</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04894417118269252</v>
+        <v>0.04883147433927151</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.004671997858738753</v>
+        <v>-0.00267235346641281</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1560272627638436</v>
+        <v>0.1578874436388469</v>
       </c>
       <c r="K147" t="n">
-        <v>0.04995589774467738</v>
+        <v>0.04972111265421694</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.003317097047656574</v>
+        <v>-0.00272632903048922</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3653920892680965</v>
+        <v>0.390068633136437</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04953727068862081</v>
+        <v>0.05012698481478239</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.003066559789308406</v>
+        <v>-0.004930821017586095</v>
       </c>
       <c r="P147" t="n">
-        <v>0.5719653716733466</v>
+        <v>0.5956750807841648</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.04857207335481051</v>
+        <v>0.04981726979289158</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.002298034144151279</v>
+        <v>-0.005121492287445894</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05690158449492533</v>
+        <v>0.05797111465593117</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0497335932985424</v>
+        <v>0.04961907876409847</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.004671997858738753</v>
+        <v>-0.002542102324348544</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1564770056860789</v>
+        <v>0.1584502758620401</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05076163803088186</v>
+        <v>0.05052306608412366</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.003497618772063945</v>
+        <v>-0.002551635785550059</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3664891960348339</v>
+        <v>0.3908975096140749</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05033625892553405</v>
+        <v>0.05093548456985953</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.003023841193037003</v>
+        <v>-0.004928004914181475</v>
       </c>
       <c r="P148" t="n">
-        <v>0.5733781886294524</v>
+        <v>0.5973550125896082</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.04935549389279133</v>
+        <v>0.05062077414438983</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.002298333532442677</v>
+        <v>-0.005121492287445894</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05704615644544576</v>
+        <v>0.05811472065485321</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05052301541439228</v>
+        <v>0.05040668318892543</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.004671997858738753</v>
+        <v>-0.002541593954720637</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1568757409252921</v>
+        <v>0.1590263105624177</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05156737831708633</v>
+        <v>0.05132501951403039</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.003497618772063945</v>
+        <v>-0.002551635785550059</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3675948664755996</v>
+        <v>0.3918282796598358</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05113524716244729</v>
+        <v>0.05174398432493667</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.003023841193037003</v>
+        <v>-0.004928004914181475</v>
       </c>
       <c r="P149" t="n">
-        <v>0.5747811788519263</v>
+        <v>0.5989109082108482</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05013891443077214</v>
+        <v>0.05142427849588808</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.002298333532442677</v>
+        <v>-0.005121492287445894</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05717054557862819</v>
+        <v>0.0582258264886434</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05131243753024216</v>
+        <v>0.05119428761375239</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.00467059653964495</v>
+        <v>-0.002541593954720637</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1572235368076335</v>
+        <v>0.1595322850424158</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0523731186032908</v>
+        <v>0.05212697294393711</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.003497618772063945</v>
+        <v>-0.002551635785550059</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3688671075356611</v>
+        <v>0.3926437035787443</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05193423539936053</v>
+        <v>0.0525524840800138</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.003023841193037003</v>
+        <v>-0.004928004914181475</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5765073836235454</v>
+        <v>0.6005987742763919</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05092233496875296</v>
+        <v>0.05222778284738633</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.002298333532442677</v>
+        <v>-0.005121492287445894</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05726671985120434</v>
+        <v>0.05830422279557776</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05210185964609203</v>
+        <v>0.05198189203857935</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.00467059653964495</v>
+        <v>-0.00254184813953459</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1575827539818466</v>
+        <v>0.1601361799788593</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05317885888949527</v>
+        <v>0.05292892637384384</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.003497618772063945</v>
+        <v>-0.002551635785550059</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3699973781542896</v>
+        <v>0.3936143575072351</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05273322363627377</v>
+        <v>0.05336098383509093</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.003023841193037003</v>
+        <v>-0.004928004914181475</v>
       </c>
       <c r="P151" t="n">
-        <v>0.5778160406541307</v>
+        <v>0.6022504788761053</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05170575550673377</v>
+        <v>0.05303128719888459</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.002298333532442677</v>
+        <v>-0.005121018718657821</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05740676462021027</v>
+        <v>0.058406537580377</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05289128176194192</v>
+        <v>0.05276949646340631</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.00492802815634772</v>
+        <v>-0.002461334096520025</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1579538166854618</v>
+        <v>0.1606706923247496</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05398459917569975</v>
+        <v>0.05373087980375056</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.003636822507008857</v>
+        <v>-0.002421752965479232</v>
       </c>
       <c r="M152" t="n">
-        <v>0.371091811963047</v>
+        <v>0.3944681210046008</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05353221187318701</v>
+        <v>0.05416948359016806</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.003024819275119465</v>
+        <v>-0.004807220296689871</v>
       </c>
       <c r="P152" t="n">
-        <v>0.5792879436578316</v>
+        <v>0.6037920923135286</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.05248917604471458</v>
+        <v>0.05383479155038282</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.002298931208790741</v>
+        <v>-0.005121018718657821</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05749460704769273</v>
+        <v>0.05850026781507207</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05368070387779179</v>
+        <v>0.05355710088823327</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.00492802815634772</v>
+        <v>-0.002461826412570934</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1583788111966316</v>
+        <v>0.1611990823805255</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05479033946190422</v>
+        <v>0.05453283323365729</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.003636822507008857</v>
+        <v>-0.002421752965479232</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3722591705350513</v>
+        <v>0.3953128491808695</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05433120011010024</v>
+        <v>0.0549779833452452</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.003024819275119465</v>
+        <v>-0.004807220296689871</v>
       </c>
       <c r="P153" t="n">
-        <v>0.5807603262901153</v>
+        <v>0.6053265785517812</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.0532725965826954</v>
+        <v>0.05463829590188108</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.002298931208790741</v>
+        <v>-0.005121018718657821</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05761851258909122</v>
+        <v>0.0585609003749161</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05447012599364168</v>
+        <v>0.05434470531306023</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.004928521008448565</v>
+        <v>-0.002461826412570934</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1587331489978829</v>
+        <v>0.1617217444745163</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05559607974810871</v>
+        <v>0.05533478666356401</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.003636822507008857</v>
+        <v>-0.002421752965479232</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3733936845605583</v>
+        <v>0.396202466876216</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05513018834701349</v>
+        <v>0.05578648310032234</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.003024819275119465</v>
+        <v>-0.004807220296689871</v>
       </c>
       <c r="P154" t="n">
-        <v>0.5823993820844837</v>
+        <v>0.6068528411815134</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05405601712067622</v>
+        <v>0.05544180025337933</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.002298931208790741</v>
+        <v>-0.005121018718657821</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05770625334412055</v>
+        <v>0.05865338607487269</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05525954810949155</v>
+        <v>0.05513230973788719</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.00492901386054941</v>
+        <v>-0.002461826412570934</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1590168187376657</v>
+        <v>0.1621754139449685</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05640182003431318</v>
+        <v>0.05613674009347074</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.003636822507008857</v>
+        <v>-0.002349007053756068</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3747023724182033</v>
+        <v>0.396972461631525</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05592917658392672</v>
+        <v>0.05659498285539948</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.003024819275119465</v>
+        <v>-0.004807220296689871</v>
       </c>
       <c r="P155" t="n">
-        <v>0.5836102309582095</v>
+        <v>0.6081119469604408</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05483943765865704</v>
+        <v>0.05624530460487759</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.002298931208790741</v>
+        <v>-0.005121018718657821</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05783027793733617</v>
+        <v>0.05868810009828643</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05604897022534144</v>
+        <v>0.05591991416271416</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.005084294469576214</v>
+        <v>-0.002447243656128312</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1594182619471978</v>
+        <v>0.1626876494143666</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05720756032051765</v>
+        <v>0.05693869352337746</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.003721122790033793</v>
+        <v>-0.002349007053756068</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3759209588742849</v>
+        <v>0.3977312038162348</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05672816482083996</v>
+        <v>0.05740348261047661</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.003131312847363127</v>
+        <v>-0.00459199895531807</v>
       </c>
       <c r="P156" t="n">
-        <v>0.5853073318647432</v>
+        <v>0.6097028593944847</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.05562285819663785</v>
+        <v>0.05704880895637584</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.002376556364796466</v>
+        <v>-0.004958923085945909</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05791010133816986</v>
+        <v>0.05874945073218106</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05683839234119131</v>
+        <v>0.05670751858754111</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.005084802949871201</v>
+        <v>-0.002447733153809306</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1597496522571794</v>
+        <v>0.1632379846027744</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05801330060672212</v>
+        <v>0.05774064695328418</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.003721122790033793</v>
+        <v>-0.002349007053756068</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3770462536970282</v>
+        <v>0.39864257226859</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05752715305775321</v>
+        <v>0.05821198236555375</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.003131312847363127</v>
+        <v>-0.00459199895531807</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5866564196029486</v>
+        <v>0.6113675482969554</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05640627873461866</v>
+        <v>0.05785231330787409</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.002376556364796466</v>
+        <v>-0.004958923085945909</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05801024498159783</v>
+        <v>0.05879965573555147</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05762781445704119</v>
+        <v>0.05749512301236807</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.005085311430166188</v>
+        <v>-0.002447733153809306</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1600529969855963</v>
+        <v>0.163720255748059</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0588190408929266</v>
+        <v>0.0585426003831909</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.003721122790033793</v>
+        <v>-0.002349007053756068</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3782863676471729</v>
+        <v>0.3993770032830896</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05832614129466644</v>
+        <v>0.05902048212063088</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.003131312847363127</v>
+        <v>-0.00459199895531807</v>
       </c>
       <c r="P158" t="n">
-        <v>0.5880744913277769</v>
+        <v>0.6127599100057098</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05718969927259948</v>
+        <v>0.05865581765937233</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.002376556364796466</v>
+        <v>-0.004958923085945909</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05808232236768776</v>
+        <v>0.05886335126645835</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05841723657289108</v>
+        <v>0.05828272743719504</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.005116655004440752</v>
+        <v>-0.002551774430954622</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1603276847114971</v>
+        <v>0.1642629370092092</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05962478117913107</v>
+        <v>0.05934455381309763</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.003721122790033793</v>
+        <v>-0.002349007053756068</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3796395850751413</v>
+        <v>0.4000431257280678</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05912512953157969</v>
+        <v>0.05982898187570802</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.003131312847363127</v>
+        <v>-0.00459199895531807</v>
       </c>
       <c r="P159" t="n">
-        <v>0.5893098705905988</v>
+        <v>0.6140499723573575</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05797311981058029</v>
+        <v>0.05945932201087058</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.002376556364796466</v>
+        <v>-0.004958923085945909</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05818296497440138</v>
+        <v>0.05890806694893261</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05920665868874096</v>
+        <v>0.05907033186202199</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.005116655004440752</v>
+        <v>-0.002552029633918013</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1606786488257305</v>
+        <v>0.164721641159817</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06043052146533554</v>
+        <v>0.06014650724300435</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.003760362746572982</v>
+        <v>-0.002359444428089797</v>
       </c>
       <c r="M160" t="n">
-        <v>0.380838805120481</v>
+        <v>0.4008052886386969</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05992411776849291</v>
+        <v>0.06063748163078515</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.003335906843940789</v>
+        <v>-0.004303070178463754</v>
       </c>
       <c r="P160" t="n">
-        <v>0.5907818318379596</v>
+        <v>0.6157551820942389</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.05875654034856111</v>
+        <v>0.06026282636236884</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.002619108351152554</v>
+        <v>-0.004666772012278155</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05827203959510921</v>
+        <v>0.05894211287130457</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05999608080459082</v>
+        <v>0.05985793628684894</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.005115631775762732</v>
+        <v>-0.002551774430954622</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1610009876685981</v>
+        <v>0.165277201964279</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06123626175154002</v>
+        <v>0.06094846067291108</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.003760362746572982</v>
+        <v>-0.002359444428089797</v>
       </c>
       <c r="M161" t="n">
-        <v>0.382040053046128</v>
+        <v>0.4015529432529981</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06072310600540616</v>
+        <v>0.06144598138586229</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.003335906843940789</v>
+        <v>-0.004303070178463754</v>
       </c>
       <c r="P161" t="n">
-        <v>0.5920702587823276</v>
+        <v>0.6171826099209587</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.05953996088654192</v>
+        <v>0.06106633071386709</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.002619108351152554</v>
+        <v>-0.004666772012278155</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05832547647928146</v>
+        <v>0.05896564381760019</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06078550292044071</v>
+        <v>0.0606455407116759</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.005116655004440752</v>
+        <v>-0.002552029633918013</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1612314445237484</v>
+        <v>0.16579912817157</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06204200203774449</v>
+        <v>0.06175041410281781</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.003760362746572982</v>
+        <v>-0.002359444428089797</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3834008574479972</v>
+        <v>0.4024511074149926</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06152209424231941</v>
+        <v>0.06225448114093943</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.003335906843940789</v>
+        <v>-0.004303070178463754</v>
       </c>
       <c r="P162" t="n">
-        <v>0.5935958046644293</v>
+        <v>0.6185031812070956</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06032338142452274</v>
+        <v>0.06186983506536534</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.002619108351152554</v>
+        <v>-0.004666772012278155</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05840828125487323</v>
+        <v>0.0590033497440114</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06157492503629059</v>
+        <v>0.06143314513650287</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.005116655004440752</v>
+        <v>-0.002551774430954622</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1615602702642834</v>
+        <v>0.166306780614101</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06284774232394896</v>
+        <v>0.06255236753272453</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.003760362746572982</v>
+        <v>-0.002359444428089797</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3846526131489676</v>
+        <v>0.403112601660744</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06232108247923264</v>
+        <v>0.06306298089601656</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.003335906843940789</v>
+        <v>-0.004303070178463754</v>
       </c>
       <c r="P163" t="n">
-        <v>0.5948524860780487</v>
+        <v>0.6199759469422578</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06110680196250355</v>
+        <v>0.06267333941686359</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.002619108351152554</v>
+        <v>-0.004287101715122776</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05847194894214316</v>
+        <v>0.05906360153498355</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06236434715214047</v>
+        <v>0.06222074956132982</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.005007286506493064</v>
+        <v>-0.002763952623560844</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1618398291612043</v>
+        <v>0.1668414078842992</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06365348261015344</v>
+        <v>0.06335432096263126</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.003794430863343041</v>
+        <v>-0.002544258216410846</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3857921100196962</v>
+        <v>0.4038127653182036</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06312007071614588</v>
+        <v>0.0638714806510937</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.003610621235670885</v>
+        <v>-0.003967271263330118</v>
       </c>
       <c r="P164" t="n">
-        <v>0.5963465237364292</v>
+        <v>0.6212517918447725</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06189022250048436</v>
+        <v>0.06347684376836184</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.002981045910161819</v>
+        <v>-0.004287101715122776</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05854098752397263</v>
+        <v>0.05907293212907397</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06315376926799035</v>
+        <v>0.06300835398615678</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.005007286506493064</v>
+        <v>-0.002764229046465491</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1621337925583564</v>
+        <v>0.1673794795993148</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06445922289635792</v>
+        <v>0.06415627439253799</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.003794430863343041</v>
+        <v>-0.002544258216410846</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3870846605125043</v>
+        <v>0.4044402358152139</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06391905895305912</v>
+        <v>0.06467998040617083</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.003610621235670885</v>
+        <v>-0.003967271263330118</v>
       </c>
       <c r="P165" t="n">
-        <v>0.5975703250510095</v>
+        <v>0.622590182745702</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06267364303846518</v>
+        <v>0.0642803481198601</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.002981045910161819</v>
+        <v>-0.004287101715122776</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.05861557281354766</v>
+        <v>0.059121518256622</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06394319138384023</v>
+        <v>0.06379595841098375</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.005008288063950109</v>
+        <v>-0.002763952623560844</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1623362732341182</v>
+        <v>0.1678972512488708</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06526496318256239</v>
+        <v>0.06495822782244472</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.003794430863343041</v>
+        <v>-0.002544258216410846</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3882059609945648</v>
+        <v>0.4052161712528939</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06471804718997236</v>
+        <v>0.06548848016124797</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.003610621235670885</v>
+        <v>-0.003967271263330118</v>
       </c>
       <c r="P166" t="n">
-        <v>0.5989468225073362</v>
+        <v>0.623815284153075</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.063457063576446</v>
+        <v>0.06508385247135835</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.002981045910161819</v>
+        <v>-0.004287101715122776</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.05869587909992605</v>
+        <v>0.05915223561973225</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0647326134996901</v>
+        <v>0.06458356283581071</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.005007286506493064</v>
+        <v>-0.002763952623560844</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1626597865249338</v>
+        <v>0.1684581372231896</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06607070346876687</v>
+        <v>0.06576018125235143</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.003824502602689045</v>
+        <v>-0.002544258216410846</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3894761394630918</v>
+        <v>0.4057514483859459</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06551703542688558</v>
+        <v>0.06629697991632511</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.003610621235670885</v>
+        <v>-0.003967271263330118</v>
       </c>
       <c r="P167" t="n">
-        <v>0.6000514764525539</v>
+        <v>0.6250127468358635</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.0642404841144268</v>
+        <v>0.0658873568228566</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.002981045910161819</v>
+        <v>-0.004287101715122776</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.05875762649127711</v>
+        <v>0.05916523248644123</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06552203561553999</v>
+        <v>0.06537116726063767</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.004793151271940459</v>
+        <v>-0.003044329739835133</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1628708482167012</v>
+        <v>0.1689948135617443</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06687644375497133</v>
+        <v>0.06656213468225816</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.003824502602689045</v>
+        <v>-0.002868264826410183</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3907856911712801</v>
+        <v>0.4064340837328868</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06631602366379884</v>
+        <v>0.06710547967140224</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.003925776700773405</v>
+        <v>-0.003607919878470024</v>
       </c>
       <c r="P168" t="n">
-        <v>0.6013936517934724</v>
+        <v>0.6264440125980372</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06502390465240762</v>
+        <v>0.06669086117435485</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.003418626240813965</v>
+        <v>-0.003857116796912492</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.05881724684237345</v>
+        <v>0.05920984047163311</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06631145773138987</v>
+        <v>0.06615877168546462</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.004793151271940459</v>
+        <v>-0.00304524313009611</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1630971642418468</v>
+        <v>0.1695490657209764</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06768218404117581</v>
+        <v>0.06736408811216488</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.003824502602689045</v>
+        <v>-0.002868264826410183</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3919699486535958</v>
+        <v>0.4070411568595305</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06711501190071208</v>
+        <v>0.06791397942647938</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.003925776700773405</v>
+        <v>-0.003607919878470024</v>
       </c>
       <c r="P169" t="n">
-        <v>0.6027184265158856</v>
+        <v>0.6275821708319099</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06580732519038844</v>
+        <v>0.06749436552585311</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.003418626240813965</v>
+        <v>-0.003857116796912492</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.05887489528377503</v>
+        <v>0.0592370614203321</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06710087984723975</v>
+        <v>0.06694637611029158</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.004791713614090446</v>
+        <v>-0.003044634203255459</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1633390223260405</v>
+        <v>0.1700530873663273</v>
       </c>
       <c r="K170" t="n">
-        <v>0.06848792432738028</v>
+        <v>0.06816604154207161</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.003824502602689045</v>
+        <v>-0.002868264826410183</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3930800448457558</v>
+        <v>0.4075160440658194</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06791400013762532</v>
+        <v>0.06872247918155651</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.003925776700773405</v>
+        <v>-0.003607919878470024</v>
       </c>
       <c r="P170" t="n">
-        <v>0.6037693807980251</v>
+        <v>0.628864042475202</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.06659074572836925</v>
+        <v>0.06829786987735136</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.003418626240813965</v>
+        <v>-0.003857116796912492</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.05890622221442963</v>
+        <v>0.05924704569821365</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06789030196308962</v>
+        <v>0.06773398053511855</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.004792672052657121</v>
+        <v>-0.003044938666675784</v>
       </c>
       <c r="J171" t="n">
-        <v>0.163618066375928</v>
+        <v>0.1705487203900122</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06929366461358476</v>
+        <v>0.06896799497197832</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.003824502602689045</v>
+        <v>-0.002868264826410183</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3941675942336464</v>
+        <v>0.4080809765897995</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06871298837453856</v>
+        <v>0.06953097893663365</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.003925776700773405</v>
+        <v>-0.003607919878470024</v>
       </c>
       <c r="P171" t="n">
-        <v>0.6048871316471741</v>
+        <v>0.6298488917346778</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06737416626635007</v>
+        <v>0.0691013742288496</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.003418626240813965</v>
+        <v>-0.003857116796912492</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.05898489695973406</v>
+        <v>0.05928096911126221</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06867972407893951</v>
+        <v>0.06852158495994551</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.004499655953349635</v>
+        <v>-0.003355891554432272</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1638063500176127</v>
+        <v>0.1710340128828282</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07009940489978923</v>
+        <v>0.06976994840188505</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.003850456102238179</v>
+        <v>-0.003269509675964865</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3952301445312784</v>
+        <v>0.4086238729920434</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06951197661145178</v>
+        <v>0.07033947869171078</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.004252603110814161</v>
+        <v>-0.003251679425075483</v>
       </c>
       <c r="P172" t="n">
-        <v>0.6062429933784916</v>
+        <v>0.6310628589078823</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.06815758680433089</v>
+        <v>0.06990487858034786</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.003882740122818478</v>
+        <v>-0.003419489556484447</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.05902120260524064</v>
+        <v>0.05932260654086802</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06946914619478939</v>
+        <v>0.06930918938477247</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.004499655953349635</v>
+        <v>-0.003355555965276829</v>
       </c>
       <c r="J173" t="n">
-        <v>0.164075053654902</v>
+        <v>0.1715291688498065</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07090514518599371</v>
+        <v>0.07057190183179178</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.003850456102238179</v>
+        <v>-0.003269509675964865</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3963745193402208</v>
+        <v>0.4091440489247874</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07031096484836503</v>
+        <v>0.07114797844678793</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.004252603110814161</v>
+        <v>-0.003251679425075483</v>
       </c>
       <c r="P173" t="n">
-        <v>0.6073233433621211</v>
+        <v>0.6323290422175019</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.06894100734231169</v>
+        <v>0.07070838293184611</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.003882740122818478</v>
+        <v>-0.003419489556484447</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.05908068850836412</v>
+        <v>0.05933929239904993</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07025856831063926</v>
+        <v>0.07009679380959943</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.004500555884540305</v>
+        <v>-0.003356227143587716</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1642532374076076</v>
+        <v>0.1720545855011262</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07171088547219819</v>
+        <v>0.07137385526169851</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.003850456102238179</v>
+        <v>-0.003269509675964865</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3974346740324711</v>
+        <v>0.4096967897192385</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07110995308527826</v>
+        <v>0.07195647820186506</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.004252603110814161</v>
+        <v>-0.003251679425075483</v>
       </c>
       <c r="P174" t="n">
-        <v>0.6084702424463545</v>
+        <v>0.633204670167522</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.06972442788029251</v>
+        <v>0.07151188728334436</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.003882740122818478</v>
+        <v>-0.003419489556484447</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.05912261028325599</v>
+        <v>0.05936402058948084</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07104799042648914</v>
+        <v>0.07088439823442638</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.004499655953349635</v>
+        <v>-0.003356562732743159</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1645124433136725</v>
+        <v>0.1725418382148197</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07251662575840265</v>
+        <v>0.07217580869160523</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.003850456102238179</v>
+        <v>-0.003269509675964865</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3984626778492257</v>
+        <v>0.4102815528463999</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0719089413221915</v>
+        <v>0.07276497795694219</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.004252603110814161</v>
+        <v>-0.003251679425075483</v>
       </c>
       <c r="P175" t="n">
-        <v>0.6096837510446629</v>
+        <v>0.6341291389513497</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07050784841827333</v>
+        <v>0.07231539163484262</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.003882740122818478</v>
+        <v>-0.003015310611903458</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.05917986916761153</v>
+        <v>0.05937232070135896</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07183741254233902</v>
+        <v>0.07167200265925334</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.004165407163893176</v>
+        <v>-0.003660995221174991</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1646813776970368</v>
+        <v>0.1729665332689069</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07332236604460714</v>
+        <v>0.07297776212151195</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.003871027877709141</v>
+        <v>-0.00369082272644193</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3994011259572255</v>
+        <v>0.4105614104283744</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07270792955910475</v>
+        <v>0.07357347771201932</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.004564154294470105</v>
+        <v>-0.002920299249228989</v>
       </c>
       <c r="P176" t="n">
-        <v>0.6108778473330138</v>
+        <v>0.6352783286782877</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07129126895625414</v>
+        <v>0.07311889598634086</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.004327423249683258</v>
+        <v>-0.003015310611903458</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.05921985428866726</v>
+        <v>0.05942186596287546</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07262683465818891</v>
+        <v>0.07245960708408031</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.004164990623176787</v>
+        <v>-0.003660263168541283</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1648889468043553</v>
+        <v>0.1734158021926565</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0741281063308116</v>
+        <v>0.07377971555141868</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.003871027877709141</v>
+        <v>-0.00369082272644193</v>
       </c>
       <c r="M177" t="n">
-        <v>0.4005224784310265</v>
+        <v>0.4110960689984744</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07350691779601798</v>
+        <v>0.07438197746709645</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.004564154294470105</v>
+        <v>-0.002920299249228989</v>
       </c>
       <c r="P177" t="n">
-        <v>0.6117937035971802</v>
+        <v>0.6362085555140273</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07207468949423496</v>
+        <v>0.0739224003378391</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.004327423249683258</v>
+        <v>-0.003015310611903458</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.05928370973317909</v>
+        <v>0.0594306620388155</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07341625677403878</v>
+        <v>0.07324721150890727</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.004165823704609566</v>
+        <v>-0.003659897142224429</v>
       </c>
       <c r="J178" t="n">
-        <v>0.165156998279557</v>
+        <v>0.1737536739183468</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07493384661701608</v>
+        <v>0.07458166898132541</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.003871027877709141</v>
+        <v>-0.00369082272644193</v>
       </c>
       <c r="M178" t="n">
-        <v>0.4014394576238424</v>
+        <v>0.4114363130055523</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07430590603293123</v>
+        <v>0.07519047722217359</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.004564154294470105</v>
+        <v>-0.002920299249228989</v>
       </c>
       <c r="P178" t="n">
-        <v>0.6127752137038741</v>
+        <v>0.6370951892058083</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07285811003221576</v>
+        <v>0.07472590468933736</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.004327423249683258</v>
+        <v>-0.003015310611903458</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.05933059186252872</v>
+        <v>0.05946461703283636</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07420567888988866</v>
+        <v>0.07403481593373423</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.004165823704609566</v>
+        <v>-0.003660629194858137</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1652921411948324</v>
+        <v>0.1742018863356222</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07573958690322055</v>
+        <v>0.07538362241123213</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.003871027877709141</v>
+        <v>-0.004069125198799526</v>
       </c>
       <c r="M179" t="n">
-        <v>0.4022039998392263</v>
+        <v>0.4118058317701203</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07510489426984446</v>
+        <v>0.07599897697725072</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.004564154294470105</v>
+        <v>-0.002920299249228989</v>
       </c>
       <c r="P179" t="n">
-        <v>0.6139088113339218</v>
+        <v>0.6379367559887295</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07364153057019658</v>
+        <v>0.07552940904083562</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.004327423249683258</v>
+        <v>-0.003015310611903458</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.05936062765260339</v>
+        <v>0.05947457054507845</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07499510100573854</v>
+        <v>0.0748224203585612</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.003822009496426015</v>
+        <v>-0.003920522011581591</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1654881897782439</v>
+        <v>0.1745570860175004</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07654532718942501</v>
+        <v>0.07618557584113886</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.003885333849966444</v>
+        <v>-0.004069125198799526</v>
       </c>
       <c r="M180" t="n">
-        <v>0.4030343608869557</v>
+        <v>0.4121478368794724</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0759038825067577</v>
+        <v>0.07680747673232786</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.004828623873521696</v>
+        <v>-0.002641015843399533</v>
       </c>
       <c r="P180" t="n">
-        <v>0.614848860874035</v>
+        <v>0.638554053514328</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.0744249511081774</v>
+        <v>0.07633291339233388</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.00470660638664576</v>
+        <v>-0.002684985137678069</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.05940681446696097</v>
+        <v>0.059518259682852</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07578452312158841</v>
+        <v>0.07561002478338814</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.003822391697375657</v>
+        <v>-0.003920129998581733</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1657023917264452</v>
+        <v>0.1748591264130272</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0773510674756295</v>
+        <v>0.07698752927104557</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.003885333849966444</v>
+        <v>-0.004069125198799526</v>
       </c>
       <c r="M181" t="n">
-        <v>0.4039285792657111</v>
+        <v>0.4124616439174024</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07670287074367095</v>
+        <v>0.07761597648740499</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.004828623873521696</v>
+        <v>-0.002641015843399533</v>
       </c>
       <c r="P181" t="n">
-        <v>0.6161140336217211</v>
+        <v>0.6393009157974295</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.07520837164615821</v>
+        <v>0.07713641774383212</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.00470660638664576</v>
+        <v>-0.002684985137678069</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.0594693351482501</v>
+        <v>0.05954650066978399</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0765739452374383</v>
+        <v>0.07639762920821509</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.003821627295476372</v>
+        <v>-0.003920522011581591</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1659350155231917</v>
+        <v>0.175159511999162</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07815680776183397</v>
+        <v>0.0777894827009523</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.003885333849966444</v>
+        <v>-0.004069125198799526</v>
       </c>
       <c r="M182" t="n">
-        <v>0.4046628154409796</v>
+        <v>0.4128028431245513</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07750185898058418</v>
+        <v>0.07842447624248212</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.004828623873521696</v>
+        <v>-0.002641015843399533</v>
       </c>
       <c r="P182" t="n">
-        <v>0.6169250008354942</v>
+        <v>0.6402653259661691</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07599179218413903</v>
+        <v>0.07793992209533036</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.00470660638664576</v>
+        <v>-0.002684985137678069</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.05951546564458146</v>
+        <v>0.05955944325958808</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07736336735328818</v>
+        <v>0.07718523363304206</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.003822009496426015</v>
+        <v>-0.003920522011581591</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1660782887115585</v>
+        <v>0.1754027751823463</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07896254804803844</v>
+        <v>0.07859143613085902</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.003885333849966444</v>
+        <v>-0.004069125198799526</v>
       </c>
       <c r="M183" t="n">
-        <v>0.4052341697330436</v>
+        <v>0.4129456259215614</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07830084721749742</v>
+        <v>0.07923297599755927</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.004828623873521696</v>
+        <v>-0.002641015843399533</v>
       </c>
       <c r="P183" t="n">
-        <v>0.6179743256838686</v>
+        <v>0.6408228787337855</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07677521272211985</v>
+        <v>0.07874342644682862</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.00470660638664576</v>
+        <v>-0.002684985137678069</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.05956179605905827</v>
+        <v>0.05959018232382335</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07815278946913806</v>
+        <v>0.07797283805786902</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.003503473509668086</v>
+        <v>-0.004094632166386312</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1663052104567458</v>
+        <v>0.1756348589615964</v>
       </c>
       <c r="K184" t="n">
-        <v>0.07976828833424292</v>
+        <v>0.07939338956076575</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.003892879188868594</v>
+        <v>-0.004345733660783131</v>
       </c>
       <c r="M184" t="n">
-        <v>0.4059733229257946</v>
+        <v>0.4132833551438453</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07909983545441066</v>
+        <v>0.0800414757526364</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.005021078600237607</v>
+        <v>-0.002435296031329378</v>
       </c>
       <c r="P184" t="n">
-        <v>0.6188281701087832</v>
+        <v>0.6413278717117141</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07755863326010065</v>
+        <v>0.07954693079832686</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.004974394510820213</v>
+        <v>-0.002469797842225494</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.05960024551646456</v>
+        <v>0.05964714290886862</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07894221158498793</v>
+        <v>0.07876044248269598</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.003504524656835703</v>
+        <v>-0.004095860678887477</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1664214125820882</v>
+        <v>0.1758087119178846</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08057402862044739</v>
+        <v>0.08019534299067248</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.003892879188868594</v>
+        <v>-0.004345733660783131</v>
       </c>
       <c r="M185" t="n">
-        <v>0.4064333881218197</v>
+        <v>0.4134212030307838</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07989882369132389</v>
+        <v>0.08084997550771354</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.005021078600237607</v>
+        <v>-0.002435296031329378</v>
       </c>
       <c r="P185" t="n">
-        <v>0.6199205660667747</v>
+        <v>0.6417788471589241</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.07834205379808147</v>
+        <v>0.08035043514982512</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.004974394510820213</v>
+        <v>-0.002469797842225494</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.05964743644029183</v>
+        <v>0.05965633287106119</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07973163370083781</v>
+        <v>0.07954804690752294</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.003504524656835703</v>
+        <v>-0.004094632166386312</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1666434590304697</v>
+        <v>0.1759901288500317</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08137976890665187</v>
+        <v>0.08099729642057921</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.003892879188868594</v>
+        <v>-0.004345733660783131</v>
       </c>
       <c r="M186" t="n">
-        <v>0.4069454233853136</v>
+        <v>0.4136401118438616</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08069781192823713</v>
+        <v>0.08165847526279067</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.005021078600237607</v>
+        <v>-0.002435296031329378</v>
       </c>
       <c r="P186" t="n">
-        <v>0.6205555289468918</v>
+        <v>0.6423528184875289</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.07912547433606228</v>
+        <v>0.08115393950132338</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.004974394510820213</v>
+        <v>-0.002469797842225494</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.05969529260742691</v>
+        <v>0.05970032458457024</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0805210558166877</v>
+        <v>0.08033565133234991</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.003246348801644117</v>
+        <v>-0.004095860678887477</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1668420369160919</v>
+        <v>0.1761546276609863</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08218550919285633</v>
+        <v>0.08179924985048592</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.003892879188868594</v>
+        <v>-0.004345733660783131</v>
       </c>
       <c r="M187" t="n">
-        <v>0.4073400574803678</v>
+        <v>0.4136576279376541</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08149680016515037</v>
+        <v>0.08246697501786782</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.005021078600237607</v>
+        <v>-0.002435296031329378</v>
       </c>
       <c r="P187" t="n">
-        <v>0.6215158158692512</v>
+        <v>0.6427807516698003</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.0799088948740431</v>
+        <v>0.08195744385282162</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.004974394510820213</v>
+        <v>-0.002469797842225494</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.05972746837951881</v>
+        <v>0.05973807523308064</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08131047793253758</v>
+        <v>0.08112325575717687</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.003246348801644117</v>
+        <v>-0.004150548775622457</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1669764643095922</v>
+        <v>0.1761645525299672</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08299124947906082</v>
+        <v>0.08260120328039265</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.003887951575840243</v>
+        <v>-0.004461572972386803</v>
       </c>
       <c r="M188" t="n">
-        <v>0.4077820499199969</v>
+        <v>0.4138676373474196</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08229578840206361</v>
+        <v>0.08327547477294495</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.005109939693062733</v>
+        <v>-0.002330009785561242</v>
       </c>
       <c r="P188" t="n">
-        <v>0.6224532377047615</v>
+        <v>0.643329786936887</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08069231541202392</v>
+        <v>0.08276094820431987</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.005083429802027026</v>
+        <v>-0.002401238009931752</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.05978536579041685</v>
+        <v>0.05976981216168327</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08209990004838745</v>
+        <v>0.08191086018200382</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.003246348801644117</v>
+        <v>-0.004150963830500019</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1671339667999709</v>
+        <v>0.1762440928091894</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08379698976526528</v>
+        <v>0.08340315671029938</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.003887951575840243</v>
+        <v>-0.004461572972386803</v>
       </c>
       <c r="M189" t="n">
-        <v>0.4080459125667061</v>
+        <v>0.413818452220967</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08309477663897685</v>
+        <v>0.08408397452802208</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.005109939693062733</v>
+        <v>-0.002330009785561242</v>
       </c>
       <c r="P189" t="n">
-        <v>0.6232801845710489</v>
+        <v>0.6434090965857305</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08147573595000472</v>
+        <v>0.08356445255581813</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.005083429802027026</v>
+        <v>-0.002401238009931752</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.05984440371917972</v>
+        <v>0.05983732706225102</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08288932216423733</v>
+        <v>0.08269846460683078</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.003246024199224194</v>
+        <v>-0.004151378885377582</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1673361811612103</v>
+        <v>0.1762453507213136</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08460273005146976</v>
+        <v>0.08420511014020611</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.003887951575840243</v>
+        <v>-0.004461572972386803</v>
       </c>
       <c r="M190" t="n">
-        <v>0.4084090083685173</v>
+        <v>0.413960455777339</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08389376487589009</v>
+        <v>0.08489247428309922</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.005109939693062733</v>
+        <v>-0.002330009785561242</v>
       </c>
       <c r="P190" t="n">
-        <v>0.6240880722616605</v>
+        <v>0.6437521259939538</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08225915648798554</v>
+        <v>0.08436795690731638</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.005083429802027026</v>
+        <v>-0.002401238009931752</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.05987994075911995</v>
+        <v>0.05988279611207344</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08367874428008722</v>
+        <v>0.08348606903165774</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.003246024199224194</v>
+        <v>-0.004150963830500019</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1675613140554065</v>
+        <v>0.1762666191430512</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08540847033767424</v>
+        <v>0.08500706357011283</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.003887951575840243</v>
+        <v>-0.004461572972386803</v>
       </c>
       <c r="M191" t="n">
-        <v>0.4085164279467552</v>
+        <v>0.4140235016649553</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08469275311280333</v>
+        <v>0.08570097403817635</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.005109939693062733</v>
+        <v>-0.002330009785561242</v>
       </c>
       <c r="P191" t="n">
-        <v>0.6248894047812189</v>
+        <v>0.6440908245703977</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08304257702596636</v>
+        <v>0.08517146125881463</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.005083429802027026</v>
+        <v>-0.002401238009931752</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.05995825209531112</v>
+        <v>0.05993085844034136</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08446816639593709</v>
+        <v>0.0842736734564847</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.003080677927091981</v>
+        <v>-0.004127469871790617</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1677439602532421</v>
+        <v>0.1762415582326994</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08621421062387871</v>
+        <v>0.08580901700001956</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.003858206597885664</v>
+        <v>-0.004437160867904633</v>
       </c>
       <c r="M192" t="n">
-        <v>0.4088914713521196</v>
+        <v>0.4140295924071768</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08549174134971657</v>
+        <v>0.08650947379325349</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.005078465708949926</v>
+        <v>-0.002314839569662725</v>
       </c>
       <c r="P192" t="n">
-        <v>0.6255972166836224</v>
+        <v>0.6445145385247666</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08382599756394718</v>
+        <v>0.08597496561031288</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.005049505134309415</v>
+        <v>-0.002380412760554967</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06000508616250516</v>
+        <v>0.05996484276353645</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08525758851178697</v>
+        <v>0.08506127788131167</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.003081602222899689</v>
+        <v>-0.004127882660056622</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1678838599936194</v>
+        <v>0.1762154196800788</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08701995091008319</v>
+        <v>0.08661097042992628</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.003858206597885664</v>
+        <v>-0.004437160867904633</v>
       </c>
       <c r="M193" t="n">
-        <v>0.409087769254021</v>
+        <v>0.413979165812723</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0862907295866298</v>
+        <v>0.08731797354833062</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.005078465708949926</v>
+        <v>-0.002314839569662725</v>
       </c>
       <c r="P193" t="n">
-        <v>0.626298748630966</v>
+        <v>0.6448442926806234</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.084609418101928</v>
+        <v>0.08677846996181113</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.005049505134309415</v>
+        <v>-0.002380412760554967</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06005387286986096</v>
+        <v>0.06003426411095057</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08604701062763685</v>
+        <v>0.08584888230613863</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.003080677927091981</v>
+        <v>-0.004128708236588633</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1681115933672034</v>
+        <v>0.1762108317097638</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08782569119628766</v>
+        <v>0.087412923859833</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.003858206597885664</v>
+        <v>-0.004437160867904633</v>
       </c>
       <c r="M194" t="n">
-        <v>0.4092734037467757</v>
+        <v>0.413985006275563</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08708971782354305</v>
+        <v>0.08812647330340777</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.005078465708949926</v>
+        <v>-0.002314839569662725</v>
       </c>
       <c r="P194" t="n">
-        <v>0.6273447089926635</v>
+        <v>0.645348433687516</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08539283863990881</v>
+        <v>0.08758197431330939</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.005049505134309415</v>
+        <v>-0.002380412760554967</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06011308405749181</v>
+        <v>0.06008935804266022</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08683643274348674</v>
+        <v>0.08663648673096558</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.003080677927091981</v>
+        <v>-0.004127469871790617</v>
       </c>
       <c r="J195" t="n">
-        <v>0.168230804043875</v>
+        <v>0.1762277997646916</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08863143148249213</v>
+        <v>0.08821487728973972</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.003858206597885664</v>
+        <v>-0.004437160867904633</v>
       </c>
       <c r="M195" t="n">
-        <v>0.4092810841337967</v>
+        <v>0.4139907225380004</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08788870606045629</v>
+        <v>0.0889349730584849</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.005078465708949926</v>
+        <v>-0.002314839569662725</v>
       </c>
       <c r="P195" t="n">
-        <v>0.628033513650024</v>
+        <v>0.6456688526018167</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08617625917788962</v>
+        <v>0.08838547866480763</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.005049505134309415</v>
+        <v>-0.002380412760554967</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06019090003330101</v>
+        <v>0.06012996682853658</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0876258548593366</v>
+        <v>0.08742409115579254</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.00298216444458232</v>
+        <v>-0.004070875273475739</v>
       </c>
       <c r="J196" t="n">
-        <v>0.168459502170837</v>
+        <v>0.1762437088035563</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0894371717686966</v>
+        <v>0.08901683071964644</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.003802601125947712</v>
+        <v>-0.004360688621075306</v>
       </c>
       <c r="M196" t="n">
-        <v>0.4095587738575422</v>
+        <v>0.4138835270390365</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08868769429736952</v>
+        <v>0.08974347281356203</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.004951309671928873</v>
+        <v>-0.002307026346069868</v>
       </c>
       <c r="P196" t="n">
-        <v>0.6286276863260098</v>
+        <v>0.645894832481142</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08695967971587044</v>
+        <v>0.08918898301630589</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.004940152014040985</v>
+        <v>-0.002364869103872293</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06025402478354584</v>
+        <v>0.06018911314003265</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08841527697518649</v>
+        <v>0.0882116955806195</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.002982462661026778</v>
+        <v>-0.004070875273475739</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1686447791622169</v>
+        <v>0.1761907081173127</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09024291205490108</v>
+        <v>0.08981878414955317</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.003802601125947712</v>
+        <v>-0.004360688621075306</v>
       </c>
       <c r="M197" t="n">
-        <v>0.4097154649079006</v>
+        <v>0.4139453896155364</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08948668253428277</v>
+        <v>0.09055197256863917</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.004951309671928873</v>
+        <v>-0.002307026346069868</v>
       </c>
       <c r="P197" t="n">
-        <v>0.6296545260654141</v>
+        <v>0.6460261748894137</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08774310025385125</v>
+        <v>0.08999248736780414</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.004940152014040985</v>
+        <v>-0.002364869103872293</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06031059578240555</v>
+        <v>0.06024180231390601</v>
       </c>
       <c r="G198" t="n">
-        <v>0.08920469909103637</v>
+        <v>0.08899930000544647</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.00298216444458232</v>
+        <v>-0.004069654255097373</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1688520161590151</v>
+        <v>0.1762045212784569</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09104865234110555</v>
+        <v>0.0906207375794599</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.003802601125947712</v>
+        <v>-0.004360688621075306</v>
       </c>
       <c r="M198" t="n">
-        <v>0.4099195158016007</v>
+        <v>0.4138943402079176</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09028567077119599</v>
+        <v>0.0913604723237163</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.004951309671928873</v>
+        <v>-0.002307026346069868</v>
       </c>
       <c r="P198" t="n">
-        <v>0.6301467517639011</v>
+        <v>0.6466005371831426</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.08852652079183207</v>
+        <v>0.09079599171930239</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.004940152014040985</v>
+        <v>-0.002364869103872293</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06036877504773767</v>
+        <v>0.06032943128816336</v>
       </c>
       <c r="G199" t="n">
-        <v>0.08999412120688625</v>
+        <v>0.08978690443027343</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.002981866228137861</v>
+        <v>-0.004070061261223495</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1689935211224554</v>
+        <v>0.1761720608408869</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09185439262731003</v>
+        <v>0.09142269100936662</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.003802601125947712</v>
+        <v>-0.004360688621075306</v>
       </c>
       <c r="M199" t="n">
-        <v>0.4100594893800763</v>
+        <v>0.4138995628561881</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09108465900810925</v>
+        <v>0.09216897207879345</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.004951309671928873</v>
+        <v>-0.002307026346069868</v>
       </c>
       <c r="P199" t="n">
-        <v>0.630895732995562</v>
+        <v>0.6466318739401501</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.08930994132981289</v>
+        <v>0.09159949607080063</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.004940152014040985</v>
+        <v>-0.002364869103872293</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06042843041409565</v>
+        <v>0.06036880690172579</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09078354332273612</v>
+        <v>0.09057450885510039</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.002896685971559376</v>
+        <v>-0.003984591643811662</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1691566486616115</v>
+        <v>0.1761611881941755</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09266013291351449</v>
+        <v>0.09222464443927335</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.003725696305202156</v>
+        <v>-0.004238508790908212</v>
       </c>
       <c r="M200" t="n">
-        <v>0.4101358540173839</v>
+        <v>0.4140174556564197</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09188364724502247</v>
+        <v>0.09297747183387058</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.004743196710447102</v>
+        <v>-0.002301620746774107</v>
       </c>
       <c r="P200" t="n">
-        <v>0.6319019826693425</v>
+        <v>0.6471062623560676</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09009336186779369</v>
+        <v>0.09240300042229889</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.004768846852607075</v>
+        <v>-0.002351908075352079</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.0604977571819942</v>
+        <v>0.06045954054769222</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09157296543858601</v>
+        <v>0.09136211327992734</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.002897265308753688</v>
+        <v>-0.003985388562140424</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1693413041761953</v>
+        <v>0.1761719068958569</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09346587319971898</v>
+        <v>0.09302659786918008</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.003725696305202156</v>
+        <v>-0.004238508790908212</v>
       </c>
       <c r="M201" t="n">
-        <v>0.4102051030554855</v>
+        <v>0.413966038999905</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09268263548193571</v>
+        <v>0.09378597158894771</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.004743196710447102</v>
+        <v>-0.002301620746774107</v>
       </c>
       <c r="P201" t="n">
-        <v>0.6323717865182412</v>
+        <v>0.6474856527318958</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09087678240577451</v>
+        <v>0.09320650477379715</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.004768846852607075</v>
+        <v>-0.002351908075352079</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06057664445929976</v>
+        <v>0.0605266768680456</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09236238755443589</v>
+        <v>0.0921497177047543</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.002897265308753688</v>
+        <v>-0.003984193184647281</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1695913023516838</v>
+        <v>0.1761363789769875</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09427161348592344</v>
+        <v>0.09382855129908681</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.003725696305202156</v>
+        <v>-0.004238508790908212</v>
       </c>
       <c r="M202" t="n">
-        <v>0.4104358460111682</v>
+        <v>0.4140836914029649</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09348162371884897</v>
+        <v>0.09459447134402484</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.004743196710447102</v>
+        <v>-0.002301620746774107</v>
       </c>
       <c r="P202" t="n">
-        <v>0.6332751737938522</v>
+        <v>0.6475903332208849</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09166020294375532</v>
+        <v>0.09401000912529539</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.004768846852607075</v>
+        <v>-0.002351908075352079</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06064829879382937</v>
+        <v>0.06057003078426806</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09315180967028576</v>
+        <v>0.09293732212958125</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.002897265308753688</v>
+        <v>-0.003984193184647281</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1697089003542189</v>
+        <v>0.176145068289408</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09507735377212793</v>
+        <v>0.09463050472899352</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.00362975853576926</v>
+        <v>-0.004238508790908212</v>
       </c>
       <c r="M203" t="n">
-        <v>0.410492434576872</v>
+        <v>0.4139756346444756</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09428061195576219</v>
+        <v>0.09540297109910197</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.004743196710447102</v>
+        <v>-0.002301620746774107</v>
       </c>
       <c r="P203" t="n">
-        <v>0.6339059440930433</v>
+        <v>0.6477790937391251</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09244362348173614</v>
+        <v>0.09481351347679365</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.004768846852607075</v>
+        <v>-0.002351908075352079</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06072926480303908</v>
+        <v>0.0606394646070187</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09394123178613564</v>
+        <v>0.09372492655440821</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.002825111203979117</v>
+        <v>-0.003871313397595019</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1699135320103146</v>
+        <v>0.176152751491752</v>
       </c>
       <c r="K204" t="n">
-        <v>0.0958830940583324</v>
+        <v>0.09543245815890025</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.00362975853576926</v>
+        <v>-0.004080526918631715</v>
       </c>
       <c r="M204" t="n">
-        <v>0.4104873880665297</v>
+        <v>0.4140366497111054</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09507960019267543</v>
+        <v>0.09621147085417911</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.004474764953107923</v>
+        <v>-0.002296218949872733</v>
       </c>
       <c r="P204" t="n">
-        <v>0.6347940616939165</v>
+        <v>0.6481417284578322</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09322704401971696</v>
+        <v>0.09561701782829191</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.004546726861431091</v>
+        <v>-0.002341445409141546</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06080272034667365</v>
+        <v>0.06070987024753477</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09473065390198553</v>
+        <v>0.09451253097923518</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.002824546294720173</v>
+        <v>-0.003871700567651784</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1700732088622334</v>
+        <v>0.1761368259430119</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09668883434453686</v>
+        <v>0.09623441158880698</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.00362975853576926</v>
+        <v>-0.004080526918631715</v>
       </c>
       <c r="M205" t="n">
-        <v>0.4107015105251951</v>
+        <v>0.4140975457208237</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09587858842958867</v>
+        <v>0.09701997060925624</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.004474764953107923</v>
+        <v>-0.002296218949872733</v>
       </c>
       <c r="P205" t="n">
-        <v>0.6353202764186664</v>
+        <v>0.648498612335291</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09401046455769776</v>
+        <v>0.09642052217979014</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.004546726861431091</v>
+        <v>-0.002341445409141546</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06086014804203473</v>
+        <v>0.06078112303790457</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0955200760178354</v>
+        <v>0.09530013540406214</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.002824546294720173</v>
+        <v>-0.003871313397595019</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1702978099457794</v>
+        <v>0.1760973032392252</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09749457463074135</v>
+        <v>0.09703636501871371</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.00362975853576926</v>
+        <v>-0.004080526918631715</v>
       </c>
       <c r="M206" t="n">
-        <v>0.41085506053635</v>
+        <v>0.4141019241483035</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09667757666650191</v>
+        <v>0.09782847036433338</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.004474764953107923</v>
+        <v>-0.002296218949872733</v>
       </c>
       <c r="P206" t="n">
-        <v>0.6359265958211825</v>
+        <v>0.6485800373830158</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09479388509567858</v>
+        <v>0.09722402653128839</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.004546726861431091</v>
+        <v>-0.002341445409141546</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06095159811967751</v>
+        <v>0.06086982421211848</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09630949813368528</v>
+        <v>0.0960877398288891</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.002824546294720173</v>
+        <v>-0.003872474907765315</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1704550737654349</v>
+        <v>0.1760341955687582</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09830031491694581</v>
+        <v>0.09783831844862041</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.00362975853576926</v>
+        <v>-0.004080526918631715</v>
       </c>
       <c r="M207" t="n">
-        <v>0.4107802670024959</v>
+        <v>0.4139369854265343</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09747656490341516</v>
+        <v>0.09863697011941051</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.004161417326216404</v>
+        <v>-0.002296218949872733</v>
       </c>
       <c r="P207" t="n">
-        <v>0.6368790801716436</v>
+        <v>0.6488351294468884</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.0955773056336594</v>
+        <v>0.09802753088278665</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.004546726861431091</v>
+        <v>-0.002341445409141546</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06100999965291148</v>
+        <v>0.06093404160554403</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09709892024953516</v>
+        <v>0.09687534425371606</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.002760551140314815</v>
+        <v>-0.003739557886403802</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1706329423824566</v>
+        <v>0.1760153270847507</v>
       </c>
       <c r="K208" t="n">
-        <v>0.0991060552031503</v>
+        <v>0.09864027187852714</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.003518540010693608</v>
+        <v>-0.003894383084740371</v>
       </c>
       <c r="M208" t="n">
-        <v>0.4108701797108669</v>
+        <v>0.4141103240250547</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09827555314032839</v>
+        <v>0.09944546987448766</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.004161417326216404</v>
+        <v>-0.002292788501239569</v>
       </c>
       <c r="P208" t="n">
-        <v>0.6375572186061492</v>
+        <v>0.6493538537341481</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09636072617164021</v>
+        <v>0.09883103523428489</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.004285862788728748</v>
+        <v>-0.002333848294394617</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06111060629245631</v>
+        <v>0.06100709514335859</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09788834236538504</v>
+        <v>0.09766294867854301</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.002759999085292255</v>
+        <v>-0.0037388100496102</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1708533998709202</v>
+        <v>0.1760180914751607</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09991179548935476</v>
+        <v>0.09944222530843387</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.003518540010693608</v>
+        <v>-0.003894383084740371</v>
       </c>
       <c r="M209" t="n">
-        <v>0.4109570860435484</v>
+        <v>0.4140579461662252</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09907454137724163</v>
+        <v>0.1002539696295648</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.004161417326216404</v>
+        <v>-0.002292788501239569</v>
       </c>
       <c r="P209" t="n">
-        <v>0.6382266544423244</v>
+        <v>0.6494167900626163</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09714414670962103</v>
+        <v>0.09963453958578315</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.004285862788728748</v>
+        <v>-0.002333848294394617</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.06117785591232237</v>
+        <v>0.06108049719423136</v>
       </c>
       <c r="G210" t="n">
-        <v>0.09867776448123493</v>
+        <v>0.09845055310336998</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.002760275112803535</v>
+        <v>-0.003739557886403802</v>
       </c>
       <c r="J210" t="n">
-        <v>0.171005908873769</v>
+        <v>0.1760424893174681</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1007175357755592</v>
+        <v>0.1002441787383406</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.003518540010693608</v>
+        <v>-0.003894383084740371</v>
       </c>
       <c r="M210" t="n">
-        <v>0.4110414962562121</v>
+        <v>0.4141182507525287</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09987352961415487</v>
+        <v>0.1010624693846419</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.004161417326216404</v>
+        <v>-0.002292788501239569</v>
       </c>
       <c r="P210" t="n">
-        <v>0.6387983554901374</v>
+        <v>0.6496532300911728</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.09792756724760183</v>
+        <v>0.1004380439372814</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.004285862788728748</v>
+        <v>-0.002333848294394617</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06125353265705501</v>
+        <v>0.06115412307778263</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0994671865970848</v>
+        <v>0.09923815752819694</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.002759999085292255</v>
+        <v>-0.0037388100496102</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1711343939444176</v>
+        <v>0.1759529352962063</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1015232760617637</v>
+        <v>0.1010461321682473</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.003518540010693608</v>
+        <v>-0.003894383084740371</v>
       </c>
       <c r="M211" t="n">
-        <v>0.4112361566122509</v>
+        <v>0.4139528349726433</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1006725178510681</v>
+        <v>0.1018709691397191</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.004161417326216404</v>
+        <v>-0.002292788501239569</v>
       </c>
       <c r="P211" t="n">
-        <v>0.639360901173139</v>
+        <v>0.6499732220847343</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.09871098778558265</v>
+        <v>0.1012415482887797</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.004285862788728748</v>
+        <v>-0.002333848294394617</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.0613123008814232</v>
+        <v>0.06121944852399636</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1002566087129347</v>
+        <v>0.1000257619530239</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.002705163459423965</v>
+        <v>-0.003588611773672018</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1713271851359954</v>
+        <v>0.1759528272637922</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1023290163479682</v>
+        <v>0.101848085598154</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.003395022483902603</v>
+        <v>-0.003685842997014147</v>
       </c>
       <c r="M212" t="n">
-        <v>0.4113171215432605</v>
+        <v>0.4140129051356999</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1014715060879813</v>
+        <v>0.1026794688947962</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.003821474122785566</v>
+        <v>-0.002290305392957375</v>
       </c>
       <c r="P212" t="n">
-        <v>0.6399141330050979</v>
+        <v>0.6501066958184993</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.09949440832356347</v>
+        <v>0.1020450526402779</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.003997010738674132</v>
+        <v>-0.002326445008859832</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06138764931202313</v>
+        <v>0.06130995458098872</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1010460308287846</v>
+        <v>0.1008133663778509</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.002705163459423965</v>
+        <v>-0.003588970598966856</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1714735373505908</v>
+        <v>0.1759743657570296</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1031347566341727</v>
+        <v>0.1026500390280608</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.003395022483902603</v>
+        <v>-0.003685842997014147</v>
       </c>
       <c r="M213" t="n">
-        <v>0.411340986829494</v>
+        <v>0.4140728594499428</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1022704943248946</v>
+        <v>0.1034879686498733</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.003821474122785566</v>
+        <v>-0.002290305392957375</v>
       </c>
       <c r="P213" t="n">
-        <v>0.6405469561662429</v>
+        <v>0.650233478656822</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1002778288615443</v>
+        <v>0.1028485569917762</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.003997010738674132</v>
+        <v>-0.002326445008859832</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06146264363386238</v>
+        <v>0.06138351123522692</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1018354529446344</v>
+        <v>0.1016009708026778</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.002705163459423965</v>
+        <v>-0.00358825294837718</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1717061971228968</v>
+        <v>0.1759497785594253</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1039404969203771</v>
+        <v>0.1034519924579675</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.003395022483902603</v>
+        <v>-0.003685842997014147</v>
       </c>
       <c r="M214" t="n">
-        <v>0.4115328071770407</v>
+        <v>0.4139634923353537</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1030694825618078</v>
+        <v>0.1042964684049505</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.003821474122785566</v>
+        <v>-0.002290305392957375</v>
       </c>
       <c r="P214" t="n">
-        <v>0.6414376511930364</v>
+        <v>0.6506236274323631</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1010612493995251</v>
+        <v>0.1036520613432744</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.003997010738674132</v>
+        <v>-0.002326445008859832</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06153715216786623</v>
+        <v>0.06144837133117773</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1026248750604843</v>
+        <v>0.1023885752275048</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.002654113042670159</v>
+        <v>-0.003588970598966856</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1718699335463822</v>
+        <v>0.175901675147718</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1047462372065816</v>
+        <v>0.1042539458878742</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.003395022483902603</v>
+        <v>-0.003685842997014147</v>
       </c>
       <c r="M215" t="n">
-        <v>0.4114439644677669</v>
+        <v>0.4141360197637606</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1038684707987211</v>
+        <v>0.1051049681600276</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.003821474122785566</v>
+        <v>-0.002287750009221107</v>
       </c>
       <c r="P215" t="n">
-        <v>0.6419622980550306</v>
+        <v>0.6509169271208773</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1018446699375059</v>
+        <v>0.1044555656947727</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.003997010738674132</v>
+        <v>-0.002326445008859832</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06163635949403108</v>
+        <v>0.06151281724298314</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1034142971763342</v>
+        <v>0.1031761796523317</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.002653847684437538</v>
+        <v>-0.00342642918373252</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1720310451017916</v>
+        <v>0.175875240802536</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1055519774927861</v>
+        <v>0.1050558993177809</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.003261202368494691</v>
+        <v>-0.003464563272789567</v>
       </c>
       <c r="M216" t="n">
-        <v>0.4116925874108334</v>
+        <v>0.4140264206151789</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1046674590356343</v>
+        <v>0.1059134679151047</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.003473488119211259</v>
+        <v>-0.002287750009221107</v>
       </c>
       <c r="P216" t="n">
-        <v>0.6424769928512316</v>
+        <v>0.651023116125438</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1026280904754867</v>
+        <v>0.1052590700462709</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.00369263798257024</v>
+        <v>-0.002320066509437768</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06169263122401605</v>
+        <v>0.06160203292857426</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1042037192921841</v>
+        <v>0.1039637840771587</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.002653582326204918</v>
+        <v>-0.003426086575075012</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1721671670685366</v>
+        <v>0.1758027268215728</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1063577177789905</v>
+        <v>0.1058578527476877</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.003261202368494691</v>
+        <v>-0.003464563272789567</v>
       </c>
       <c r="M217" t="n">
-        <v>0.4117738363119727</v>
+        <v>0.4140295112312793</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1054664472725475</v>
+        <v>0.1067219676701819</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.003473488119211259</v>
+        <v>-0.002287750009221107</v>
       </c>
       <c r="P217" t="n">
-        <v>0.6431601915141073</v>
+        <v>0.6511221979949766</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1034115110134675</v>
+        <v>0.1060625743977692</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.00369263798257024</v>
+        <v>-0.002320066509437768</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06175644625211793</v>
+        <v>0.06165685509107334</v>
       </c>
       <c r="G218" t="n">
-        <v>0.104993141408034</v>
+        <v>0.1047513885019857</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.002653847684437538</v>
+        <v>-0.003426771792390027</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1722781026072658</v>
+        <v>0.1758196352097682</v>
       </c>
       <c r="K218" t="n">
-        <v>0.107163458065195</v>
+        <v>0.1066598061775944</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.003261202368494691</v>
+        <v>-0.003464563272789567</v>
       </c>
       <c r="M218" t="n">
-        <v>0.4117443227497422</v>
+        <v>0.4141452938896814</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1062654355094608</v>
+        <v>0.107530467425259</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.003473488119211259</v>
+        <v>-0.002287750009221107</v>
       </c>
       <c r="P218" t="n">
-        <v>0.6435652587954943</v>
+        <v>0.6513943304457163</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1041949315514484</v>
+        <v>0.1068660787492674</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.00369263798257024</v>
+        <v>-0.002320066509437768</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06185307610508683</v>
+        <v>0.06172777604957669</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1057825635238838</v>
+        <v>0.1055389929268126</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.002653847684437538</v>
+        <v>-0.003425743966417504</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1724303925149189</v>
+        <v>0.1757904776008389</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1079691983513995</v>
+        <v>0.1074617596075011</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.003121737109955152</v>
+        <v>-0.003464563272789567</v>
       </c>
       <c r="M219" t="n">
-        <v>0.411941603726555</v>
+        <v>0.4140353495211152</v>
       </c>
       <c r="N219" t="n">
-        <v>0.107064423746374</v>
+        <v>0.1083389671803361</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.003473488119211259</v>
+        <v>-0.002287750009221107</v>
       </c>
       <c r="P219" t="n">
-        <v>0.6442280511386622</v>
+        <v>0.6513887757683278</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1049783520894292</v>
+        <v>0.1076695831007656</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.00369263798257024</v>
+        <v>-0.002320066509437768</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06192320154721855</v>
+        <v>0.061823171098516</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1065719856397337</v>
+        <v>0.1063265973516396</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002604577818123235</v>
+        <v>-0.003254132811651435</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1726017177924881</v>
+        <v>0.1757829996611927</v>
       </c>
       <c r="K220" t="n">
-        <v>0.108774938637604</v>
+        <v>0.1082637130374079</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.003121737109955152</v>
+        <v>-0.003237173139349681</v>
       </c>
       <c r="M220" t="n">
-        <v>0.4118605680296137</v>
+        <v>0.414038098041182</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1078634119832873</v>
+        <v>0.1091474669354133</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.003134795244823572</v>
+        <v>-0.002284791072233843</v>
       </c>
       <c r="P220" t="n">
-        <v>0.6447910038585557</v>
+        <v>0.6517364282716079</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.10576177262741</v>
+        <v>0.1084730874522639</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.00338395682209304</v>
+        <v>-0.002313442728518657</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06198357642923308</v>
+        <v>0.06188372735819661</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1073614077555836</v>
+        <v>0.1071142017764665</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002604838301953431</v>
+        <v>-0.003254132811651435</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1727474224866115</v>
+        <v>0.1757294868545307</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1095806789238084</v>
+        <v>0.1090656664673146</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.003121737109955152</v>
+        <v>-0.003237173139349681</v>
       </c>
       <c r="M221" t="n">
-        <v>0.4120635992761131</v>
+        <v>0.4141535415222437</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1086624002202005</v>
+        <v>0.1099559666904904</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.003134795244823572</v>
+        <v>-0.002284791072233843</v>
       </c>
       <c r="P221" t="n">
-        <v>0.6455223898725067</v>
+        <v>0.6519864759476347</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1065451931653908</v>
+        <v>0.1092765918037622</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.00338395682209304</v>
+        <v>-0.002313442728518657</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06205101091984601</v>
+        <v>0.06195159328206214</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1081508298714335</v>
+        <v>0.1079018062012935</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002604838301953431</v>
+        <v>-0.003255109149128678</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1728896016657751</v>
+        <v>0.1756976673558081</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1103864192100129</v>
+        <v>0.1098676198972213</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.003121737109955152</v>
+        <v>-0.003237173139349681</v>
       </c>
       <c r="M222" t="n">
-        <v>0.412101664677707</v>
+        <v>0.4140996602730352</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1094613884571137</v>
+        <v>0.1107644664455675</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.003134795244823572</v>
+        <v>-0.002284791072233843</v>
       </c>
       <c r="P222" t="n">
-        <v>0.6459744304626528</v>
+        <v>0.651958371644359</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.1073286137033716</v>
+        <v>0.1100800961552604</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.00338395682209304</v>
+        <v>-0.002313442728518657</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06211690588215073</v>
+        <v>0.06201818674681604</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1089402519872834</v>
+        <v>0.1086894106261205</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002605359269613821</v>
+        <v>-0.003254458257477182</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1730504079452</v>
+        <v>0.1756649741991441</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1111921594962174</v>
+        <v>0.110669573327128</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.003121737109955152</v>
+        <v>-0.003237173139349681</v>
       </c>
       <c r="M223" t="n">
-        <v>0.412256288443473</v>
+        <v>0.4141020707465816</v>
       </c>
       <c r="N223" t="n">
-        <v>0.110260376694027</v>
+        <v>0.1115729662006447</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002823147487473509</v>
+        <v>-0.002284791072233843</v>
       </c>
       <c r="P223" t="n">
-        <v>0.6465946880407817</v>
+        <v>0.6520127188566633</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1081120342413524</v>
+        <v>0.1108836005067587</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.00338395682209304</v>
+        <v>-0.002313442728518657</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06218962367911328</v>
+        <v>0.06207489876490918</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1097296741031332</v>
+        <v>0.1094770150509474</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002555561107931232</v>
+        <v>-0.00307808221207539</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1731404664197843</v>
+        <v>0.1756539750891989</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1119978997824219</v>
+        <v>0.1114715267570348</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002978024876131175</v>
+        <v>-0.00301177601375737</v>
       </c>
       <c r="M224" t="n">
-        <v>0.4124155807437523</v>
+        <v>0.4141607740892023</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1110593649309402</v>
+        <v>0.1123814659557218</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.002823147487473509</v>
+        <v>-0.002282238378338471</v>
       </c>
       <c r="P224" t="n">
-        <v>0.64684515545804</v>
+        <v>0.6521494580174757</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1088954547793332</v>
+        <v>0.1116871048582569</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.003081688296039074</v>
+        <v>-0.002304617246950674</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06223505009034895</v>
+        <v>0.06213856686608644</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1105190962189831</v>
+        <v>0.1102646194757744</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002555561107931232</v>
+        <v>-0.003079005729090715</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1732711548121693</v>
+        <v>0.1756195516329796</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1128036400686264</v>
+        <v>0.1122734801869415</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002978024876131175</v>
+        <v>-0.00301177601375737</v>
       </c>
       <c r="M225" t="n">
-        <v>0.41246757116671</v>
+        <v>0.4139937463044925</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1118583531678534</v>
+        <v>0.113189965710799</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.002823147487473509</v>
+        <v>-0.002282238378338471</v>
       </c>
       <c r="P225" t="n">
-        <v>0.647443012718553</v>
+        <v>0.6524587617504636</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1096788753173141</v>
+        <v>0.1124906092097552</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.003081688296039074</v>
+        <v>-0.002304617246950674</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.0622870238293967</v>
+        <v>0.06219209173056175</v>
       </c>
       <c r="G226" t="n">
-        <v>0.111308518334833</v>
+        <v>0.1110522239006013</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002555561107931232</v>
+        <v>-0.003078697890085607</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1733977173210557</v>
+        <v>0.1755391670580804</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1136093803548308</v>
+        <v>0.1130754336168482</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002978024876131175</v>
+        <v>-0.00301177601375737</v>
       </c>
       <c r="M226" t="n">
-        <v>0.4126377135269634</v>
+        <v>0.4139958218503861</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1126573414047667</v>
+        <v>0.1139984654658761</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.002823147487473509</v>
+        <v>-0.002282238378338471</v>
       </c>
       <c r="P226" t="n">
-        <v>0.6479397350773104</v>
+        <v>0.6526698505023298</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1104622958552949</v>
+        <v>0.1132941135612534</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.003081688296039074</v>
+        <v>-0.002304617246950674</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06235394414078517</v>
+        <v>0.06227784504651203</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1120979404506829</v>
+        <v>0.1118398283254283</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002505717934724585</v>
+        <v>-0.00307808221207539</v>
       </c>
       <c r="J227" t="n">
-        <v>0.173520003766171</v>
+        <v>0.175525601379639</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1144151206410353</v>
+        <v>0.1138773870467549</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002832883378454647</v>
+        <v>-0.00301177601375737</v>
       </c>
       <c r="M227" t="n">
-        <v>0.412701530307688</v>
+        <v>0.4141105975990934</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1134563296416799</v>
+        <v>0.1148069652209532</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.002823147487473509</v>
+        <v>-0.002282238378338471</v>
       </c>
       <c r="P227" t="n">
-        <v>0.6486045397808331</v>
+        <v>0.6525117997264969</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1112457163932757</v>
+        <v>0.1140976179127517</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.003081688296039074</v>
+        <v>-0.002304617246950674</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06242719590044102</v>
+        <v>0.06232770293423948</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1128873625665327</v>
+        <v>0.1126274327502553</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002505717934724585</v>
+        <v>-0.002904509104254338</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1736378639672424</v>
+        <v>0.1754886422231914</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1152208609272398</v>
+        <v>0.1146793404766616</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002832883378454647</v>
+        <v>-0.002796106765630559</v>
       </c>
       <c r="M228" t="n">
-        <v>0.412884566630385</v>
+        <v>0.4141688582725488</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1142553178785932</v>
+        <v>0.1156154649760304</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.002556041230888988</v>
+        <v>-0.002278389193545549</v>
       </c>
       <c r="P228" t="n">
-        <v>0.6488083208858291</v>
+        <v>0.652796812199515</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1120291369312565</v>
+        <v>0.1149011222642499</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002799136471901874</v>
+        <v>-0.002294635389284119</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06245552363934938</v>
+        <v>0.06238404309452049</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1136767846823826</v>
+        <v>0.1134150371750822</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002505968506518057</v>
+        <v>-0.002904218711422479</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1737959024490168</v>
+        <v>0.1754283074940223</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1160266012134442</v>
+        <v>0.1154812939065684</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002832883378454647</v>
+        <v>-0.002796106765630559</v>
       </c>
       <c r="M229" t="n">
-        <v>0.4129622487282705</v>
+        <v>0.4140013863668263</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1150543061155064</v>
+        <v>0.1164239647311075</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.002556041230888988</v>
+        <v>-0.002278389193545549</v>
       </c>
       <c r="P229" t="n">
-        <v>0.6492697055949049</v>
+        <v>0.6529832527541843</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1128125574692373</v>
+        <v>0.1157046266157482</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002799136471901874</v>
+        <v>-0.002294635389284119</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06251547221890046</v>
+        <v>0.06244675772239729</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1144662067982325</v>
+        <v>0.1142026415999092</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002505968506518057</v>
+        <v>-0.002904218711422479</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1738597049161638</v>
+        <v>0.1753671545650013</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1168323414996487</v>
+        <v>0.1162832473364751</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002832883378454647</v>
+        <v>-0.002796106765630559</v>
       </c>
       <c r="M230" t="n">
-        <v>0.4130476138013657</v>
+        <v>0.4141158337945406</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1158532943524196</v>
+        <v>0.1172324644861846</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.002556041230888988</v>
+        <v>-0.002278389193545549</v>
       </c>
       <c r="P230" t="n">
-        <v>0.6497190052584033</v>
+        <v>0.6528001176482904</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1135959780072181</v>
+        <v>0.1165081309672464</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002799136471901874</v>
+        <v>-0.002294635389284119</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06256430467661932</v>
+        <v>0.06248163782648904</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1152556289140824</v>
+        <v>0.1149902460247361</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002505968506518057</v>
+        <v>-0.002903637925758761</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1740081824602449</v>
+        <v>0.1753502605532736</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1176380817858532</v>
+        <v>0.1170852007663818</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002832883378454647</v>
+        <v>-0.002796106765630559</v>
       </c>
       <c r="M231" t="n">
-        <v>0.413253809290321</v>
+        <v>0.4141737667943658</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1166522825893329</v>
+        <v>0.1180409642412618</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.002556041230888988</v>
+        <v>-0.002278389193545549</v>
       </c>
       <c r="P231" t="n">
-        <v>0.6504261325080968</v>
+        <v>0.6528792827523701</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.114379398545199</v>
+        <v>0.1173116353187447</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002799136471901874</v>
+        <v>-0.002294635389284119</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06262748822192755</v>
+        <v>0.06252263310744058</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1160450510299323</v>
+        <v>0.1157778504495631</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002451165637979047</v>
+        <v>-0.002732606131651354</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1741292640597903</v>
+        <v>0.1753325463709622</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1184438220720577</v>
+        <v>0.1178871541962885</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002691877887917906</v>
+        <v>-0.002597380788429482</v>
       </c>
       <c r="M232" t="n">
-        <v>0.413412431268729</v>
+        <v>0.414118779061558</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1174512708262461</v>
+        <v>0.1188494639963389</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.002352230451300213</v>
+        <v>-0.0022745063231938</v>
       </c>
       <c r="P232" t="n">
-        <v>0.6505807046758092</v>
+        <v>0.6531304100358162</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1151628190831798</v>
+        <v>0.1181151396702429</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002547777473521677</v>
+        <v>-0.002281312926071064</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06265366408611389</v>
+        <v>0.06256963447323748</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1168344731457822</v>
+        <v>0.1165654548743901</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002450675502878471</v>
+        <v>-0.002732606131651354</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1741555150024034</v>
+        <v>0.1752464379049759</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1192495623582621</v>
+        <v>0.1186891076261953</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002691877887917906</v>
+        <v>-0.002597380788429482</v>
       </c>
       <c r="M233" t="n">
-        <v>0.4135239424614569</v>
+        <v>0.4140072765691187</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1182502590631594</v>
+        <v>0.119657963751416</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.002352230451300213</v>
+        <v>-0.0022745063231938</v>
       </c>
       <c r="P233" t="n">
-        <v>0.6512631069103874</v>
+        <v>0.6532825007549796</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1159462396211606</v>
+        <v>0.1189186440217412</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002547777473521677</v>
+        <v>-0.002281312926071064</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06270247385099192</v>
+        <v>0.06261399228736042</v>
       </c>
       <c r="G234" t="n">
-        <v>0.117623895261632</v>
+        <v>0.117353059299217</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002450920570428759</v>
+        <v>-0.002732606131651354</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1742436639534884</v>
+        <v>0.1752045929564455</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1200553026444666</v>
+        <v>0.119491061056102</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002691877887917906</v>
+        <v>-0.002597380788429482</v>
       </c>
       <c r="M234" t="n">
-        <v>0.4137579104089757</v>
+        <v>0.4141776983430941</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1190492473000726</v>
+        <v>0.1204664635064932</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.002352230451300213</v>
+        <v>-0.0022745063231938</v>
       </c>
       <c r="P234" t="n">
-        <v>0.6513921295923308</v>
+        <v>0.6532451129964897</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1167296601591414</v>
+        <v>0.1197221483732394</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002547777473521677</v>
+        <v>-0.002281312926071064</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.0627310715393912</v>
+        <v>0.06266412509923257</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1184133173774819</v>
+        <v>0.118140663724044</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002450920570428759</v>
+        <v>-0.002733425995477232</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1743487702756493</v>
+        <v>0.1752069932352192</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1208610429306711</v>
+        <v>0.1202930144860087</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002691877887917906</v>
+        <v>-0.002597380788429482</v>
       </c>
       <c r="M235" t="n">
-        <v>0.4138893993463456</v>
+        <v>0.4140659805332668</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1198482355369858</v>
+        <v>0.1212749632615703</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.002352230451300213</v>
+        <v>-0.0022745063231938</v>
       </c>
       <c r="P235" t="n">
-        <v>0.6520491467616257</v>
+        <v>0.6531987521840432</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1175130806971222</v>
+        <v>0.1205256527247377</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.002547777473521677</v>
+        <v>-0.002281312926071064</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06277351735306859</v>
+        <v>0.06271137276372275</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1192027394933318</v>
+        <v>0.1189282681488709</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002388389811114496</v>
+        <v>-0.002570675779768765</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1744482643218787</v>
+        <v>0.1751635630841846</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1216667832168756</v>
+        <v>0.1210949679159154</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002554707486567207</v>
+        <v>-0.002424406498945333</v>
       </c>
       <c r="M236" t="n">
-        <v>0.4140711260770742</v>
+        <v>0.4141797822560881</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1206472237738991</v>
+        <v>0.1220834630166475</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002224149006859091</v>
+        <v>-0.002268436020471073</v>
       </c>
       <c r="P236" t="n">
-        <v>0.6521519904622524</v>
+        <v>0.6532336391261461</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.118296501235103</v>
+        <v>0.1213291570762359</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.002337960038982636</v>
+        <v>-0.002263856550351068</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06280402985067433</v>
+        <v>0.06272995774056853</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1199921616091816</v>
+        <v>0.1197158725736979</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.002387912180915293</v>
+        <v>-0.002570418737894975</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1744970947594189</v>
+        <v>0.1751193547458036</v>
       </c>
       <c r="K237" t="n">
-        <v>0.12247252350308</v>
+        <v>0.1218969213458222</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002554707486567207</v>
+        <v>-0.002424406498945333</v>
       </c>
       <c r="M237" t="n">
-        <v>0.4143031140025859</v>
+        <v>0.4140114439912552</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1214462120108123</v>
+        <v>0.1228919627717246</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002224149006859091</v>
+        <v>-0.002268436020471073</v>
       </c>
       <c r="P237" t="n">
-        <v>0.6527829621291938</v>
+        <v>0.6532593530883735</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1190799217730838</v>
+        <v>0.1221326614277342</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.002337960038982636</v>
+        <v>-0.002263856550351068</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06283958629041779</v>
+        <v>0.06278815639792699</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1207815837250315</v>
+        <v>0.1205034769985249</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002388150996014895</v>
+        <v>-0.002570932821642554</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1745848953834136</v>
+        <v>0.175029364665434</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1232782637892845</v>
+        <v>0.1226988747757289</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002554707486567207</v>
+        <v>-0.002424406498945333</v>
       </c>
       <c r="M238" t="n">
-        <v>0.4146510654216325</v>
+        <v>0.4141250335611538</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1222452002477256</v>
+        <v>0.1237004625268017</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002224149006859091</v>
+        <v>-0.002268436020471073</v>
       </c>
       <c r="P238" t="n">
-        <v>0.6531298825276581</v>
+        <v>0.6532831257411211</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1198633423110646</v>
+        <v>0.1229361657792324</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.002337960038982636</v>
+        <v>-0.002263856550351068</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06284581642548731</v>
+        <v>0.06279176470595631</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1215710058408814</v>
+        <v>0.1212910814233518</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002317497421066762</v>
+        <v>-0.002570418737894975</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1746666290255919</v>
+        <v>0.174983629558281</v>
       </c>
       <c r="K239" t="n">
-        <v>0.124084004075489</v>
+        <v>0.1235008282056356</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002554707486567207</v>
+        <v>-0.002424406498945333</v>
       </c>
       <c r="M239" t="n">
-        <v>0.4148493241899198</v>
+        <v>0.4141257039816398</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1230441884846388</v>
+        <v>0.1245089622818789</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002224149006859091</v>
+        <v>-0.002268436020471073</v>
       </c>
       <c r="P239" t="n">
-        <v>0.6532831257411211</v>
+        <v>0.6533731693386139</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1206467628490455</v>
+        <v>0.1237396701307307</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.002337960038982636</v>
+        <v>-0.002263856550351068</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.0628739498648031</v>
+        <v>0.06283476203406145</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1223604279567313</v>
+        <v>0.1220786858481788</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002317265671324655</v>
+        <v>-0.002420071953730198</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1747196761478327</v>
+        <v>0.1749371368732968</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1248897443616935</v>
+        <v>0.1243027816355423</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002427051601742043</v>
+        <v>-0.002284586546411285</v>
       </c>
       <c r="M240" t="n">
-        <v>0.4151798408715813</v>
+        <v>0.4140698622598503</v>
       </c>
       <c r="N240" t="n">
-        <v>0.123843176721552</v>
+        <v>0.125317462036956</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002122861831762863</v>
+        <v>-0.002261888506140712</v>
       </c>
       <c r="P240" t="n">
-        <v>0.6535181844756653</v>
+        <v>0.6533639939721905</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1214301833870263</v>
+        <v>0.1245431744822289</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002175158576881194</v>
+        <v>-0.00224093041856157</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.06288961169190591</v>
+        <v>0.06286569041937112</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1231498500725812</v>
+        <v>0.1228662902730057</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002317265671324655</v>
+        <v>-0.002420556016527224</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1747663427687188</v>
+        <v>0.1749348759053795</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1256954846478979</v>
+        <v>0.1251047350654491</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.002427051601742043</v>
+        <v>-0.002284586546411285</v>
       </c>
       <c r="M241" t="n">
-        <v>0.4154162937252315</v>
+        <v>0.4141267297776711</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1246421649584653</v>
+        <v>0.1261259617920331</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002122861831762863</v>
+        <v>-0.002261888506140712</v>
       </c>
       <c r="P241" t="n">
-        <v>0.6540236585991502</v>
+        <v>0.6534129887465289</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1222136039250071</v>
+        <v>0.1253466788337272</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002175158576881194</v>
+        <v>-0.00224093041856157</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06288409944509686</v>
+        <v>0.06286729032453491</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1239392721884311</v>
+        <v>0.1236538946978327</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002317729170808868</v>
+        <v>-0.002420071953730198</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1747390502050117</v>
+        <v>0.1748419060416933</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1265012249341024</v>
+        <v>0.1259066884953558</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.002427051601742043</v>
+        <v>-0.002284586546411285</v>
       </c>
       <c r="M242" t="n">
-        <v>0.4157278549217676</v>
+        <v>0.4141834930675251</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1254411531953785</v>
+        <v>0.1269344615471103</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002122861831762863</v>
+        <v>-0.002261888506140712</v>
       </c>
       <c r="P242" t="n">
-        <v>0.6544373873444118</v>
+        <v>0.6533393832218146</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1229970244629879</v>
+        <v>0.1261501831852254</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002175158576881194</v>
+        <v>-0.00224093041856157</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.0629033519072265</v>
+        <v>0.06289937767246707</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1247286943042809</v>
+        <v>0.1244414991226596</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002317960920550975</v>
+        <v>-0.002420556016527224</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1748399336051021</v>
+        <v>0.1748324925513873</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1273069652203069</v>
+        <v>0.1267086419252625</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002427051601742043</v>
+        <v>-0.002284586546411285</v>
       </c>
       <c r="M243" t="n">
-        <v>0.4160576699010841</v>
+        <v>0.4140711260770742</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1262401414322918</v>
+        <v>0.1277429613021874</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002024277314842467</v>
+        <v>-0.002261888506140712</v>
       </c>
       <c r="P243" t="n">
-        <v>0.6546685850713667</v>
+        <v>0.6529631867700529</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1237804450009687</v>
+        <v>0.1269536875367237</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.002175158576881194</v>
+        <v>-0.00224093041856157</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06291181876460934</v>
+        <v>0.0628933142822013</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1255181164201308</v>
+        <v>0.1252291035474866</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002235914667977571</v>
+        <v>-0.002288040297203321</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1747991108920217</v>
+        <v>0.1747409664054356</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1281127055065114</v>
+        <v>0.1275105953551693</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002310389232597217</v>
+        <v>-0.002174124999543553</v>
       </c>
       <c r="M244" t="n">
-        <v>0.4162921210346446</v>
+        <v>0.4141838943154936</v>
       </c>
       <c r="N244" t="n">
-        <v>0.127039129669205</v>
+        <v>0.1285514610572645</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.002024277314842467</v>
+        <v>-0.002252263320541712</v>
       </c>
       <c r="P244" t="n">
-        <v>0.6548978085716307</v>
+        <v>0.6528268704384851</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1245638655389495</v>
+        <v>0.1277571918882219</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.002023108683398324</v>
+        <v>-0.002203519314385732</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06290837581360849</v>
+        <v>0.0629033519072265</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1263075385359807</v>
+        <v>0.1260167079723136</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002235691121220125</v>
+        <v>-0.002287354022369128</v>
       </c>
       <c r="J245" t="n">
-        <v>0.174863715608944</v>
+        <v>0.1746350709451434</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1289184457927158</v>
+        <v>0.128312548785076</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002310389232597217</v>
+        <v>-0.002174124999543553</v>
       </c>
       <c r="M245" t="n">
-        <v>0.4167706696986406</v>
+        <v>0.4141274039727911</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1278381179061182</v>
+        <v>0.1293599608123417</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.002024277314842467</v>
+        <v>-0.002252263320541712</v>
       </c>
       <c r="P245" t="n">
-        <v>0.6551248280759115</v>
+        <v>0.6529309095831231</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1253472860769304</v>
+        <v>0.1285606962397202</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.002023108683398324</v>
+        <v>-0.002203519314385732</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.0628938064186301</v>
+        <v>0.06292041130399451</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1270969606518306</v>
+        <v>0.1268043123971405</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002235467574462678</v>
+        <v>-0.002288040297203321</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1748591264130272</v>
+        <v>0.1746049990348605</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1297241860789203</v>
+        <v>0.1291145022149827</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002310389232597217</v>
+        <v>-0.002174124999543553</v>
       </c>
       <c r="M246" t="n">
-        <v>0.4171531587621712</v>
+        <v>0.4140788478552402</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1286371061430315</v>
+        <v>0.1301684605674188</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.002024277314842467</v>
+        <v>-0.002252263320541712</v>
       </c>
       <c r="P246" t="n">
-        <v>0.6554399669590636</v>
+        <v>0.6524634267540077</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1261307066149112</v>
+        <v>0.1293642005912184</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.002023108683398324</v>
+        <v>-0.002203519314385732</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06285964083287222</v>
+        <v>0.06290085308114701</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1278863827676805</v>
+        <v>0.1275919168219675</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.002235467574462678</v>
+        <v>-0.002287582780647192</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1748364816567752</v>
+        <v>0.1744714268466532</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1305299263651248</v>
+        <v>0.1299164556448894</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.002310389232597217</v>
+        <v>-0.002174124999543553</v>
       </c>
       <c r="M247" t="n">
-        <v>0.4174957605230118</v>
+        <v>0.413831631924595</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1294360943799447</v>
+        <v>0.1309769603224959</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.002024277314842467</v>
+        <v>-0.002252263320541712</v>
       </c>
       <c r="P247" t="n">
-        <v>0.6557525050979648</v>
+        <v>0.6524179606938829</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.126914127152892</v>
+        <v>0.1301677049427167</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.002023108683398324</v>
+        <v>-0.002203519314385732</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.06282325982180421</v>
+        <v>0.06290815008522947</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1286758048835303</v>
+        <v>0.1283795212467945</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.002143204120698161</v>
+        <v>-0.002171183058280225</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1748953411357043</v>
+        <v>0.1743470185375169</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1313356666513293</v>
+        <v>0.1307184090747961</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.002207143693027619</v>
+        <v>-0.002069039018698294</v>
       </c>
       <c r="M248" t="n">
-        <v>0.4178547935150295</v>
+        <v>0.4137829594564406</v>
       </c>
       <c r="N248" t="n">
-        <v>0.130235082616858</v>
+        <v>0.1317854600775731</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.001929595395569329</v>
+        <v>-0.002226183250052469</v>
       </c>
       <c r="P248" t="n">
-        <v>0.65633405799858</v>
+        <v>0.6519828875317437</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1276975476908728</v>
+        <v>0.1309712092942149</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.001876535016646594</v>
+        <v>-0.0021499230379498</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06279345850046168</v>
+        <v>0.06286532082446196</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1294652269993802</v>
+        <v>0.1291671256716214</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.002142561288028485</v>
+        <v>-0.002171617338319885</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1748147938299761</v>
+        <v>0.1742321014486997</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1321414069375337</v>
+        <v>0.1315203625047029</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.002207143693027619</v>
+        <v>-0.002069039018698294</v>
       </c>
       <c r="M249" t="n">
-        <v>0.4183435737261447</v>
+        <v>0.4134279000113251</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1310340708537712</v>
+        <v>0.1325939598326502</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.001929595395569329</v>
+        <v>-0.002226183250052469</v>
       </c>
       <c r="P249" t="n">
-        <v>0.6566407956250717</v>
+        <v>0.6517903808160241</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1284809682288536</v>
+        <v>0.1317747136457132</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.001876535016646594</v>
+        <v>-0.0021499230379498</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.06271916179451795</v>
+        <v>0.0628581858894831</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1302546491152301</v>
+        <v>0.1299547300964484</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.002142561288028485</v>
+        <v>-0.002171617338319885</v>
       </c>
       <c r="J250" t="n">
-        <v>0.174752533958879</v>
+        <v>0.1740821877625819</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1329471472237382</v>
+        <v>0.1323223159346096</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.002207143693027619</v>
+        <v>-0.002069039018698294</v>
       </c>
       <c r="M250" t="n">
-        <v>0.418734500700401</v>
+        <v>0.4129945362480001</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1318330590906844</v>
+        <v>0.1334024595877273</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.001929595395569329</v>
+        <v>-0.002226183250052469</v>
       </c>
       <c r="P250" t="n">
-        <v>0.6569442404928871</v>
+        <v>0.6516604798156296</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1292643887668344</v>
+        <v>0.1325782179972115</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.001876535016646594</v>
+        <v>-0.0021499230379498</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06266903190632182</v>
+        <v>0.06283552367973334</v>
       </c>
       <c r="G251" t="n">
-        <v>0.13104407123108</v>
+        <v>0.1307423345212753</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002040539380421434</v>
+        <v>-0.002171834478339715</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1746643288345792</v>
+        <v>0.173852912007919</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1337528875099427</v>
+        <v>0.1331242693645163</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.002207143693027619</v>
+        <v>-0.002069039018698294</v>
       </c>
       <c r="M251" t="n">
-        <v>0.41919772970213</v>
+        <v>0.4124853946156506</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1326320473275977</v>
+        <v>0.1342109593428045</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.001929595395569329</v>
+        <v>-0.002226183250052469</v>
       </c>
       <c r="P251" t="n">
-        <v>0.6569720433657594</v>
+        <v>0.6511431016631705</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1300478093048152</v>
+        <v>0.1333817223487097</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.001876535016646594</v>
+        <v>-0.0021499230379498</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06256642522222366</v>
+        <v>0.06277184777588968</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1318334933469299</v>
+        <v>0.1315299389461023</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.002040131313352056</v>
+        <v>-0.002058427616292418</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1745284607518712</v>
+        <v>0.1737237564756706</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1345586277961472</v>
+        <v>0.133926222794423</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.002107537430510247</v>
+        <v>-0.001967367481587027</v>
       </c>
       <c r="M252" t="n">
-        <v>0.41973305187136</v>
+        <v>0.4119592021025498</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1334310355645109</v>
+        <v>0.1350194590978816</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.00184148031841208</v>
+        <v>-0.002170991938733088</v>
       </c>
       <c r="P252" t="n">
-        <v>0.6574495944211373</v>
+        <v>0.6506896544290675</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.130831229842796</v>
+        <v>0.134185226700208</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.001734978774987102</v>
+        <v>-0.002081709925818233</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06247992255699883</v>
+        <v>0.06275288438864181</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1326229154627797</v>
+        <v>0.1323175433709292</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.002040743413956122</v>
+        <v>-0.002058221814691109</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1743905910686493</v>
+        <v>0.1734936536705812</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1353643680823516</v>
+        <v>0.1347281762243298</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.002107537430510247</v>
+        <v>-0.001967367481587027</v>
       </c>
       <c r="M253" t="n">
-        <v>0.4202832447291652</v>
+        <v>0.4114183040254447</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1342300238014242</v>
+        <v>0.1358279588529588</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.00184148031841208</v>
+        <v>-0.002170991938733088</v>
       </c>
       <c r="P253" t="n">
-        <v>0.6577417493321063</v>
+        <v>0.6504807129970722</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1316146503807769</v>
+        <v>0.1349887310517062</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.001734978774987102</v>
+        <v>-0.002081709925818233</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06238414945103936</v>
+        <v>0.0626847201961868</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1334123375786296</v>
+        <v>0.1331051477957562</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.002040743413956122</v>
+        <v>-0.0020580160130898</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1742289906646703</v>
+        <v>0.1733641848313642</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1361701083685561</v>
+        <v>0.1355301296542365</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.002107537430510247</v>
+        <v>-0.001967367481587027</v>
       </c>
       <c r="M254" t="n">
-        <v>0.4207908914136631</v>
+        <v>0.4108089284037213</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1350290120383374</v>
+        <v>0.1366364586080359</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.00184148031841208</v>
+        <v>-0.002170991938733088</v>
       </c>
       <c r="P254" t="n">
-        <v>0.6580296902602567</v>
+        <v>0.6501565194835146</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1323980709187577</v>
+        <v>0.1357922354032045</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.001734978774987102</v>
+        <v>-0.002081709925818233</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06228786303471269</v>
+        <v>0.06264446223252235</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1342017596944795</v>
+        <v>0.1338927522205832</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.002040335346886745</v>
+        <v>-0.002058427616292418</v>
       </c>
       <c r="J255" t="n">
-        <v>0.174044396852574</v>
+        <v>0.1730899866625507</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1369758486547606</v>
+        <v>0.1363320830841432</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.002008316041474347</v>
+        <v>-0.001967367481587027</v>
       </c>
       <c r="M255" t="n">
-        <v>0.4212554918035055</v>
+        <v>0.4101335584229195</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1358280002752506</v>
+        <v>0.137444958363113</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.00184148031841208</v>
+        <v>-0.002170991938733088</v>
       </c>
       <c r="P255" t="n">
-        <v>0.6581315423443341</v>
+        <v>0.6495378810827002</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.1331814914567385</v>
+        <v>0.1365957397547027</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.001734978774987102</v>
+        <v>-0.002081709925818233</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.0621657980738726</v>
+        <v>0.06256394327594554</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1349911818103294</v>
+        <v>0.1346803566454101</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.001930507550388987</v>
+        <v>-0.001947963881621218</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1738599329382943</v>
+        <v>0.1729392796938342</v>
       </c>
       <c r="K256" t="n">
-        <v>0.137781588940965</v>
+        <v>0.1371340365140499</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.002008316041474347</v>
+        <v>-0.001870909430119921</v>
       </c>
       <c r="M256" t="n">
-        <v>0.4217908955793211</v>
+        <v>0.409282832887816</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1366269885121639</v>
+        <v>0.1382534581181901</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001759859227240939</v>
+        <v>-0.002090305354505736</v>
       </c>
       <c r="P256" t="n">
-        <v>0.6586828587305986</v>
+        <v>0.6492551576436519</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1339649119947193</v>
+        <v>0.1373992441062009</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.001599756120513068</v>
+        <v>-0.002001265325048467</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06204372288114328</v>
+        <v>0.06250309765076613</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1357806039261792</v>
+        <v>0.1354679610702371</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.001930121526083771</v>
+        <v>-0.001947963881621218</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1736315414087307</v>
+        <v>0.1727116275171205</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1385873292271695</v>
+        <v>0.1379359899439566</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.002008316041474347</v>
+        <v>-0.001870909430119921</v>
       </c>
       <c r="M257" t="n">
-        <v>0.4224541494530399</v>
+        <v>0.4084272617052518</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1374259767490771</v>
+        <v>0.1390619578732673</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001759859227240939</v>
+        <v>-0.002090305354505736</v>
       </c>
       <c r="P257" t="n">
-        <v>0.6588659252644142</v>
+        <v>0.6484996476387236</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1347483325327001</v>
+        <v>0.1382027484576992</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.001599756120513068</v>
+        <v>-0.002001265325048467</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06191338340463534</v>
+        <v>0.06241943828832222</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1365700260420291</v>
+        <v>0.136255565495064</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.001930121526083771</v>
+        <v>-0.001947963881621218</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1734270428038812</v>
+        <v>0.1724298425132839</v>
       </c>
       <c r="K258" t="n">
-        <v>0.139393069513374</v>
+        <v>0.1387379433738634</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.002008316041474347</v>
+        <v>-0.001870909430119921</v>
       </c>
       <c r="M258" t="n">
-        <v>0.4228442116230039</v>
+        <v>0.4075133461604238</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1382249649859904</v>
+        <v>0.1398704576283444</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001759859227240939</v>
+        <v>-0.002090305354505736</v>
       </c>
       <c r="P258" t="n">
-        <v>0.658952897617509</v>
+        <v>0.648170779155937</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.135531753070681</v>
+        <v>0.1390062528091975</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.001599756120513068</v>
+        <v>-0.002001265325048467</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06177503118358778</v>
+        <v>0.06234722545431666</v>
       </c>
       <c r="G259" t="n">
-        <v>0.137359448157879</v>
+        <v>0.137043169919891</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.001930314538236379</v>
+        <v>-0.001947769104710747</v>
       </c>
       <c r="J259" t="n">
-        <v>0.173113145090326</v>
+        <v>0.1722055289167827</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1401988097995785</v>
+        <v>0.1395398968037701</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.002008316041474347</v>
+        <v>-0.001870909430119921</v>
       </c>
       <c r="M259" t="n">
-        <v>0.4234186609052341</v>
+        <v>0.4064322921057597</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1390239532229036</v>
+        <v>0.1406789573834216</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001759859227240939</v>
+        <v>-0.002090305354505736</v>
       </c>
       <c r="P259" t="n">
-        <v>0.6593981215668934</v>
+        <v>0.6475503339168761</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1363151736086618</v>
+        <v>0.1398097571606957</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.001599756120513068</v>
+        <v>-0.002001265325048467</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06163735829789427</v>
+        <v>0.06224406959939507</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1381488702737289</v>
+        <v>0.137830774344718</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001812027534608583</v>
+        <v>-0.00183903239574478</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1728023326127349</v>
+        <v>0.1719500556890035</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1410045500857829</v>
+        <v>0.1403418502336768</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.001910507504147249</v>
+        <v>-0.001779811725977105</v>
       </c>
       <c r="M260" t="n">
-        <v>0.4240054475874894</v>
+        <v>0.4054649492514816</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1398229414598168</v>
+        <v>0.1414874571384987</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.001685870234262136</v>
+        <v>-0.00198815154594773</v>
       </c>
       <c r="P260" t="n">
-        <v>0.6597468969414252</v>
+        <v>0.6469981930969112</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1370985941466426</v>
+        <v>0.140613261512194</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001471575998349569</v>
+        <v>-0.001910268441980532</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06149214501844787</v>
+        <v>0.06216967266474656</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1389382923895788</v>
+        <v>0.1386183787695449</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001812208755484131</v>
+        <v>-0.001839400239008255</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1725397654201093</v>
+        <v>0.1716638640513428</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1418102903719874</v>
+        <v>0.1411438036635836</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.001910507504147249</v>
+        <v>-0.001779811725977105</v>
       </c>
       <c r="M261" t="n">
-        <v>0.4247766223689931</v>
+        <v>0.4044465677584331</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1406219296967301</v>
+        <v>0.1422959568935759</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.001685870234262136</v>
+        <v>-0.00198815154594773</v>
       </c>
       <c r="P261" t="n">
-        <v>0.6598169509228903</v>
+        <v>0.6465147890469836</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1378820146846234</v>
+        <v>0.1414167658636922</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001471575998349569</v>
+        <v>-0.001910268441980532</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06131441344559717</v>
+        <v>0.0620562265473993</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1397277145054286</v>
+        <v>0.1394059831943719</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001812027534608583</v>
+        <v>-0.001839216317376517</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1721925782602052</v>
+        <v>0.1713695394508425</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1426160306581919</v>
+        <v>0.1419457570934903</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.001910507504147249</v>
+        <v>-0.001779811725977105</v>
       </c>
       <c r="M262" t="n">
-        <v>0.4253872235716724</v>
+        <v>0.4033243091706264</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1414209179336433</v>
+        <v>0.143104456648653</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.001685870234262136</v>
+        <v>-0.00198815154594773</v>
       </c>
       <c r="P262" t="n">
-        <v>0.6600628614172689</v>
+        <v>0.6460109585149582</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1386654352226042</v>
+        <v>0.1422202702151905</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001471575998349569</v>
+        <v>-0.001910268441980532</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06115491793539947</v>
+        <v>0.06198027898486369</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1405171366212785</v>
+        <v>0.1401935876191989</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001812027534608583</v>
+        <v>-0.001839584160639993</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1718505462350092</v>
+        <v>0.1711116711918898</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1434217709443964</v>
+        <v>0.142747710523397</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.001814581227056717</v>
+        <v>-0.001779811725977105</v>
       </c>
       <c r="M263" t="n">
-        <v>0.4258939433508803</v>
+        <v>0.40204580322093</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1422199061705565</v>
+        <v>0.1439129564037301</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.001685870234262136</v>
+        <v>-0.001867726056472513</v>
       </c>
       <c r="P263" t="n">
-        <v>0.6603024850624706</v>
+        <v>0.645308249775685</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.139448855760585</v>
+        <v>0.1430237745666887</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001471575998349569</v>
+        <v>-0.001910268441980532</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06099700727537921</v>
+        <v>0.06184875667510767</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1413065587371284</v>
+        <v>0.1409811920440258</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001687483427753119</v>
+        <v>-0.001733296671479694</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1714921549795331</v>
+        <v>0.1708021239373548</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1442275112306008</v>
+        <v>0.1435496639533037</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001814581227056717</v>
+        <v>-0.001694130333394632</v>
       </c>
       <c r="M264" t="n">
-        <v>0.4265843174940053</v>
+        <v>0.4008897249854463</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1430188944074698</v>
+        <v>0.1447214561588072</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001620809033645095</v>
+        <v>-0.001867726056472513</v>
       </c>
       <c r="P264" t="n">
-        <v>0.6606266450523428</v>
+        <v>0.6445865517048274</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1402322762985659</v>
+        <v>0.143827278918187</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001351417352729101</v>
+        <v>-0.001808717432553512</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06081580656176852</v>
+        <v>0.0617465401062572</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1420959808529783</v>
+        <v>0.1417687964688528</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001687314713153263</v>
+        <v>-0.001733296671479694</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1711623655085315</v>
+        <v>0.1705296487040983</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1450332515168053</v>
+        <v>0.1443516173832105</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001814581227056717</v>
+        <v>-0.001694130333394632</v>
       </c>
       <c r="M265" t="n">
-        <v>0.4271122687266292</v>
+        <v>0.3996376204522402</v>
       </c>
       <c r="N265" t="n">
-        <v>0.143817882644383</v>
+        <v>0.1455299559138844</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001620809033645095</v>
+        <v>-0.001867726056472513</v>
       </c>
       <c r="P265" t="n">
-        <v>0.6609441027342051</v>
+        <v>0.6439358614957187</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1410156968365467</v>
+        <v>0.1446307832696852</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001351417352729101</v>
+        <v>-0.001808717432553512</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.0606283520025126</v>
+        <v>0.06163146622539409</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1428854029688282</v>
+        <v>0.1425564008936797</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001687314713153263</v>
+        <v>-0.001732776786455255</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1707733901721197</v>
+        <v>0.1702283628173046</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1458389918030098</v>
+        <v>0.1451535708131172</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001814581227056717</v>
+        <v>-0.001694130333394632</v>
       </c>
       <c r="M266" t="n">
-        <v>0.4279391229129873</v>
+        <v>0.3983472029129325</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1446168708812963</v>
+        <v>0.1463384556689615</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001620809033645095</v>
+        <v>-0.001867726056472513</v>
       </c>
       <c r="P266" t="n">
-        <v>0.6608902331168723</v>
+        <v>0.6431779284834416</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1417991173745275</v>
+        <v>0.1454342876211835</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001351417352729101</v>
+        <v>-0.001808717432553512</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.0604099393204597</v>
+        <v>0.06152902440609445</v>
       </c>
       <c r="G267" t="n">
-        <v>0.143674825084678</v>
+        <v>0.1433440053185067</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001687145998553408</v>
+        <v>-0.001733123376471547</v>
       </c>
       <c r="J267" t="n">
-        <v>0.17034823231518</v>
+        <v>0.1699207132847013</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1466447320892143</v>
+        <v>0.1459555242430239</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001814581227056717</v>
+        <v>-0.001694130333394632</v>
       </c>
       <c r="M267" t="n">
-        <v>0.4286027318202711</v>
+        <v>0.3969662734602559</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1454158591182095</v>
+        <v>0.1471469554240386</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001620809033645095</v>
+        <v>-0.001867726056472513</v>
       </c>
       <c r="P267" t="n">
-        <v>0.6611023844950906</v>
+        <v>0.6426705889110299</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1425825379125083</v>
+        <v>0.1462377919726817</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001351417352729101</v>
+        <v>-0.001808717432553512</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06023568780589843</v>
+        <v>0.06138040163534268</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1444642472005279</v>
+        <v>0.1441316097433336</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001555846123101094</v>
+        <v>-0.001628619636869731</v>
       </c>
       <c r="J268" t="n">
-        <v>0.169953727331477</v>
+        <v>0.1695851039869104</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1474504723754187</v>
+        <v>0.1467574776729307</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.001718830248080867</v>
+        <v>-0.001614666224403853</v>
       </c>
       <c r="M268" t="n">
-        <v>0.4291021505121034</v>
+        <v>0.3957705738654823</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1462148473551227</v>
+        <v>0.1479554551791158</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001565787189940363</v>
+        <v>-0.001733535309853179</v>
       </c>
       <c r="P268" t="n">
-        <v>0.6614893775890444</v>
+        <v>0.641967874004695</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1433659584504891</v>
+        <v>0.14704129632418</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001239549574511208</v>
+        <v>-0.001699494710840995</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06001442490332626</v>
+        <v>0.06126158390628594</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1452536693163778</v>
+        <v>0.1449192141681606</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001555535016097875</v>
+        <v>-0.001628945360797105</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1695025668330807</v>
+        <v>0.1693316391867579</v>
       </c>
       <c r="K269" t="n">
-        <v>0.1482562126616232</v>
+        <v>0.1475594311028374</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.001718830248080867</v>
+        <v>-0.001614666224403853</v>
       </c>
       <c r="M269" t="n">
-        <v>0.4297843224442097</v>
+        <v>0.3943255312717028</v>
       </c>
       <c r="N269" t="n">
-        <v>0.147013835592036</v>
+        <v>0.1487639549341929</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001565787189940363</v>
+        <v>-0.001733535309853179</v>
       </c>
       <c r="P269" t="n">
-        <v>0.6617776217046025</v>
+        <v>0.6411599192167442</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1441493789884699</v>
+        <v>0.1478448006756782</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001239549574511208</v>
+        <v>-0.001699494710840995</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.05979625583480111</v>
+        <v>0.06113063891943919</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1460430914322277</v>
+        <v>0.1457068185929876</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001555690569599485</v>
+        <v>-0.001628945360797105</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1690176532922736</v>
+        <v>0.1690070213286856</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1490619529478277</v>
+        <v>0.1483613845327441</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.001718830248080867</v>
+        <v>-0.001614666224403853</v>
       </c>
       <c r="M270" t="n">
-        <v>0.4304753536984801</v>
+        <v>0.3929067517471095</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1478128238289492</v>
+        <v>0.1495724546892701</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001565787189940363</v>
+        <v>-0.001733535309853179</v>
       </c>
       <c r="P270" t="n">
-        <v>0.6618756465634033</v>
+        <v>0.6405146705161294</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1449327995264507</v>
+        <v>0.1486483050271765</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001239549574511208</v>
+        <v>-0.001699494710840995</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.05959784227087046</v>
+        <v>0.06098777674472675</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1468325135480776</v>
+        <v>0.1464944230178145</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001555379462596265</v>
+        <v>-0.001628945360797105</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1685654394693439</v>
+        <v>0.1686337704380229</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1498676932340322</v>
+        <v>0.1491633379626508</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.001718830248080867</v>
+        <v>-0.001614666224403853</v>
       </c>
       <c r="M271" t="n">
-        <v>0.4312330197691054</v>
+        <v>0.3914621725881527</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1486118120658625</v>
+        <v>0.1503809544443472</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001521916267698485</v>
+        <v>-0.001733535309853179</v>
       </c>
       <c r="P271" t="n">
-        <v>0.6620567003679013</v>
+        <v>0.6397653779202727</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1457162200644315</v>
+        <v>0.1494518093786747</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001239549574511208</v>
+        <v>-0.001699494710840995</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.05936995671110126</v>
+        <v>0.06087502271522062</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1476219356639275</v>
+        <v>0.1472820274426415</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001418887129557861</v>
+        <v>-0.001527177119203336</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1681027665531771</v>
+        <v>0.168277941505597</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1506734335202366</v>
+        <v>0.1499652913925575</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001624813844376791</v>
+        <v>-0.001542183554348796</v>
       </c>
       <c r="M272" t="n">
-        <v>0.4319989911017729</v>
+        <v>0.3899942972354401</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1494108003027757</v>
+        <v>0.1511894541994243</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001521916267698485</v>
+        <v>-0.001587737189059592</v>
       </c>
       <c r="P272" t="n">
-        <v>0.6620469655636182</v>
+        <v>0.6390906467006953</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1464996406024124</v>
+        <v>0.150255313730173</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001136944426898082</v>
+        <v>-0.001584071386124697</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.05913762388609724</v>
+        <v>0.0607088940375064</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1484113577797773</v>
+        <v>0.1480696318674685</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001419029018270817</v>
+        <v>-0.001526871744854366</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1676521370701204</v>
+        <v>0.1679615964042077</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1514791738064411</v>
+        <v>0.1507672448224643</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001624813844376791</v>
+        <v>-0.001542183554348796</v>
       </c>
       <c r="M273" t="n">
-        <v>0.4326563909555098</v>
+        <v>0.3884517839511844</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1502097885396889</v>
+        <v>0.1519979539545014</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001521916267698485</v>
+        <v>-0.001587737189059592</v>
       </c>
       <c r="P273" t="n">
-        <v>0.6622110342169556</v>
+        <v>0.6380467738738598</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1472830611403932</v>
+        <v>0.1510588180816712</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001136944426898082</v>
+        <v>-0.001584071386124697</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.05890926520563454</v>
+        <v>0.06057315932989617</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1492007798956272</v>
+        <v>0.1488572362922954</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001419170906983773</v>
+        <v>-0.001526871744854366</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1671489926916928</v>
+        <v>0.1676631337114597</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1522849140926456</v>
+        <v>0.151569198252371</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001624813844376791</v>
+        <v>-0.001542183554348796</v>
       </c>
       <c r="M274" t="n">
-        <v>0.4333211157814794</v>
+        <v>0.3870523662088998</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1510087767766022</v>
+        <v>0.1528064537095786</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001521916267698485</v>
+        <v>-0.001587737189059592</v>
       </c>
       <c r="P274" t="n">
-        <v>0.6625487743906129</v>
+        <v>0.6372564436090254</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.148066481678374</v>
+        <v>0.1518623224331695</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001136944426898082</v>
+        <v>-0.001584071386124697</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.05869320903084989</v>
+        <v>0.06041789911283586</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1499902020114771</v>
+        <v>0.1496448407171224</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001419170906983773</v>
+        <v>-0.001527177119203336</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1667243706819977</v>
+        <v>0.1672524488080966</v>
       </c>
       <c r="K275" t="n">
-        <v>0.15309065437885</v>
+        <v>0.1523711516822777</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001624813844376791</v>
+        <v>-0.001477416039344745</v>
       </c>
       <c r="M275" t="n">
-        <v>0.434051226529778</v>
+        <v>0.3854223861822264</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1518077650135154</v>
+        <v>0.1536149534646557</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001521916267698485</v>
+        <v>-0.001587737189059592</v>
       </c>
       <c r="P275" t="n">
-        <v>0.6626950019734618</v>
+        <v>0.6365422341439688</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1488499022163548</v>
+        <v>0.1526658267846678</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001136944426898082</v>
+        <v>-0.001584071386124697</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.05845707843479768</v>
+        <v>0.06027659099895236</v>
       </c>
       <c r="G276" t="n">
-        <v>0.150779624127327</v>
+        <v>0.1504324451419493</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001277286775004746</v>
+        <v>-0.001427192120051742</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1662054669786594</v>
+        <v>0.1669256602999515</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1538963946650545</v>
+        <v>0.1531731051121844</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001531302372305945</v>
+        <v>-0.001477416039344745</v>
       </c>
       <c r="M276" t="n">
-        <v>0.4349050790724065</v>
+        <v>0.3839932913505907</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1526067532504286</v>
+        <v>0.1544234532197329</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001490009829504106</v>
+        <v>-0.00143468153723478</v>
       </c>
       <c r="P276" t="n">
-        <v>0.6628319470300531</v>
+        <v>0.6356387806820469</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1496333227543356</v>
+        <v>0.153469331136166</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001044076165654168</v>
+        <v>-0.001462887237916986</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.05820936436216924</v>
+        <v>0.06011615826214159</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1515690462431768</v>
+        <v>0.1512200495667763</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001277414516456392</v>
+        <v>-0.001427620320507803</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1656798895051398</v>
+        <v>0.1666177414846103</v>
       </c>
       <c r="K277" t="n">
-        <v>0.154702134951259</v>
+        <v>0.1539750585420911</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001531302372305945</v>
+        <v>-0.001477416039344745</v>
       </c>
       <c r="M277" t="n">
-        <v>0.4357070946379239</v>
+        <v>0.3823930979868099</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1534057414873419</v>
+        <v>0.15523195297481</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001490009829504106</v>
+        <v>-0.00143468153723478</v>
       </c>
       <c r="P277" t="n">
-        <v>0.6628680923628124</v>
+        <v>0.6350781141072676</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1504167432923164</v>
+        <v>0.1542728354876642</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001044076165654168</v>
+        <v>-0.001462887237916986</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.05795846470901649</v>
+        <v>0.05998650648274549</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1523584683590267</v>
+        <v>0.1520076539916032</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001277542257908038</v>
+        <v>-0.001427334853537096</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1652129285744197</v>
+        <v>0.1662208397108275</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1555078752374635</v>
+        <v>0.1547770119719979</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001531302372305945</v>
+        <v>-0.001477416039344745</v>
       </c>
       <c r="M278" t="n">
-        <v>0.4363980702834812</v>
+        <v>0.3807318607364785</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1542047297242551</v>
+        <v>0.1560404527298871</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001490009829504106</v>
+        <v>-0.00143468153723478</v>
       </c>
       <c r="P278" t="n">
-        <v>0.662985769434167</v>
+        <v>0.6340641734666709</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1512001638302972</v>
+        <v>0.1550763398391625</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001044076165654168</v>
+        <v>-0.001462887237916986</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.05772877859295802</v>
+        <v>0.05982981218009822</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1531478904748766</v>
+        <v>0.1527952584164302</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001277286775004746</v>
+        <v>-0.00142747758702245</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1646975321715112</v>
+        <v>0.1659084372744987</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1563136155236679</v>
+        <v>0.1555789654019046</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001531302372305945</v>
+        <v>-0.001477416039344745</v>
       </c>
       <c r="M279" t="n">
-        <v>0.4370359161995843</v>
+        <v>0.3792242429280446</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1550037179611684</v>
+        <v>0.1568489524849642</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001490009829504106</v>
+        <v>-0.00143468153723478</v>
       </c>
       <c r="P279" t="n">
-        <v>0.6630934738115188</v>
+        <v>0.6332170701093206</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1519835843682781</v>
+        <v>0.1558798441906607</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001044076165654168</v>
+        <v>-0.001462887237916986</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.05748823861683855</v>
+        <v>0.05965462940506655</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1539373125907265</v>
+        <v>0.1535828628412572</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.001131383086305569</v>
+        <v>-0.001329850933356688</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1641133333841139</v>
+        <v>0.1655080647188628</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1571193558098724</v>
+        <v>0.1563809188318113</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.001438909835535308</v>
+        <v>-0.001420648272877235</v>
       </c>
       <c r="M280" t="n">
-        <v>0.4379139822866117</v>
+        <v>0.3776602782836276</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1558027061980816</v>
+        <v>0.1576574522400414</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001471631912078479</v>
+        <v>-0.001277969592617789</v>
       </c>
       <c r="P280" t="n">
-        <v>0.6630996560320536</v>
+        <v>0.6322721856996601</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1527670049062589</v>
+        <v>0.156683348542159</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.000961587387927185</v>
+        <v>-0.001339001651485449</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.05722117229379353</v>
+        <v>0.05951058260191243</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1547267347065764</v>
+        <v>0.1543704672660841</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001131383086305569</v>
+        <v>-0.001330116930143038</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1636110688044954</v>
+        <v>0.1651711207501232</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1579250960960769</v>
+        <v>0.157182872261718</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.001438909835535308</v>
+        <v>-0.001420648272877235</v>
       </c>
       <c r="M281" t="n">
-        <v>0.4387385259719925</v>
+        <v>0.3761481580422884</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1566016944349948</v>
+        <v>0.1584659519951185</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001471631912078479</v>
+        <v>-0.001277969592617789</v>
       </c>
       <c r="P281" t="n">
-        <v>0.6634606986316128</v>
+        <v>0.6314948262976058</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1535504254442397</v>
+        <v>0.1574868528936572</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.000961587387927185</v>
+        <v>-0.001339001651485449</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.05697590005118322</v>
+        <v>0.05934838900171263</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1555161568224262</v>
+        <v>0.1551580716909111</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001131722535176347</v>
+        <v>-0.001329850933356688</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1630843044747268</v>
+        <v>0.1647902520207904</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1587308363822814</v>
+        <v>0.1579848256916248</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.001438909835535308</v>
+        <v>-0.001420648272877235</v>
       </c>
       <c r="M282" t="n">
-        <v>0.4395089711722565</v>
+        <v>0.3746374632411151</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1574006826719081</v>
+        <v>0.1592744517501957</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001471631912078479</v>
+        <v>-0.001277969592617789</v>
       </c>
       <c r="P282" t="n">
-        <v>0.6634457825712554</v>
+        <v>0.6305328196218576</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1543338459822205</v>
+        <v>0.1582903572451555</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.000961587387927185</v>
+        <v>-0.001339001651485449</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.05671270461322854</v>
+        <v>0.05916831670467664</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1563055789382761</v>
+        <v>0.155945676115738</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.00102010872271043</v>
+        <v>-0.001258390212517587</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1625551912558724</v>
+        <v>0.164430367999693</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1595365766684858</v>
+        <v>0.1587867791215315</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001370352928761497</v>
+        <v>-0.001384017953423194</v>
       </c>
       <c r="M283" t="n">
-        <v>0.4401657223504712</v>
+        <v>0.3729738062009049</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1581996709088213</v>
+        <v>0.1600829515052728</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.001467549542881028</v>
+        <v>-0.001160636901719368</v>
       </c>
       <c r="P283" t="n">
-        <v>0.663419957074868</v>
+        <v>0.6297391859124966</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1551172665202013</v>
+        <v>0.1590938615966537</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.0009073321159352492</v>
+        <v>-0.001244531501926911</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.05644783595607719</v>
+        <v>0.05901152122821227</v>
       </c>
       <c r="G284" t="n">
-        <v>0.157095001054126</v>
+        <v>0.156733280540565</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.001020312764859187</v>
+        <v>-0.001258516064123999</v>
       </c>
       <c r="J284" t="n">
-        <v>0.162024466534311</v>
+        <v>0.1640917253451748</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1603423169546903</v>
+        <v>0.1595887325514382</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001370352928761497</v>
+        <v>-0.001384017953423194</v>
       </c>
       <c r="M284" t="n">
-        <v>0.4408852477252604</v>
+        <v>0.3715260844511538</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1589986591457345</v>
+        <v>0.16089145126035</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.001467549542881028</v>
+        <v>-0.001160636901719368</v>
       </c>
       <c r="P284" t="n">
-        <v>0.6634743425026827</v>
+        <v>0.6290261069057709</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1559006870581821</v>
+        <v>0.159897365948152</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.0009073321159352492</v>
+        <v>-0.001244531501926911</v>
       </c>
     </row>
   </sheetData>
